--- a/Model_gretl.xlsx
+++ b/Model_gretl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scherbakovandrew/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8DC894-2611-2048-B88C-197878F9DD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E93722-FD73-D941-8E4C-56ACCB1E6FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1360" windowWidth="28360" windowHeight="16860" xr2:uid="{13FB623C-704C-E647-8A49-C56F85340FC2}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
   <si>
     <t>Date</t>
   </si>
@@ -451,6 +450,18 @@
   </si>
   <si>
     <t>unempl</t>
+  </si>
+  <si>
+    <t>net_exp</t>
+  </si>
+  <si>
+    <t>GPR</t>
+  </si>
+  <si>
+    <t>nom_eff_exch_rate_index_m/m</t>
+  </si>
+  <si>
+    <t>M2X</t>
   </si>
 </sst>
 </file>
@@ -528,14 +539,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -850,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB27C789-E807-2E46-81C8-803B444F0798}">
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,9 +879,10 @@
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="11" width="22" customWidth="1"/>
+    <col min="18" max="18" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +911,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>115</v>
@@ -912,11 +925,20 @@
       <c r="N1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -945,7 +967,7 @@
         <v>15490309.0965725</v>
       </c>
       <c r="J2">
-        <v>3.9</v>
+        <v>41722.0472210343</v>
       </c>
       <c r="K2">
         <v>22.546142126176999</v>
@@ -962,8 +984,17 @@
       <c r="O2">
         <v>5.7692307692307709E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>1259681.48780177</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>111.98569488525391</v>
+      </c>
+      <c r="R2">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -992,7 +1023,7 @@
         <v>15466725.8881729</v>
       </c>
       <c r="J3">
-        <v>3.5</v>
+        <v>44569.483252019898</v>
       </c>
       <c r="K3">
         <v>21.323640718829399</v>
@@ -1009,8 +1040,17 @@
       <c r="O3">
         <v>5.4545454545454453E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>1272821.17896562</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>111.92469787597656</v>
+      </c>
+      <c r="R3">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -1039,7 +1079,7 @@
         <v>15444813.3240657</v>
       </c>
       <c r="J4">
-        <v>5.0999999999999996</v>
+        <v>43223.716053982404</v>
       </c>
       <c r="K4">
         <v>17.961165333140201</v>
@@ -1056,8 +1096,17 @@
       <c r="O4">
         <v>1.7241379310344973E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>1286172.8975661299</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>104.23526763916016</v>
+      </c>
+      <c r="R4">
+        <v>9.2179025167401196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -1086,7 +1135,7 @@
         <v>15410704.9298735</v>
       </c>
       <c r="J5">
-        <v>6.1</v>
+        <v>42914.591997112802</v>
       </c>
       <c r="K5">
         <v>15.0040192616315</v>
@@ -1103,8 +1152,17 @@
       <c r="O5">
         <v>-1.6949152542372947E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>1298161.2013594599</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>102.19049072265625</v>
+      </c>
+      <c r="R5">
+        <v>14.582097483259901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -1133,7 +1191,7 @@
         <v>15389773.6441461</v>
       </c>
       <c r="J6">
-        <v>6.5</v>
+        <v>42677.826392764997</v>
       </c>
       <c r="K6">
         <v>12.314635085229</v>
@@ -1150,8 +1208,17 @@
       <c r="O6">
         <v>-3.4482758620689724E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>1310706.41419897</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>76.2623291015625</v>
+      </c>
+      <c r="R6">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -1180,7 +1247,7 @@
         <v>15369565.779535901</v>
       </c>
       <c r="J7">
-        <v>6.2</v>
+        <v>43038.525965312401</v>
       </c>
       <c r="K7">
         <v>12.5735360620811</v>
@@ -1197,8 +1264,17 @@
       <c r="O7">
         <v>-3.5714285714285587E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>1323600.1952714501</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>85.905967712402344</v>
+      </c>
+      <c r="R7">
+        <v>-6.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -1227,7 +1303,7 @@
         <v>15336253.034589199</v>
       </c>
       <c r="J8">
-        <v>6.3</v>
+        <v>44183.817412766897</v>
       </c>
       <c r="K8">
         <v>12.283411505913501</v>
@@ -1244,8 +1320,17 @@
       <c r="O8">
         <v>-1.8518518518518601E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>1334473.8567719001</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>106.80866241455078</v>
+      </c>
+      <c r="R8">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1274,7 +1359,7 @@
         <v>15317435.029217999</v>
       </c>
       <c r="J9">
-        <v>6.7</v>
+        <v>44878.8416359806</v>
       </c>
       <c r="K9">
         <v>13.5483172475682</v>
@@ -1291,8 +1376,17 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>1346742.7504712001</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>82.478530883789062</v>
+      </c>
+      <c r="R9">
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1321,7 +1415,7 @@
         <v>15299508.593490001</v>
       </c>
       <c r="J10">
-        <v>5.8</v>
+        <v>46497.873564173198</v>
       </c>
       <c r="K10">
         <v>12.9179646940739</v>
@@ -1338,8 +1432,17 @@
       <c r="O10">
         <v>-1.8867924528301772E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>1359517.43751233</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>98.7674560546875</v>
+      </c>
+      <c r="R10">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1368,7 +1471,7 @@
         <v>15267975.7472998</v>
       </c>
       <c r="J11">
-        <v>7.8</v>
+        <v>47185.413713280897</v>
       </c>
       <c r="K11">
         <v>11.8231608617231</v>
@@ -1385,8 +1488,17 @@
       <c r="O11">
         <v>5.7692307692307709E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>1369800.3315072299</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>91.931884765625</v>
+      </c>
+      <c r="R11">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1415,7 +1527,7 @@
         <v>15251885.5698712</v>
       </c>
       <c r="J12">
-        <v>8.6</v>
+        <v>47459.154922702401</v>
       </c>
       <c r="K12">
         <v>11.4896160312292</v>
@@ -1432,8 +1544,17 @@
       <c r="O12">
         <v>5.4545454545454453E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>1382179.5462311599</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>150.71588134765625</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1583,7 @@
         <v>15236865.0490088</v>
       </c>
       <c r="J13">
-        <v>11.3</v>
+        <v>47995.545923487</v>
       </c>
       <c r="K13">
         <v>11.0754482374043</v>
@@ -1479,8 +1600,17 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>1395048.90798825</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>148.23687744140625</v>
+      </c>
+      <c r="R13">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1509,7 +1639,7 @@
         <v>15208298.6252867</v>
       </c>
       <c r="J14">
-        <v>9.3000000000000007</v>
+        <v>49948.465115878404</v>
       </c>
       <c r="K14">
         <v>10.7641395052369</v>
@@ -1526,8 +1656,17 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>1406588.1700766699</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>118.21114349365234</v>
+      </c>
+      <c r="R14">
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1556,7 +1695,7 @@
         <v>15194837.352887699</v>
       </c>
       <c r="J15">
-        <v>9.9</v>
+        <v>50115.0093430747</v>
       </c>
       <c r="K15">
         <v>12.0621269512475</v>
@@ -1573,8 +1712,17 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>1420779.56734626</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>103.74964904785156</v>
+      </c>
+      <c r="R15">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1603,7 +1751,7 @@
         <v>15181353.60788</v>
       </c>
       <c r="J16">
-        <v>11.8</v>
+        <v>50374.101803220401</v>
       </c>
       <c r="K16">
         <v>12.0946777593704</v>
@@ -1620,8 +1768,17 @@
       <c r="O16">
         <v>3.4482758620689724E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>1435169.2605496999</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>109.72029113769531</v>
+      </c>
+      <c r="R16">
+        <v>6.9211823374521497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1650,7 +1807,7 @@
         <v>15166079.749909399</v>
       </c>
       <c r="J17">
-        <v>10.7</v>
+        <v>49715.761277725403</v>
       </c>
       <c r="K17">
         <v>11.923673763006001</v>
@@ -1667,8 +1824,17 @@
       <c r="O17">
         <v>-1.6666666666666607E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>1447945.09070865</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>85.221450805664062</v>
+      </c>
+      <c r="R17">
+        <v>5.4788176625478497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1697,7 +1863,7 @@
         <v>15155234.704492901</v>
       </c>
       <c r="J18">
-        <v>12</v>
+        <v>49626.729408405903</v>
       </c>
       <c r="K18">
         <v>12.075013541928699</v>
@@ -1714,8 +1880,17 @@
       <c r="O18">
         <v>-5.0847457627118731E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>1462850.2970605199</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>88.332420349121094</v>
+      </c>
+      <c r="R18">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1744,7 +1919,7 @@
         <v>15145525.012711</v>
       </c>
       <c r="J19">
-        <v>12.3</v>
+        <v>50575.215069341903</v>
       </c>
       <c r="K19">
         <v>12.087346521889801</v>
@@ -1761,8 +1936,17 @@
       <c r="O19">
         <v>-3.5714285714285587E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>1477999.5559060699</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>90.168128967285156</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1791,7 +1975,7 @@
         <v>15135800.581114201</v>
       </c>
       <c r="J20">
-        <v>12.4</v>
+        <v>50493.848226020396</v>
       </c>
       <c r="K20">
         <v>11.070859344224299</v>
@@ -1808,8 +1992,17 @@
       <c r="O20">
         <v>-1.8518518518518601E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>1492574.2713763299</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>114.61045074462891</v>
+      </c>
+      <c r="R20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1838,7 +2031,7 @@
         <v>15128808.3723279</v>
       </c>
       <c r="J21">
-        <v>12.1</v>
+        <v>50748.582900588102</v>
       </c>
       <c r="K21">
         <v>10.4098738010495</v>
@@ -1855,8 +2048,17 @@
       <c r="O21">
         <v>-1.8867924528301772E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>1508359.0225480001</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>98.738487243652344</v>
+      </c>
+      <c r="R21">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1885,7 +2087,7 @@
         <v>15122983.7377022</v>
       </c>
       <c r="J22">
-        <v>12.8</v>
+        <v>49931.310119910398</v>
       </c>
       <c r="K22">
         <v>10.7972450661943</v>
@@ -1902,8 +2104,17 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>1524437.07581412</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>104.54522705078125</v>
+      </c>
+      <c r="R22">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1932,7 +2143,7 @@
         <v>15118797.4702999</v>
       </c>
       <c r="J23">
-        <v>12.1</v>
+        <v>49889.459674159101</v>
       </c>
       <c r="K23">
         <v>10.867456794714601</v>
@@ -1949,8 +2160,17 @@
       <c r="O23">
         <v>3.8461538461538547E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>1541045.80754484</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>85.747787475585938</v>
+      </c>
+      <c r="R23">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1979,7 +2199,7 @@
         <v>15115699.39139</v>
       </c>
       <c r="J24">
-        <v>11.3</v>
+        <v>50020.533619667804</v>
       </c>
       <c r="K24">
         <v>9.5841735351866095</v>
@@ -1996,8 +2216,17 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>1557846.95864685</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>82.918754577636719</v>
+      </c>
+      <c r="R24">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2026,7 +2255,7 @@
         <v>15113786.0127408</v>
       </c>
       <c r="J25">
-        <v>9.1999999999999993</v>
+        <v>50377.139040139497</v>
       </c>
       <c r="K25">
         <v>8.0581364960382995</v>
@@ -2043,8 +2272,17 @@
       <c r="O25">
         <v>-1.8518518518518601E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>1574961.06924843</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>102.18046569824219</v>
+      </c>
+      <c r="R25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2073,7 +2311,7 @@
         <v>15114903.4785793</v>
       </c>
       <c r="J26">
-        <v>12</v>
+        <v>49486.577909463398</v>
       </c>
       <c r="K26">
         <v>7.1670689009900803</v>
@@ -2090,8 +2328,17 @@
       <c r="O26">
         <v>5.6603773584905648E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>1593857.7080415201</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>105.20123291015625</v>
+      </c>
+      <c r="R26">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2120,7 +2367,7 @@
         <v>15115588.3494628</v>
       </c>
       <c r="J27">
-        <v>12.1</v>
+        <v>50552.368184551597</v>
       </c>
       <c r="K27">
         <v>6.9293169420617398</v>
@@ -2137,8 +2384,17 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>1611909.43848653</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>114.20635986328125</v>
+      </c>
+      <c r="R27">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2167,7 +2423,7 @@
         <v>15117332.816096701</v>
       </c>
       <c r="J28">
-        <v>11.1</v>
+        <v>50359.415499143499</v>
       </c>
       <c r="K28">
         <v>6.2949575015546797</v>
@@ -2184,8 +2440,17 @@
       <c r="O28">
         <v>-1.1386532778249969E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>1630251.7689250701</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>96.635879516601562</v>
+      </c>
+      <c r="R28">
+        <v>2.1588830097820502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2214,7 +2479,7 @@
         <v>15124242.9317526</v>
       </c>
       <c r="J29">
-        <v>10.1</v>
+        <v>50330.123767186597</v>
       </c>
       <c r="K29">
         <v>6.8757024367525696</v>
@@ -2231,8 +2496,17 @@
       <c r="O29">
         <v>-1.8297166076224114E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <v>1651338.7940819401</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>119.45992279052734</v>
+      </c>
+      <c r="R29">
+        <v>0.54111699021795201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2261,7 +2535,7 @@
         <v>15128542.0739609</v>
       </c>
       <c r="J30">
-        <v>10</v>
+        <v>50813.198858563301</v>
       </c>
       <c r="K30">
         <v>7.98677115713335</v>
@@ -2278,8 +2552,17 @@
       <c r="O30">
         <v>-2.3690573665863801E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <v>1670503.50413239</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>102.57996368408203</v>
+      </c>
+      <c r="R30">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2308,7 +2591,7 @@
         <v>15133982.9974185</v>
       </c>
       <c r="J31">
-        <v>10.5</v>
+        <v>51654.265926758497</v>
       </c>
       <c r="K31">
         <v>7.7045758882135003</v>
@@ -2325,8 +2608,17 @@
       <c r="O31">
         <v>-2.1894856206203128E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <v>1689949.9105543499</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>126.78901672363281</v>
+      </c>
+      <c r="R31">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2355,7 +2647,7 @@
         <v>15145278.186241301</v>
       </c>
       <c r="J32">
-        <v>9</v>
+        <v>52680.981691650297</v>
       </c>
       <c r="K32">
         <v>8.4775173824292995</v>
@@ -2372,8 +2664,17 @@
       <c r="O32">
         <v>-1.4228141226510393E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>1713139.9187085</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>102.81346130371094</v>
+      </c>
+      <c r="R32">
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2402,7 +2703,7 @@
         <v>15153096.381486701</v>
       </c>
       <c r="J33">
-        <v>9.1</v>
+        <v>52516.131737978598</v>
       </c>
       <c r="K33">
         <v>8.2844305021582301</v>
@@ -2419,8 +2720,17 @@
       <c r="O33">
         <v>-1.6672266733439134E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>1733351.69868406</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>138.5316162109375</v>
+      </c>
+      <c r="R33">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2449,7 +2759,7 @@
         <v>15162011.4652765</v>
       </c>
       <c r="J34">
-        <v>9.5</v>
+        <v>52071.848004794403</v>
       </c>
       <c r="K34">
         <v>7.7380683407923199</v>
@@ -2466,8 +2776,17 @@
       <c r="O34">
         <v>-6.128617279044124E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>1753835.2526688301</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>115.53444671630859</v>
+      </c>
+      <c r="R34">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2496,7 +2815,7 @@
         <v>15177034.707041999</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>52216.952495737198</v>
       </c>
       <c r="K35">
         <v>7.1045308620203302</v>
@@ -2513,8 +2832,17 @@
       <c r="O35">
         <v>-5.3209418995123769E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>1778773.84023542</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>91.461570739746094</v>
+      </c>
+      <c r="R35">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2543,7 +2871,7 @@
         <v>15188126.3341421</v>
       </c>
       <c r="J36">
-        <v>10.1</v>
+        <v>52737.122253728099</v>
       </c>
       <c r="K36">
         <v>6.8598080173296401</v>
@@ -2560,8 +2888,17 @@
       <c r="O36">
         <v>9.7644109719028371E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>1799916.3555924301</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>92.596015930175781</v>
+      </c>
+      <c r="R36">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2590,7 +2927,7 @@
         <v>15200259.0296581</v>
       </c>
       <c r="J37">
-        <v>10.5</v>
+        <v>53138.3436707328</v>
       </c>
       <c r="K37">
         <v>5.1408884872704004</v>
@@ -2607,8 +2944,17 @@
       <c r="O37">
         <v>6.0266154958554807E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <v>1821325.7044152501</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>82.718254089355469</v>
+      </c>
+      <c r="R37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2637,7 +2983,7 @@
         <v>15218358.245427901</v>
       </c>
       <c r="J38">
-        <v>9.4</v>
+        <v>53154.508125331697</v>
       </c>
       <c r="K38">
         <v>4.5420825755121603</v>
@@ -2654,8 +3000,17 @@
       <c r="O38">
         <v>8.3832855101757531E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>1847384.53923573</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>92.426788330078125</v>
+      </c>
+      <c r="R38">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2684,7 +3039,7 @@
         <v>15232452.8019513</v>
       </c>
       <c r="J39">
-        <v>9.3000000000000007</v>
+        <v>53471.140293337303</v>
       </c>
       <c r="K39">
         <v>4.9896185072413202</v>
@@ -2701,8 +3056,17 @@
       <c r="O39">
         <v>-4.5063260339270883E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>1869325.3101476601</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>64.491371154785156</v>
+      </c>
+      <c r="R39">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2731,7 +3095,7 @@
         <v>15247517.3673466</v>
       </c>
       <c r="J40">
-        <v>9.9</v>
+        <v>53240.790890734999</v>
       </c>
       <c r="K40">
         <v>6.2481907159914698</v>
@@ -2748,8 +3112,17 @@
       <c r="O40">
         <v>-3.2065403158778594E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>1891530.44552809</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>111.96229553222656</v>
+      </c>
+      <c r="R40">
+        <v>-2.1788176625478499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2778,7 +3151,7 @@
         <v>15268157.257783299</v>
       </c>
       <c r="J41">
-        <v>11.5</v>
+        <v>54360.762744326697</v>
       </c>
       <c r="K41">
         <v>8.2575579718615906</v>
@@ -2795,8 +3168,17 @@
       <c r="O41">
         <v>-1.8237604929457474E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>1917855.62801468</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>123.26347351074219</v>
+      </c>
+      <c r="R41">
+        <v>-3.22118233745215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2825,7 +3207,7 @@
         <v>15284991.676846201</v>
       </c>
       <c r="J42">
-        <v>10.3</v>
+        <v>56170.876208923997</v>
       </c>
       <c r="K42">
         <v>9.7182177631126301</v>
@@ -2842,8 +3224,17 @@
       <c r="O42">
         <v>-1.886238320227962E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>1940411.9662881501</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>125.66661834716797</v>
+      </c>
+      <c r="R42">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2872,7 +3263,7 @@
         <v>15302752.942927601</v>
       </c>
       <c r="J43">
-        <v>11.4</v>
+        <v>56909.517177632602</v>
       </c>
       <c r="K43">
         <v>9.6238709264387694</v>
@@ -2889,8 +3280,17 @@
       <c r="O43">
         <v>-2.426249410885517E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>1963228.8891854601</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>103.96858978271484</v>
+      </c>
+      <c r="R43">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2919,7 +3319,7 @@
         <v>15325263.740562299</v>
       </c>
       <c r="J44">
-        <v>11.8</v>
+        <v>57815.591668983703</v>
       </c>
       <c r="K44">
         <v>10.6040047744505</v>
@@ -2936,8 +3336,17 @@
       <c r="O44">
         <v>-1.0974832704272908E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>1988994.4656384401</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>110.02842712402344</v>
+      </c>
+      <c r="R44">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2966,7 +3375,7 @@
         <v>15344616.7468335</v>
       </c>
       <c r="J45">
-        <v>12.6</v>
+        <v>57456.455415780903</v>
       </c>
       <c r="K45">
         <v>10.4450756081997</v>
@@ -2983,8 +3392,17 @@
       <c r="O45">
         <v>-1.2106146021608311E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>2012003.94870254</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>112.74168395996094</v>
+      </c>
+      <c r="R45">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -3013,7 +3431,7 @@
         <v>15364846.2376156</v>
       </c>
       <c r="J46">
-        <v>11.8</v>
+        <v>58213.6885177851</v>
       </c>
       <c r="K46">
         <v>10.6649921290325</v>
@@ -3030,8 +3448,17 @@
       <c r="O46">
         <v>-1.2491124159215494E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>2035247.14286173</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>75.053909301757812</v>
+      </c>
+      <c r="R46">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -3060,7 +3487,7 @@
         <v>15388763.1985198</v>
       </c>
       <c r="J47">
-        <v>11.5</v>
+        <v>58014.560314539602</v>
       </c>
       <c r="K47">
         <v>11.020548113183001</v>
@@ -3077,8 +3504,17 @@
       <c r="O47">
         <v>9.9201399533854762E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>2059926.1621111899</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>92.0164794921875</v>
+      </c>
+      <c r="R47">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3107,7 +3543,7 @@
         <v>15410441.863797899</v>
       </c>
       <c r="J48">
-        <v>11.9</v>
+        <v>58521.536645310298</v>
       </c>
       <c r="K48">
         <v>11.7863195674253</v>
@@ -3124,8 +3560,17 @@
       <c r="O48">
         <v>1.6131302831109195E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>2083239.91069549</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>80.407585144042969</v>
+      </c>
+      <c r="R48">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3154,7 +3599,7 @@
         <v>15432961.807889801</v>
       </c>
       <c r="J49">
-        <v>11</v>
+        <v>59045.7841059559</v>
       </c>
       <c r="K49">
         <v>14.112154825662699</v>
@@ -3171,8 +3616,17 @@
       <c r="O49">
         <v>2.5800731746812522E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>2106728.93744019</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>90.607666015625</v>
+      </c>
+      <c r="R49">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3201,7 +3655,7 @@
         <v>15457918.542675201</v>
       </c>
       <c r="J50">
-        <v>9.9</v>
+        <v>59702.740376878697</v>
       </c>
       <c r="K50">
         <v>17.7079976777142</v>
@@ -3218,8 +3672,17 @@
       <c r="O50">
         <v>1.1163930450525106E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>2130267.9384734398</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>87.424102783203125</v>
+      </c>
+      <c r="R50">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -3248,7 +3711,7 @@
         <v>15481789.4836572</v>
       </c>
       <c r="J51">
-        <v>9.9</v>
+        <v>59008.986630653802</v>
       </c>
       <c r="K51">
         <v>11.4068534300881</v>
@@ -3265,8 +3728,17 @@
       <c r="O51">
         <v>5.6957029670015036E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>2153758.8062712499</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>96.800163269042969</v>
+      </c>
+      <c r="R51">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -3295,7 +3767,7 @@
         <v>15506483.867597301</v>
       </c>
       <c r="J52">
-        <v>8.9</v>
+        <v>59568.503359844399</v>
       </c>
       <c r="K52">
         <v>9.4551915053079707</v>
@@ -3312,8 +3784,17 @@
       <c r="O52">
         <v>-1.0423440479628621E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <v>2177332.2539718002</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>82.328292846679688</v>
+      </c>
+      <c r="R52">
+        <v>3.0588830097820501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -3342,7 +3823,7 @@
         <v>15532240.491754999</v>
       </c>
       <c r="J53">
-        <v>7.7</v>
+        <v>59745.110422473197</v>
       </c>
       <c r="K53">
         <v>8.6491560911486705</v>
@@ -3359,8 +3840,17 @@
       <c r="O53">
         <v>-1.0896342767091061E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <v>2200183.9075437398</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>79.253448486328125</v>
+      </c>
+      <c r="R53">
+        <v>-0.35888300978204801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -3389,7 +3879,7 @@
         <v>15558241.826361099</v>
       </c>
       <c r="J54">
-        <v>8</v>
+        <v>60429.081235834303</v>
       </c>
       <c r="K54">
         <v>9.1377985003141795</v>
@@ -3406,8 +3896,17 @@
       <c r="O54">
         <v>-2.2235754465202651E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <v>2223731.9337123302</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>106.47190093994141</v>
+      </c>
+      <c r="R54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -3436,7 +3935,7 @@
         <v>15585079.5757068</v>
       </c>
       <c r="J55">
-        <v>7.3</v>
+        <v>61244.218021991903</v>
       </c>
       <c r="K55">
         <v>9.3257997125952006</v>
@@ -3453,8 +3952,17 @@
       <c r="O55">
         <v>-1.8011802359152673E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55">
+        <v>2247264.2760470398</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>106.58845520019531</v>
+      </c>
+      <c r="R55">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -3483,7 +3991,7 @@
         <v>15611458.875900101</v>
       </c>
       <c r="J56">
-        <v>7.8</v>
+        <v>61574.674808494303</v>
       </c>
       <c r="K56">
         <v>9.0966069827393401</v>
@@ -3500,8 +4008,17 @@
       <c r="O56">
         <v>-1.9741332962132985E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56">
+        <v>2270096.21893482</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>93.521255493164062</v>
+      </c>
+      <c r="R56">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -3530,7 +4047,7 @@
         <v>15639618.138749</v>
       </c>
       <c r="J57">
-        <v>7.2</v>
+        <v>61604.134814444304</v>
       </c>
       <c r="K57">
         <v>9.2804539819197291</v>
@@ -3547,8 +4064,17 @@
       <c r="O57">
         <v>-1.8855207986195777E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57">
+        <v>2293598.19764225</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>103.4044189453125</v>
+      </c>
+      <c r="R57">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -3577,7 +4103,7 @@
         <v>15668590.0354135</v>
       </c>
       <c r="J58">
-        <v>9.1</v>
+        <v>62120.436249231097</v>
       </c>
       <c r="K58">
         <v>8.7599395177916808</v>
@@ -3594,8 +4120,17 @@
       <c r="O58">
         <v>1.7721750853629814E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58">
+        <v>2316983.4001776702</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>90.367988586425781</v>
+      </c>
+      <c r="R58">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -3624,7 +4159,7 @@
         <v>15695992.1275346</v>
       </c>
       <c r="J59">
-        <v>8.6999999999999993</v>
+        <v>62387.386510615303</v>
       </c>
       <c r="K59">
         <v>8.2086019580422906</v>
@@ -3641,8 +4176,17 @@
       <c r="O59">
         <v>9.4272731131357368E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59">
+        <v>2340499.09600269</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>97.83673095703125</v>
+      </c>
+      <c r="R59">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -3671,7 +4215,7 @@
         <v>15726355.1033311</v>
       </c>
       <c r="J60">
-        <v>9.6</v>
+        <v>62751.821434841899</v>
       </c>
       <c r="K60">
         <v>7.3741296720069904</v>
@@ -3688,8 +4232,17 @@
       <c r="O60">
         <v>2.4872179938777661E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60">
+        <v>2363836.7573754</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>73.078384399414062</v>
+      </c>
+      <c r="R60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -3718,7 +4271,7 @@
         <v>15757499.8056024</v>
       </c>
       <c r="J61">
-        <v>9.6999999999999993</v>
+        <v>63392.040179858799</v>
       </c>
       <c r="K61">
         <v>6.4950829181544796</v>
@@ -3735,8 +4288,17 @@
       <c r="O61">
         <v>9.2736399451058826E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61">
+        <v>2386951.2226029998</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>74.279891967773438</v>
+      </c>
+      <c r="R61">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -3765,7 +4327,7 @@
         <v>15786613.0466264</v>
       </c>
       <c r="J62">
-        <v>10.7</v>
+        <v>62750.016944791001</v>
       </c>
       <c r="K62">
         <v>6.00771253665736</v>
@@ -3782,8 +4344,17 @@
       <c r="O62">
         <v>3.4380154718771649E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62">
+        <v>2411729.0913061299</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>138.42094421386719</v>
+      </c>
+      <c r="R62">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -3812,7 +4383,7 @@
         <v>15819252.4755613</v>
       </c>
       <c r="J63">
-        <v>11</v>
+        <v>63090.320039996703</v>
       </c>
       <c r="K63">
         <v>12.0675589795876</v>
@@ -3829,8 +4400,17 @@
       <c r="O63">
         <v>-1.5035483305778641E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63">
+        <v>2434731.1392773702</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>75.955558776855469</v>
+      </c>
+      <c r="R63">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3859,7 +4439,7 @@
         <v>15852629.0456225</v>
       </c>
       <c r="J64">
-        <v>13.4</v>
+        <v>64503.915711355599</v>
       </c>
       <c r="K64">
         <v>15.082715466154299</v>
@@ -3876,8 +4456,17 @@
       <c r="O64">
         <v>4.5473587465425513E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64">
+        <v>2457393.2756586201</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>81.540031433105469</v>
+      </c>
+      <c r="R64">
+        <v>-10.837837169505899</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -3906,7 +4495,7 @@
         <v>15884345.2399597</v>
       </c>
       <c r="J65">
-        <v>14</v>
+        <v>67866.095133024894</v>
       </c>
       <c r="K65">
         <v>12.314010008395901</v>
@@ -3923,8 +4512,17 @@
       <c r="O65">
         <v>7.9464653565529897E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65">
+        <v>2483746.4667691598</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>69.339401245117188</v>
+      </c>
+      <c r="R65">
+        <v>-1.6621628304940701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -3953,7 +4551,7 @@
         <v>15919324.101518299</v>
       </c>
       <c r="J66">
-        <v>13.5</v>
+        <v>68094.702758364001</v>
       </c>
       <c r="K66">
         <v>12.0947599740553</v>
@@ -3970,8 +4568,17 @@
       <c r="O66">
         <v>9.7065889375963055E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66">
+        <v>2506149.9653046899</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>68.507217407226562</v>
+      </c>
+      <c r="R66">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -4000,7 +4607,7 @@
         <v>15954964.2079059</v>
       </c>
       <c r="J67">
-        <v>14.9</v>
+        <v>68168.440678293293</v>
       </c>
       <c r="K67">
         <v>12.7351991797027</v>
@@ -4017,8 +4624,17 @@
       <c r="O67">
         <v>9.3089112759918713E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67">
+        <v>2528075.8610349</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>71.227859497070312</v>
+      </c>
+      <c r="R67">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -4047,7 +4663,7 @@
         <v>15990331.1666111</v>
       </c>
       <c r="J68">
-        <v>15.5</v>
+        <v>69439.909371561007</v>
       </c>
       <c r="K68">
         <v>13.002570885827501</v>
@@ -4064,8 +4680,17 @@
       <c r="O68">
         <v>3.1549466929419623E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68">
+        <v>2555983.8700208301</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>66.473281860351562</v>
+      </c>
+      <c r="R68">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -4094,7 +4719,7 @@
         <v>16027647.3681345</v>
       </c>
       <c r="J69">
-        <v>16.2</v>
+        <v>70568.697638993894</v>
       </c>
       <c r="K69">
         <v>13.544487802832201</v>
@@ -4111,8 +4736,17 @@
       <c r="O69">
         <v>1.7414728992707351E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69">
+        <v>2577398.5007913699</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>65.466049194335938</v>
+      </c>
+      <c r="R69">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -4141,7 +4775,7 @@
         <v>16065644.8800894</v>
       </c>
       <c r="J70">
-        <v>16.100000000000001</v>
+        <v>71107.025076296602</v>
       </c>
       <c r="K70">
         <v>14.6995769908971</v>
@@ -4158,8 +4792,17 @@
       <c r="O70">
         <v>9.5451862692956801E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70">
+        <v>2598186.3136458299</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>80.37738037109375</v>
+      </c>
+      <c r="R70">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -4188,7 +4831,7 @@
         <v>16104751.0223136</v>
       </c>
       <c r="J71">
-        <v>16.2</v>
+        <v>72964.079321193407</v>
       </c>
       <c r="K71">
         <v>16.050459951916299</v>
@@ -4205,8 +4848,17 @@
       <c r="O71">
         <v>-2.6471880469880471E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71">
+        <v>2627120.89680736</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>76.083168029785156</v>
+      </c>
+      <c r="R71">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -4235,7 +4887,7 @@
         <v>16144442.12118</v>
       </c>
       <c r="J72">
-        <v>14.1</v>
+        <v>73445.345801193398</v>
       </c>
       <c r="K72">
         <v>16.1146183664003</v>
@@ -4252,8 +4904,17 @@
       <c r="O72">
         <v>-1.373683966507766E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72">
+        <v>2647024.4343798002</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>70.067466735839844</v>
+      </c>
+      <c r="R72">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -4282,7 +4943,7 @@
         <v>16184847.599830501</v>
       </c>
       <c r="J73">
-        <v>13.5</v>
+        <v>73288.648274467996</v>
       </c>
       <c r="K73">
         <v>14.503339367381299</v>
@@ -4299,8 +4960,17 @@
       <c r="O73">
         <v>-2.531876177825354E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73">
+        <v>2666140.3882921701</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>64.067291259765625</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -4329,7 +4999,7 @@
         <v>16227404.5578252</v>
       </c>
       <c r="J74">
-        <v>13.8</v>
+        <v>73201.886841604995</v>
       </c>
       <c r="K74">
         <v>15.939632477225199</v>
@@ -4346,8 +5016,17 @@
       <c r="O74">
         <v>-2.6961631529172858E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74">
+        <v>2695046.3480480299</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>77.418701171875</v>
+      </c>
+      <c r="R74">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -4376,7 +5055,7 @@
         <v>16269471.0648867</v>
       </c>
       <c r="J75">
-        <v>13.4</v>
+        <v>73966.503295032599</v>
       </c>
       <c r="K75">
         <v>16.2784518767854</v>
@@ -4393,8 +5072,17 @@
       <c r="O75">
         <v>-2.4148855641727751E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75">
+        <v>2712790.6712915702</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>73.956802368164062</v>
+      </c>
+      <c r="R75">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -4423,7 +5111,7 @@
         <v>16312292.718327999</v>
       </c>
       <c r="J76">
-        <v>11.3</v>
+        <v>74278.096467552095</v>
       </c>
       <c r="K76">
         <v>18.284103656775599</v>
@@ -4440,8 +5128,17 @@
       <c r="O76">
         <v>-2.7198449453125106E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76">
+        <v>2729592.9596271999</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>78.618766784667969</v>
+      </c>
+      <c r="R76">
+        <v>0.26872247191812698</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -4470,7 +5167,7 @@
         <v>16357738.410320699</v>
       </c>
       <c r="J77">
-        <v>11.8</v>
+        <v>74902.717593896698</v>
       </c>
       <c r="K77">
         <v>19.924862591641599</v>
@@ -4487,8 +5184,17 @@
       <c r="O77">
         <v>-3.3870887182606224E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77">
+        <v>2756846.8060003598</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>88.166221618652344</v>
+      </c>
+      <c r="R77">
+        <v>-0.66872247191812795</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -4517,7 +5223,7 @@
         <v>16402153.488611501</v>
       </c>
       <c r="J78">
-        <v>11.5</v>
+        <v>76193.956092127293</v>
       </c>
       <c r="K78">
         <v>21.301653549878601</v>
@@ -4534,8 +5240,17 @@
       <c r="O78">
         <v>-4.8317772217002286E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78">
+        <v>2771705.46739347</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>93.007133483886719</v>
+      </c>
+      <c r="R78">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -4564,7 +5279,7 @@
         <v>16447376.760129901</v>
       </c>
       <c r="J79">
-        <v>9.5</v>
+        <v>76685.0946750437</v>
       </c>
       <c r="K79">
         <v>22.4839926922023</v>
@@ -4581,8 +5296,17 @@
       <c r="O79">
         <v>-4.1259527486768754E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79">
+        <v>2785506.5079600601</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>74.127120971679688</v>
+      </c>
+      <c r="R79">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -4611,7 +5335,7 @@
         <v>16494957.809665799</v>
       </c>
       <c r="J80">
-        <v>8.6</v>
+        <v>76861.676441168296</v>
       </c>
       <c r="K80">
         <v>22.365558294842302</v>
@@ -4628,8 +5352,17 @@
       <c r="O80">
         <v>-4.2500062847200981E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80">
+        <v>2808911.9422964202</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>58.420768737792969</v>
+      </c>
+      <c r="R80">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -4658,7 +5391,7 @@
         <v>16541707.415328</v>
       </c>
       <c r="J81">
-        <v>8.1999999999999993</v>
+        <v>76923.589215100495</v>
       </c>
       <c r="K81">
         <v>21.2939409787964</v>
@@ -4675,8 +5408,17 @@
       <c r="O81">
         <v>-3.2519840918519227E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81">
+        <v>2820177.0217040302</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>89.486549377441406</v>
+      </c>
+      <c r="R81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -4705,7 +5447,7 @@
         <v>16589250.298943</v>
       </c>
       <c r="J82">
-        <v>8.1999999999999993</v>
+        <v>77649.891950574995</v>
       </c>
       <c r="K82">
         <v>20.003562822103799</v>
@@ -4722,8 +5464,17 @@
       <c r="O82">
         <v>-3.0946739636817933E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82">
+        <v>2830299.65952957</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>80.696968078613281</v>
+      </c>
+      <c r="R82">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -4752,7 +5503,7 @@
         <v>16638743.445015101</v>
       </c>
       <c r="J83">
-        <v>8.8000000000000007</v>
+        <v>78831.0563496018</v>
       </c>
       <c r="K83">
         <v>20.727584229409398</v>
@@ -4769,8 +5520,17 @@
       <c r="O83">
         <v>-1.6400306175781143E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83">
+        <v>2847533.8604892399</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>79.02923583984375</v>
+      </c>
+      <c r="R83">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -4799,7 +5559,7 @@
         <v>16687755.294983299</v>
       </c>
       <c r="J84">
-        <v>11</v>
+        <v>79268.752526361204</v>
       </c>
       <c r="K84">
         <v>20.491515819279101</v>
@@ -4816,8 +5576,17 @@
       <c r="O84">
         <v>-1.0620847250019216E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84">
+        <v>2854593.8799658702</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>86.569145202636719</v>
+      </c>
+      <c r="R84">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -4846,7 +5615,7 @@
         <v>16737515.455475001</v>
       </c>
       <c r="J85">
-        <v>13</v>
+        <v>81153.003763717803</v>
       </c>
       <c r="K85">
         <v>21.181904414187098</v>
@@ -4863,8 +5632,17 @@
       <c r="O85">
         <v>-4.6345054511187644E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85">
+        <v>2860453.4040336302</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>105.34542083740234</v>
+      </c>
+      <c r="R85">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -4893,7 +5671,7 @@
         <v>16788989.192752302</v>
       </c>
       <c r="J86">
-        <v>13.4</v>
+        <v>81443.972166538602</v>
       </c>
       <c r="K86">
         <v>23.483714483431999</v>
@@ -4910,8 +5688,17 @@
       <c r="O86">
         <v>-2.1941430286703811E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86">
+        <v>2869577.3425590098</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>138.67498779296875</v>
+      </c>
+      <c r="R86">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -4940,7 +5727,7 @@
         <v>16840173.1383086</v>
       </c>
       <c r="J87">
-        <v>14.6</v>
+        <v>82906.441323879902</v>
       </c>
       <c r="K87">
         <v>22.3140990045206</v>
@@ -4957,8 +5744,17 @@
       <c r="O87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87">
+        <v>2872005.5145916999</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>216.15901184082031</v>
+      </c>
+      <c r="R87">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -4987,7 +5783,7 @@
         <v>16892039.998977002</v>
       </c>
       <c r="J88">
-        <v>17.100000000000001</v>
+        <v>84353.2183830336</v>
       </c>
       <c r="K88">
         <v>42.366671807739003</v>
@@ -5004,8 +5800,17 @@
       <c r="O88">
         <v>-2.3255813953488302E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88">
+        <v>2873222.5892851502</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>318.95492553710938</v>
+      </c>
+      <c r="R88">
+        <v>-20.741116990218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -5034,7 +5839,7 @@
         <v>16945756.560028601</v>
       </c>
       <c r="J89">
-        <v>15.7</v>
+        <v>84923.528674102796</v>
       </c>
       <c r="K89">
         <v>33.025797160935902</v>
@@ -5051,8 +5856,17 @@
       <c r="O89">
         <v>-2.3809523809523947E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P89">
+        <v>2872968.7299751998</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>191.14309692382812</v>
+      </c>
+      <c r="R89">
+        <v>31.4411169902179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -5081,7 +5895,7 @@
         <v>16998974.4371153</v>
       </c>
       <c r="J90">
-        <v>16.600000000000001</v>
+        <v>83616.627610802898</v>
       </c>
       <c r="K90">
         <v>23.522565015419001</v>
@@ -5098,8 +5912,17 @@
       <c r="O90">
         <v>-2.4390243902438935E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P90">
+        <v>2870607.4451226001</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>142.25848388671875</v>
+      </c>
+      <c r="R90">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -5128,7 +5951,7 @@
         <v>17052782.194040701</v>
       </c>
       <c r="J91">
-        <v>16.8</v>
+        <v>83308.969174413403</v>
       </c>
       <c r="K91">
         <v>18.483266181605099</v>
@@ -5145,8 +5968,17 @@
       <c r="O91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P91">
+        <v>2866971.3455992402</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>130.70732116699219</v>
+      </c>
+      <c r="R91">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -5175,7 +6007,7 @@
         <v>17109170.982905202</v>
       </c>
       <c r="J92">
-        <v>19.3</v>
+        <v>81660.931337019603</v>
       </c>
       <c r="K92">
         <v>16.668685544367499</v>
@@ -5192,8 +6024,17 @@
       <c r="O92">
         <v>-2.5000000000000022E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P92">
+        <v>2857789.5413631401</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>117.17676544189453</v>
+      </c>
+      <c r="R92">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -5222,7 +6063,7 @@
         <v>17164299.7232829</v>
       </c>
       <c r="J93">
-        <v>22.6</v>
+        <v>84759.289100204405</v>
       </c>
       <c r="K93">
         <v>14.684380910765</v>
@@ -5239,8 +6080,17 @@
       <c r="O93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P93">
+        <v>2850694.0188307399</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>132.86322021484375</v>
+      </c>
+      <c r="R93">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -5269,7 +6119,7 @@
         <v>17219947.610567302</v>
       </c>
       <c r="J94">
-        <v>23.9</v>
+        <v>86037.280361625701</v>
       </c>
       <c r="K94">
         <v>15.0569538635241</v>
@@ -5286,8 +6136,17 @@
       <c r="O94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P94">
+        <v>2842266.2534141499</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>131.98587036132812</v>
+      </c>
+      <c r="R94">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -5316,7 +6175,7 @@
         <v>17279132.627264101</v>
       </c>
       <c r="J95">
-        <v>24.4</v>
+        <v>86738.658705250898</v>
       </c>
       <c r="K95">
         <v>15.664529972343299</v>
@@ -5333,8 +6192,17 @@
       <c r="O95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P95">
+        <v>2825717.2318561999</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>143.16241455078125</v>
+      </c>
+      <c r="R95">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -5363,7 +6231,7 @@
         <v>17336007.041037399</v>
       </c>
       <c r="J96">
-        <v>23.4</v>
+        <v>88159.367286770794</v>
       </c>
       <c r="K96">
         <v>17.3014463011774</v>
@@ -5380,8 +6248,17 @@
       <c r="O96">
         <v>-2.5641025641025661E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P96">
+        <v>2814145.3874181001</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>116.71628570556641</v>
+      </c>
+      <c r="R96">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -5410,7 +6287,7 @@
         <v>17393353.558903102</v>
       </c>
       <c r="J97">
-        <v>24.4</v>
+        <v>88716.884589711495</v>
       </c>
       <c r="K97">
         <v>18.207498102984399</v>
@@ -5427,8 +6304,17 @@
       <c r="O97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P97">
+        <v>2801235.25410434</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>111.19593811035156</v>
+      </c>
+      <c r="R97">
+        <v>-9.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -5457,7 +6343,7 @@
         <v>17455087.809937101</v>
       </c>
       <c r="J98">
-        <v>25.9</v>
+        <v>92094.769197837406</v>
       </c>
       <c r="K98">
         <v>16.563040568665901</v>
@@ -5474,8 +6360,17 @@
       <c r="O98">
         <v>-2.631578947368407E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P98">
+        <v>2779328.9466927699</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>104.26704406738281</v>
+      </c>
+      <c r="R98">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -5504,7 +6399,7 @@
         <v>17513526.8984253</v>
       </c>
       <c r="J99">
-        <v>25.9</v>
+        <v>93271.181503352505</v>
       </c>
       <c r="K99">
         <v>16.4531461411549</v>
@@ -5521,8 +6416,17 @@
       <c r="O99">
         <v>-2.7027027027027084E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P99">
+        <v>2763707.9440337699</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>120.99437713623047</v>
+      </c>
+      <c r="R99">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -5551,7 +6455,7 @@
         <v>17572434.786424</v>
       </c>
       <c r="J100">
-        <v>24.4</v>
+        <v>95601.6814891221</v>
       </c>
       <c r="K100">
         <v>17.031260954051898</v>
@@ -5568,8 +6472,17 @@
       <c r="O100">
         <v>-2.777777777777779E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P100">
+        <v>2746876.7624093699</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>105.37997436523438</v>
+      </c>
+      <c r="R100">
+        <v>-3.1853773039719102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -5598,7 +6511,7 @@
         <v>17636018.841774601</v>
       </c>
       <c r="J101">
-        <v>23.6</v>
+        <v>97120.949567075499</v>
       </c>
       <c r="K101">
         <v>17.6121579787191</v>
@@ -5615,8 +6528,17 @@
       <c r="O101">
         <v>-2.8571428571428581E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P101">
+        <v>2721049.5458772099</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>106.80965423583984</v>
+      </c>
+      <c r="R101">
+        <v>-6.8146226960280902</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -5645,7 +6567,7 @@
         <v>17695571.571384899</v>
       </c>
       <c r="J102">
-        <v>24.9</v>
+        <v>97758.925129868207</v>
       </c>
       <c r="K102">
         <v>16.963079407613801</v>
@@ -5662,8 +6584,17 @@
       <c r="O102">
         <v>-2.9411764705882359E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P102">
+        <v>2701896.4703330798</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>108.46768188476562</v>
+      </c>
+      <c r="R102">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -5692,7 +6623,7 @@
         <v>17755549.011937201</v>
       </c>
       <c r="J103">
-        <v>25.4</v>
+        <v>99696.1846315609</v>
       </c>
       <c r="K103">
         <v>16.570376266118402</v>
@@ -5709,8 +6640,17 @@
       <c r="O103">
         <v>-3.0303030303030165E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P103">
+        <v>2681631.0871992102</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>110.52894592285156</v>
+      </c>
+      <c r="R103">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -5739,7 +6679,7 @@
         <v>17820538.714804001</v>
       </c>
       <c r="J104">
-        <v>24.7</v>
+        <v>101991.814538406</v>
       </c>
       <c r="K104">
         <v>18.510725772716299</v>
@@ -5756,8 +6696,17 @@
       <c r="O104">
         <v>-3.125E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P104">
+        <v>2653940.21164707</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>107.44878387451172</v>
+      </c>
+      <c r="R104">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -5786,7 +6735,7 @@
         <v>17881313.811873998</v>
       </c>
       <c r="J105">
-        <v>22.9</v>
+        <v>103826.47956355401</v>
       </c>
       <c r="K105">
         <v>23.250438678887502</v>
@@ -5803,8 +6752,17 @@
       <c r="O105">
         <v>-3.2258064516129115E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P105">
+        <v>2631869.5884690699</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>101.14118194580078</v>
+      </c>
+      <c r="R105">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -5833,7 +6791,7 @@
         <v>17942491.8559037</v>
       </c>
       <c r="J106">
-        <v>20.6</v>
+        <v>105869.804619513</v>
       </c>
       <c r="K106">
         <v>24.4526084702715</v>
@@ -5850,8 +6808,17 @@
       <c r="O106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P106">
+        <v>2608895.53108028</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>98.634811401367188</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -5880,7 +6847,7 @@
         <v>18008303.943511002</v>
       </c>
       <c r="J107">
-        <v>20.5</v>
+        <v>106889.68754359199</v>
       </c>
       <c r="K107">
         <v>23.956060196198202</v>
@@ -5897,8 +6864,17 @@
       <c r="O107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P107">
+        <v>2579957.4542954899</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>197.88700866699219</v>
+      </c>
+      <c r="R107">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -5927,7 +6903,7 @@
         <v>18070149.225647099</v>
       </c>
       <c r="J108">
-        <v>20.399999999999999</v>
+        <v>107844.602829321</v>
       </c>
       <c r="K108">
         <v>22.2436917405829</v>
@@ -5944,8 +6920,17 @@
       <c r="O108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P108">
+        <v>2555592.6513347998</v>
+      </c>
+      <c r="Q108" s="3">
+        <v>156.69613647460938</v>
+      </c>
+      <c r="R108">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -5974,7 +6959,7 @@
         <v>18132365.9961689</v>
       </c>
       <c r="J109">
-        <v>19.399999999999999</v>
+        <v>107947.577100596</v>
       </c>
       <c r="K109">
         <v>21.563016951219002</v>
@@ -5991,8 +6976,17 @@
       <c r="O109">
         <v>-3.3333333333333326E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P109">
+        <v>2530516.9645949798</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>142.27946472167969</v>
+      </c>
+      <c r="R109">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -6021,7 +7015,7 @@
         <v>18198598.4949634</v>
       </c>
       <c r="J110">
-        <v>19</v>
+        <v>109370.843539865</v>
       </c>
       <c r="K110">
         <v>21.137447037096901</v>
@@ -6038,8 +7032,17 @@
       <c r="O110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P110">
+        <v>2500742.7608704502</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>160.16484069824219</v>
+      </c>
+      <c r="R110">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -6068,7 +7071,7 @@
         <v>18261370.160431501</v>
       </c>
       <c r="J111">
-        <v>18.399999999999999</v>
+        <v>110328.78953469401</v>
       </c>
       <c r="K111">
         <v>19.187110932963702</v>
@@ -6085,8 +7088,17 @@
       <c r="O111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P111">
+        <v>2474634.3392343302</v>
+      </c>
+      <c r="Q111" s="3">
+        <v>146.59817504882812</v>
+      </c>
+      <c r="R111">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -6115,7 +7127,7 @@
         <v>18324795.4566768</v>
       </c>
       <c r="J112">
-        <v>17.399999999999999</v>
+        <v>112140.363203031</v>
       </c>
       <c r="K112">
         <v>19.3539897495621</v>
@@ -6132,8 +7144,17 @@
       <c r="O112">
         <v>-3.4482758620689724E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P112">
+        <v>2448837.3445948702</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>133.21316528320312</v>
+      </c>
+      <c r="R112">
+        <v>-1.27881766254785</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -6162,7 +7183,7 @@
         <v>18389417.094033498</v>
       </c>
       <c r="J113">
-        <v>21.8</v>
+        <v>113342.685205174</v>
       </c>
       <c r="K113">
         <v>20.067120222899501</v>
@@ -6179,8 +7200,17 @@
       <c r="O113">
         <v>-3.5714285714285587E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P113">
+        <v>2412623.6478812699</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>163.73634338378906</v>
+      </c>
+      <c r="R113">
+        <v>1.47881766254785</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -6209,7 +7239,7 @@
         <v>18450480.722797401</v>
       </c>
       <c r="J114">
-        <v>18.899999999999999</v>
+        <v>117486.89770011199</v>
       </c>
       <c r="K114">
         <v>20.7270138152554</v>
@@ -6226,8 +7256,17 @@
       <c r="O114">
         <v>-3.703703703703709E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P114">
+        <v>2385473.8509595701</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>130.52186584472656</v>
+      </c>
+      <c r="R114">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>111</v>
       </c>
@@ -6256,7 +7295,7 @@
         <v>18512005.5911792</v>
       </c>
       <c r="J115">
-        <v>18.7</v>
+        <v>117498.518492359</v>
       </c>
       <c r="K115">
         <v>22.289013369376001</v>
@@ -6273,8 +7312,17 @@
       <c r="O115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P115">
+        <v>2358422.5616938602</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>112.88140869140625</v>
+      </c>
+      <c r="R115">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -6303,7 +7351,7 @@
         <v>18577353.351200301</v>
       </c>
       <c r="J116">
-        <v>18.2</v>
+        <v>118051.485171751</v>
       </c>
       <c r="K116">
         <v>22.375955330005802</v>
@@ -6320,8 +7368,17 @@
       <c r="O116">
         <v>-3.8461538461538547E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P116">
+        <v>2322870.8841285598</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>92.394874572753906</v>
+      </c>
+      <c r="R116">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>113</v>
       </c>
@@ -6350,7 +7407,7 @@
         <v>18639771.356286399</v>
       </c>
       <c r="J117">
-        <v>17.899999999999999</v>
+        <v>119240.365697676</v>
       </c>
       <c r="K117">
         <v>22.0387081224243</v>
@@ -6367,8 +7424,17 @@
       <c r="O117">
         <v>-4.0000000000000036E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P117">
+        <v>2295508.2208484998</v>
+      </c>
+      <c r="Q117" s="3">
+        <v>140.76402282714844</v>
+      </c>
+      <c r="R117">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -6397,7 +7463,7 @@
         <v>18702834.672882099</v>
       </c>
       <c r="J118">
-        <v>18.8</v>
+        <v>120459.562606027</v>
       </c>
       <c r="K118">
         <v>22.2215690590298</v>
@@ -6414,8 +7480,17 @@
       <c r="O118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P118">
+        <v>2268413.3242429402</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>130.14187622070312</v>
+      </c>
+      <c r="R118">
+        <v>-4.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -6444,7 +7519,7 @@
         <v>18769098.902487401</v>
       </c>
       <c r="J119">
-        <v>19.5</v>
+        <v>122611.19445954</v>
       </c>
       <c r="K119">
         <v>23.305333532224498</v>
@@ -6461,8 +7536,17 @@
       <c r="O119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P119">
+        <v>2234099.3743662401</v>
+      </c>
+      <c r="Q119" s="3">
+        <v>130.689208984375</v>
+      </c>
+      <c r="R119">
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -6491,7 +7575,7 @@
         <v>18833462.794330001</v>
       </c>
       <c r="J120">
-        <v>20</v>
+        <v>125548.639590452</v>
       </c>
       <c r="K120">
         <v>25.680687858392901</v>
@@ -6508,8 +7592,17 @@
       <c r="O120">
         <v>-4.1666666666666741E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P120">
+        <v>2207256.0648322101</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>128.48176574707031</v>
+      </c>
+      <c r="R120">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -6538,7 +7631,7 @@
         <v>18898667.175492</v>
       </c>
       <c r="J121">
-        <v>19.2</v>
+        <v>127837.897084557</v>
       </c>
       <c r="K121">
         <v>27.7934164499645</v>
@@ -6555,8 +7648,17 @@
       <c r="O121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P121">
+        <v>2180783.8288626499</v>
+      </c>
+      <c r="Q121" s="3">
+        <v>142.13456726074219</v>
+      </c>
+      <c r="R121">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -6585,7 +7687,7 @@
         <v>18966605.2021183</v>
       </c>
       <c r="J122">
-        <v>19.2</v>
+        <v>127509.785477144</v>
       </c>
       <c r="K122">
         <v>27.351486773481199</v>
@@ -6602,8 +7704,17 @@
       <c r="O122">
         <v>4.3478260869565188E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P122">
+        <v>2148189.7758336999</v>
+      </c>
+      <c r="Q122" s="3">
+        <v>112.32621765136719</v>
+      </c>
+      <c r="R122">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -6632,7 +7743,7 @@
         <v>19033548.727010701</v>
       </c>
       <c r="J123">
-        <v>18.399999999999999</v>
+        <v>128748.119556041</v>
       </c>
       <c r="K123">
         <v>22.969196458619599</v>
@@ -6649,8 +7760,17 @@
       <c r="O123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P123">
+        <v>2122470.7964154002</v>
+      </c>
+      <c r="Q123" s="3">
+        <v>136.20162963867188</v>
+      </c>
+      <c r="R123">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -6679,7 +7799,7 @@
         <v>19101324.680873301</v>
       </c>
       <c r="J124">
-        <v>17</v>
+        <v>128272.069627633</v>
       </c>
       <c r="K124">
         <v>20.110041347936999</v>
@@ -6695,6 +7815,15 @@
       </c>
       <c r="O124">
         <v>-4.1666666666666741E-2</v>
+      </c>
+      <c r="P124">
+        <v>2096455.5642526799</v>
+      </c>
+      <c r="Q124" s="3">
+        <v>174.2359619140625</v>
+      </c>
+      <c r="R124">
+        <v>8.6588830097820502</v>
       </c>
     </row>
   </sheetData>
@@ -6705,632 +7834,1007 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CF2C2E-E391-AE46-AF57-4DE2CE143AB9}">
-  <dimension ref="A1:A124"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7294E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-4.4057377385781103E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4.8793246518479272E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-3.1131450485713863E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-6.3397836717524747E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.5460821169367089E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-1.7113034029605512E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.4432910328699866E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-1.2957078765194474E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-3.142365953608639E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1.7647265968817605E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6.1399427986716937E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.6960694779857288E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-5.3234307502885159E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-2.4021272041197195E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.0226806709954257E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-4.6799475640491028E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-2.4850145129957646E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-2.4201286057272675E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-4.4196891511500969E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-5.4585898731929205E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2.101696337534209E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2.1391286674048438E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-8.6933167490272911E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1.0480634350350959E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6.1079135178190302E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-1.1115247578419307E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-2.0806780395390412E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-3.1628171272823913E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.8939898047412029E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3.5459840341676152E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-6.8613060769056045E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-4.8510699948087765E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2.5869859774627635E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5.6197711547649742E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-7.8900211305286128E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.9000502006327746E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-1.6811193246513145E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.5273994496083354E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7.643557690440228E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4.4844048395042968E-4</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>8.639504531648412E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9.7490687010681754E-4</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.3531972757137467E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2.2113401323211601E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-2.0301413407826097E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.5914856004952682E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-5.5858109601767403E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-9.7069308058026493E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-2.0089527044899746E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1.6307308474796667E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3.2126964485803544E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-4.7346454629249024E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-9.0117752068146206E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-3.198462749384845E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2.0771164412809462E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-1.7635658476771177E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-8.5601877431151774E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-5.5032437841437964E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4.4762025472184774E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-1.6668557821306607E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6.3391084598851677E-5</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2.0380321680217417E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-1.9959545402327139E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-1.8359692285903062E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1.0371592361173576E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>9.2921169496137379E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>8.7164424768894078E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>8.0317207108180355E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-3.2200346650257394E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-7.1667460894708768E-5</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3.7151591818569418E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>9.5418900561135001E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>9.0174218256739991E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1.0176712696291723E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1.0803682006150783E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>-3.7793774744163677E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-1.7866509203512404E-4</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-5.8337724872219443E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-2.7651651436837454E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4.627006625573582E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1.4475998162100545E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1.489769424318621E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-1.71402122339126E-4</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2.5675570208590792E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2.1275713672415764E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3.6307074932138139E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>-7.1183989544401749E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-2.9622549471268744E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-8.8043176827377057E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>5.5430815847068438E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4.5612236060352807E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1.1818060024590404E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2.1824256147650378E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4.1127231526054686E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>-2.2622293363900869E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3.3218907846086498E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>5.6911267067391025E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1.089157598168411E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2.4914140546401509E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-2.246648108156668E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>7.2123248221354075E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>7.6828484310472733E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>7.6763957677783434E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>6.6362183774097971E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4.4126068200672774E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>-2.097578855167459E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>-7.1163952396413599E-4</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4.1254286688561237E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4.4379314675989656E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2.6577635566270685E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1.3525766322294852E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1.8752945910709307E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1.5077042908683169E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1.3344973470370114E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>-4.0157844781669727E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>5.9992117859006822E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2.1314769395940014E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>-1.9811010766457748E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>-2.8285553689308296E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1.1393630043777359E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>8.8880370658939167E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>-2.819129789783914E-2</v>
+      </c>
+      <c r="B124">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Model_gretl.xlsx
+++ b/Model_gretl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scherbakovandrew/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E93722-FD73-D941-8E4C-56ACCB1E6FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA532E0-15F1-7646-BBED-C003986BC378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1360" windowWidth="28360" windowHeight="16860" xr2:uid="{13FB623C-704C-E647-8A49-C56F85340FC2}"/>
   </bookViews>
@@ -862,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB27C789-E807-2E46-81C8-803B444F0798}">
-  <dimension ref="A1:R124"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,12 +877,11 @@
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="11" width="22" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" customWidth="1"/>
+    <col min="9" max="10" width="22" customWidth="1"/>
+    <col min="17" max="17" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,37 +907,34 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -964,37 +960,34 @@
         <v>1647.69</v>
       </c>
       <c r="I2">
-        <v>15490309.0965725</v>
+        <v>41722.0472210343</v>
       </c>
       <c r="J2">
-        <v>41722.0472210343</v>
+        <v>22.546142126176999</v>
       </c>
       <c r="K2">
-        <v>22.546142126176999</v>
+        <v>1.7294E-2</v>
       </c>
       <c r="L2">
-        <v>1.7294E-2</v>
+        <v>-2.1939362305442089</v>
       </c>
       <c r="M2">
-        <v>-2.1939362305442089</v>
+        <v>0.51502587529670141</v>
       </c>
       <c r="N2">
-        <v>0.51502587529670141</v>
+        <v>5.7692307692307709E-2</v>
       </c>
       <c r="O2">
-        <v>5.7692307692307709E-2</v>
-      </c>
-      <c r="P2">
         <v>1259681.48780177</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="P2" s="3">
         <v>111.98569488525391</v>
       </c>
-      <c r="R2">
+      <c r="Q2">
         <v>-6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -1020,37 +1013,34 @@
         <v>1758.97</v>
       </c>
       <c r="I3">
-        <v>15466725.8881729</v>
+        <v>44569.483252019898</v>
       </c>
       <c r="J3">
-        <v>44569.483252019898</v>
+        <v>21.323640718829399</v>
       </c>
       <c r="K3">
-        <v>21.323640718829399</v>
+        <v>-4.4057377385781103E-2</v>
       </c>
       <c r="L3">
-        <v>-4.4057377385781103E-2</v>
+        <v>0.11822341739600672</v>
       </c>
       <c r="M3">
-        <v>0.11822341739600672</v>
+        <v>-4.7504820010216608E-2</v>
       </c>
       <c r="N3">
-        <v>-4.7504820010216608E-2</v>
+        <v>5.4545454545454453E-2</v>
       </c>
       <c r="O3">
-        <v>5.4545454545454453E-2</v>
-      </c>
-      <c r="P3">
         <v>1272821.17896562</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="P3" s="3">
         <v>111.92469787597656</v>
       </c>
-      <c r="R3">
+      <c r="Q3">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -1076,37 +1066,34 @@
         <v>1626.18</v>
       </c>
       <c r="I4">
-        <v>15444813.3240657</v>
+        <v>43223.716053982404</v>
       </c>
       <c r="J4">
-        <v>43223.716053982404</v>
+        <v>17.961165333140201</v>
       </c>
       <c r="K4">
-        <v>17.961165333140201</v>
+        <v>4.8793246518479272E-3</v>
       </c>
       <c r="L4">
-        <v>4.8793246518479272E-3</v>
+        <v>6.8913381896836642E-2</v>
       </c>
       <c r="M4">
-        <v>6.8913381896836642E-2</v>
+        <v>-5.7130427421491325E-2</v>
       </c>
       <c r="N4">
-        <v>-5.7130427421491325E-2</v>
+        <v>1.7241379310344973E-2</v>
       </c>
       <c r="O4">
-        <v>1.7241379310344973E-2</v>
-      </c>
-      <c r="P4">
         <v>1286172.8975661299</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="P4" s="3">
         <v>104.23526763916016</v>
       </c>
-      <c r="R4">
+      <c r="Q4">
         <v>9.2179025167401196</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -1132,37 +1119,34 @@
         <v>1688.34</v>
       </c>
       <c r="I5">
-        <v>15410704.9298735</v>
+        <v>42914.591997112802</v>
       </c>
       <c r="J5">
-        <v>42914.591997112802</v>
+        <v>15.0040192616315</v>
       </c>
       <c r="K5">
-        <v>15.0040192616315</v>
+        <v>-3.1131450485713863E-2</v>
       </c>
       <c r="L5">
-        <v>-3.1131450485713863E-2</v>
+        <v>0.10603346327418459</v>
       </c>
       <c r="M5">
-        <v>0.10603346327418459</v>
+        <v>-3.933865429381922E-2</v>
       </c>
       <c r="N5">
-        <v>-3.933865429381922E-2</v>
+        <v>-1.6949152542372947E-2</v>
       </c>
       <c r="O5">
-        <v>-1.6949152542372947E-2</v>
-      </c>
-      <c r="P5">
         <v>1298161.2013594599</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="P5" s="3">
         <v>102.19049072265625</v>
       </c>
-      <c r="R5">
+      <c r="Q5">
         <v>14.582097483259901</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -1188,37 +1172,34 @@
         <v>1609.19</v>
       </c>
       <c r="I6">
-        <v>15389773.6441461</v>
+        <v>42677.826392764997</v>
       </c>
       <c r="J6">
-        <v>42677.826392764997</v>
+        <v>12.314635085229</v>
       </c>
       <c r="K6">
-        <v>12.314635085229</v>
+        <v>-6.3397836717524747E-3</v>
       </c>
       <c r="L6">
-        <v>-6.3397836717524747E-3</v>
+        <v>0.10300708183421023</v>
       </c>
       <c r="M6">
-        <v>0.10300708183421023</v>
+        <v>-3.1317506027973008E-2</v>
       </c>
       <c r="N6">
-        <v>-3.1317506027973008E-2</v>
+        <v>-3.4482758620689724E-2</v>
       </c>
       <c r="O6">
-        <v>-3.4482758620689724E-2</v>
-      </c>
-      <c r="P6">
         <v>1310706.41419897</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="P6" s="3">
         <v>76.2623291015625</v>
       </c>
-      <c r="R6">
+      <c r="Q6">
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -1244,37 +1225,34 @@
         <v>1654.55</v>
       </c>
       <c r="I7">
-        <v>15369565.779535901</v>
+        <v>43038.525965312401</v>
       </c>
       <c r="J7">
-        <v>43038.525965312401</v>
+        <v>12.5735360620811</v>
       </c>
       <c r="K7">
-        <v>12.5735360620811</v>
+        <v>1.5460821169367089E-2</v>
       </c>
       <c r="L7">
-        <v>1.5460821169367089E-2</v>
+        <v>0.10274073266748698</v>
       </c>
       <c r="M7">
-        <v>0.10274073266748698</v>
+        <v>-2.7659188505358312E-2</v>
       </c>
       <c r="N7">
-        <v>-2.7659188505358312E-2</v>
+        <v>-3.5714285714285587E-2</v>
       </c>
       <c r="O7">
-        <v>-3.5714285714285587E-2</v>
-      </c>
-      <c r="P7">
         <v>1323600.1952714501</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="P7" s="3">
         <v>85.905967712402344</v>
       </c>
-      <c r="R7">
+      <c r="Q7">
         <v>-6.7</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -1300,37 +1278,34 @@
         <v>1669</v>
       </c>
       <c r="I8">
-        <v>15336253.034589199</v>
+        <v>44183.817412766897</v>
       </c>
       <c r="J8">
-        <v>44183.817412766897</v>
+        <v>12.283411505913501</v>
       </c>
       <c r="K8">
-        <v>12.283411505913501</v>
+        <v>-1.7113034029605512E-3</v>
       </c>
       <c r="L8">
-        <v>-1.7113034029605512E-3</v>
+        <v>-0.10216448855226679</v>
       </c>
       <c r="M8">
-        <v>-0.10216448855226679</v>
+        <v>-1.0424259181329054E-2</v>
       </c>
       <c r="N8">
-        <v>-1.0424259181329054E-2</v>
+        <v>-1.8518518518518601E-2</v>
       </c>
       <c r="O8">
-        <v>-1.8518518518518601E-2</v>
-      </c>
-      <c r="P8">
         <v>1334473.8567719001</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="P8" s="3">
         <v>106.80866241455078</v>
       </c>
-      <c r="R8">
+      <c r="Q8">
         <v>-3.3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1356,37 +1331,34 @@
         <v>1733.17</v>
       </c>
       <c r="I9">
-        <v>15317435.029217999</v>
+        <v>44878.8416359806</v>
       </c>
       <c r="J9">
-        <v>44878.8416359806</v>
+        <v>13.5483172475682</v>
       </c>
       <c r="K9">
-        <v>13.5483172475682</v>
+        <v>1.4432910328699866E-2</v>
       </c>
       <c r="L9">
-        <v>1.4432910328699866E-2</v>
+        <v>9.2594053958083983E-2</v>
       </c>
       <c r="M9">
-        <v>9.2594053958083983E-2</v>
+        <v>-2.3398575833926349E-2</v>
       </c>
       <c r="N9">
-        <v>-2.3398575833926349E-2</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
         <v>1346742.7504712001</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="P9" s="3">
         <v>82.478530883789062</v>
       </c>
-      <c r="R9">
+      <c r="Q9">
         <v>-11.7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1412,37 +1384,34 @@
         <v>1642.97</v>
       </c>
       <c r="I10">
-        <v>15299508.593490001</v>
+        <v>46497.873564173198</v>
       </c>
       <c r="J10">
-        <v>46497.873564173198</v>
+        <v>12.9179646940739</v>
       </c>
       <c r="K10">
-        <v>12.9179646940739</v>
+        <v>-1.2957078765194474E-3</v>
       </c>
       <c r="L10">
-        <v>-1.2957078765194474E-3</v>
+        <v>0.16332891444450087</v>
       </c>
       <c r="M10">
-        <v>0.16332891444450087</v>
+        <v>-2.3158620865341262E-2</v>
       </c>
       <c r="N10">
-        <v>-2.3158620865341262E-2</v>
+        <v>-1.8867924528301772E-2</v>
       </c>
       <c r="O10">
-        <v>-1.8867924528301772E-2</v>
-      </c>
-      <c r="P10">
         <v>1359517.43751233</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="P10" s="3">
         <v>98.7674560546875</v>
       </c>
-      <c r="R10">
+      <c r="Q10">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1468,37 +1437,34 @@
         <v>1711.53</v>
       </c>
       <c r="I11">
-        <v>15267975.7472998</v>
+        <v>47185.413713280897</v>
       </c>
       <c r="J11">
-        <v>47185.413713280897</v>
+        <v>11.8231608617231</v>
       </c>
       <c r="K11">
-        <v>11.8231608617231</v>
+        <v>-3.142365953608639E-2</v>
       </c>
       <c r="L11">
-        <v>-3.142365953608639E-2</v>
+        <v>1.5496179115091123E-2</v>
       </c>
       <c r="M11">
-        <v>1.5496179115091123E-2</v>
+        <v>-1.3927355898607718E-2</v>
       </c>
       <c r="N11">
-        <v>-1.3927355898607718E-2</v>
+        <v>5.7692307692307709E-2</v>
       </c>
       <c r="O11">
-        <v>5.7692307692307709E-2</v>
-      </c>
-      <c r="P11">
         <v>1369800.3315072299</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="P11" s="3">
         <v>91.931884765625</v>
       </c>
-      <c r="R11">
+      <c r="Q11">
         <v>5.7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1524,37 +1490,34 @@
         <v>1771.05</v>
       </c>
       <c r="I12">
-        <v>15251885.5698712</v>
+        <v>47459.154922702401</v>
       </c>
       <c r="J12">
-        <v>47459.154922702401</v>
+        <v>11.4896160312292</v>
       </c>
       <c r="K12">
-        <v>11.4896160312292</v>
+        <v>-1.7647265968817605E-2</v>
       </c>
       <c r="L12">
-        <v>-1.7647265968817605E-2</v>
+        <v>3.9226817981362613E-2</v>
       </c>
       <c r="M12">
-        <v>3.9226817981362613E-2</v>
+        <v>-1.6041064074577616E-2</v>
       </c>
       <c r="N12">
-        <v>-1.6041064074577616E-2</v>
+        <v>5.4545454545454453E-2</v>
       </c>
       <c r="O12">
-        <v>5.4545454545454453E-2</v>
-      </c>
-      <c r="P12">
         <v>1382179.5462311599</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="P12" s="3">
         <v>150.71588134765625</v>
       </c>
-      <c r="R12">
+      <c r="Q12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1580,37 +1543,34 @@
         <v>1761.36</v>
       </c>
       <c r="I13">
-        <v>15236865.0490088</v>
+        <v>47995.545923487</v>
       </c>
       <c r="J13">
-        <v>47995.545923487</v>
+        <v>11.0754482374043</v>
       </c>
       <c r="K13">
-        <v>11.0754482374043</v>
+        <v>6.1399427986716937E-3</v>
       </c>
       <c r="L13">
-        <v>6.1399427986716937E-3</v>
+        <v>5.7267356883322587E-2</v>
       </c>
       <c r="M13">
-        <v>5.7267356883322587E-2</v>
+        <v>-1.8498436894099246E-2</v>
       </c>
       <c r="N13">
-        <v>-1.8498436894099246E-2</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
         <v>1395048.90798825</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="P13" s="3">
         <v>148.23687744140625</v>
       </c>
-      <c r="R13">
+      <c r="Q13">
         <v>-6.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1636,37 +1596,34 @@
         <v>1784.92</v>
       </c>
       <c r="I14">
-        <v>15208298.6252867</v>
+        <v>49948.465115878404</v>
       </c>
       <c r="J14">
-        <v>49948.465115878404</v>
+        <v>10.7641395052369</v>
       </c>
       <c r="K14">
-        <v>10.7641395052369</v>
+        <v>1.6960694779857288E-2</v>
       </c>
       <c r="L14">
-        <v>1.6960694779857288E-2</v>
+        <v>-0.27769330087201533</v>
       </c>
       <c r="M14">
-        <v>-0.27769330087201533</v>
+        <v>-0.3475841517895133</v>
       </c>
       <c r="N14">
-        <v>-0.3475841517895133</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
         <v>1406588.1700766699</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="3">
         <v>118.21114349365234</v>
       </c>
-      <c r="R14">
+      <c r="Q14">
         <v>-7.4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1692,37 +1649,34 @@
         <v>1840.17</v>
       </c>
       <c r="I15">
-        <v>15194837.352887699</v>
+        <v>50115.0093430747</v>
       </c>
       <c r="J15">
-        <v>50115.0093430747</v>
+        <v>12.0621269512475</v>
       </c>
       <c r="K15">
-        <v>12.0621269512475</v>
+        <v>-5.3234307502885159E-3</v>
       </c>
       <c r="L15">
-        <v>-5.3234307502885159E-3</v>
+        <v>-0.42032593554827569</v>
       </c>
       <c r="M15">
-        <v>-0.42032593554827569</v>
+        <v>0.34125828455128926</v>
       </c>
       <c r="N15">
-        <v>0.34125828455128926</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
         <v>1420779.56734626</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="P15" s="3">
         <v>103.74964904785156</v>
       </c>
-      <c r="R15">
+      <c r="Q15">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1748,37 +1702,34 @@
         <v>1871.15</v>
       </c>
       <c r="I16">
-        <v>15181353.60788</v>
+        <v>50374.101803220401</v>
       </c>
       <c r="J16">
-        <v>50374.101803220401</v>
+        <v>12.0946777593704</v>
       </c>
       <c r="K16">
-        <v>12.0946777593704</v>
+        <v>-2.4021272041197195E-2</v>
       </c>
       <c r="L16">
-        <v>-2.4021272041197195E-2</v>
+        <v>-3.0026907689091716E-2</v>
       </c>
       <c r="M16">
-        <v>-3.0026907689091716E-2</v>
+        <v>0.16954769509114098</v>
       </c>
       <c r="N16">
-        <v>0.16954769509114098</v>
+        <v>3.4482758620689724E-2</v>
       </c>
       <c r="O16">
-        <v>3.4482758620689724E-2</v>
-      </c>
-      <c r="P16">
         <v>1435169.2605496999</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="P16" s="3">
         <v>109.72029113769531</v>
       </c>
-      <c r="R16">
+      <c r="Q16">
         <v>6.9211823374521497</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1804,37 +1755,34 @@
         <v>1953.05</v>
       </c>
       <c r="I17">
-        <v>15166079.749909399</v>
+        <v>49715.761277725403</v>
       </c>
       <c r="J17">
-        <v>49715.761277725403</v>
+        <v>11.923673763006001</v>
       </c>
       <c r="K17">
-        <v>11.923673763006001</v>
+        <v>3.0226806709954257E-3</v>
       </c>
       <c r="L17">
-        <v>3.0226806709954257E-3</v>
+        <v>-0.11575439980886597</v>
       </c>
       <c r="M17">
-        <v>-0.11575439980886597</v>
+        <v>1.9114803739683772E-2</v>
       </c>
       <c r="N17">
-        <v>1.9114803739683772E-2</v>
+        <v>-1.6666666666666607E-2</v>
       </c>
       <c r="O17">
-        <v>-1.6666666666666607E-2</v>
-      </c>
-      <c r="P17">
         <v>1447945.09070865</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="P17" s="3">
         <v>85.221450805664062</v>
       </c>
-      <c r="R17">
+      <c r="Q17">
         <v>5.4788176625478497</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1860,37 +1808,34 @@
         <v>1899.01</v>
       </c>
       <c r="I18">
-        <v>15155234.704492901</v>
+        <v>49626.729408405903</v>
       </c>
       <c r="J18">
-        <v>49626.729408405903</v>
+        <v>12.075013541928699</v>
       </c>
       <c r="K18">
-        <v>12.075013541928699</v>
+        <v>-4.6799475640491028E-3</v>
       </c>
       <c r="L18">
-        <v>-4.6799475640491028E-3</v>
+        <v>-8.4375796137518611E-2</v>
       </c>
       <c r="M18">
-        <v>-8.4375796137518611E-2</v>
+        <v>-1.0826715120817454E-3</v>
       </c>
       <c r="N18">
-        <v>-1.0826715120817454E-3</v>
+        <v>-5.0847457627118731E-2</v>
       </c>
       <c r="O18">
-        <v>-5.0847457627118731E-2</v>
-      </c>
-      <c r="P18">
         <v>1462850.2970605199</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="P18" s="3">
         <v>88.332420349121094</v>
       </c>
-      <c r="R18">
+      <c r="Q18">
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1916,37 +1861,34 @@
         <v>1891.09</v>
       </c>
       <c r="I19">
-        <v>15145525.012711</v>
+        <v>50575.215069341903</v>
       </c>
       <c r="J19">
-        <v>50575.215069341903</v>
+        <v>12.087346521889801</v>
       </c>
       <c r="K19">
-        <v>12.087346521889801</v>
+        <v>-2.4850145129957646E-3</v>
       </c>
       <c r="L19">
-        <v>-2.4850145129957646E-3</v>
+        <v>-4.9226654023653477E-2</v>
       </c>
       <c r="M19">
-        <v>-4.9226654023653477E-2</v>
+        <v>6.7127714152934725E-3</v>
       </c>
       <c r="N19">
-        <v>6.7127714152934725E-3</v>
+        <v>-3.5714285714285587E-2</v>
       </c>
       <c r="O19">
-        <v>-3.5714285714285587E-2</v>
-      </c>
-      <c r="P19">
         <v>1477999.5559060699</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="P19" s="3">
         <v>90.168128967285156</v>
       </c>
-      <c r="R19">
+      <c r="Q19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1972,37 +1914,34 @@
         <v>1944.62</v>
       </c>
       <c r="I20">
-        <v>15135800.581114201</v>
+        <v>50493.848226020396</v>
       </c>
       <c r="J20">
-        <v>50493.848226020396</v>
+        <v>11.070859344224299</v>
       </c>
       <c r="K20">
-        <v>11.070859344224299</v>
+        <v>-2.4201286057272675E-3</v>
       </c>
       <c r="L20">
-        <v>-2.4201286057272675E-3</v>
+        <v>4.2420352503692547E-2</v>
       </c>
       <c r="M20">
-        <v>4.2420352503692547E-2</v>
+        <v>-1.2307649297648493E-2</v>
       </c>
       <c r="N20">
-        <v>-1.2307649297648493E-2</v>
+        <v>-1.8518518518518601E-2</v>
       </c>
       <c r="O20">
-        <v>-1.8518518518518601E-2</v>
-      </c>
-      <c r="P20">
         <v>1492574.2713763299</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="P20" s="3">
         <v>114.61045074462891</v>
       </c>
-      <c r="R20">
+      <c r="Q20">
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2028,37 +1967,34 @@
         <v>1971.59</v>
       </c>
       <c r="I21">
-        <v>15128808.3723279</v>
+        <v>50748.582900588102</v>
       </c>
       <c r="J21">
-        <v>50748.582900588102</v>
+        <v>10.4098738010495</v>
       </c>
       <c r="K21">
-        <v>10.4098738010495</v>
+        <v>-4.4196891511500969E-3</v>
       </c>
       <c r="L21">
-        <v>-4.4196891511500969E-3</v>
+        <v>-2.4181302752163594E-2</v>
       </c>
       <c r="M21">
-        <v>-2.4181302752163594E-2</v>
+        <v>4.2839126574236719E-3</v>
       </c>
       <c r="N21">
-        <v>4.2839126574236719E-3</v>
+        <v>-1.8867924528301772E-2</v>
       </c>
       <c r="O21">
-        <v>-1.8867924528301772E-2</v>
-      </c>
-      <c r="P21">
         <v>1508359.0225480001</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="P21" s="3">
         <v>98.738487243652344</v>
       </c>
-      <c r="R21">
+      <c r="Q21">
         <v>-1.9</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2084,37 +2020,34 @@
         <v>1978</v>
       </c>
       <c r="I22">
-        <v>15122983.7377022</v>
+        <v>49931.310119910398</v>
       </c>
       <c r="J22">
-        <v>49931.310119910398</v>
+        <v>10.7972450661943</v>
       </c>
       <c r="K22">
-        <v>10.7972450661943</v>
+        <v>-5.4585898731929205E-3</v>
       </c>
       <c r="L22">
-        <v>-5.4585898731929205E-3</v>
+        <v>-7.5654390814196643E-2</v>
       </c>
       <c r="M22">
-        <v>-7.5654390814196643E-2</v>
+        <v>4.6890462094453245E-3</v>
       </c>
       <c r="N22">
-        <v>4.6890462094453245E-3</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
         <v>1524437.07581412</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="P22" s="3">
         <v>104.54522705078125</v>
       </c>
-      <c r="R22">
+      <c r="Q22">
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2140,37 +2073,34 @@
         <v>1989.64</v>
       </c>
       <c r="I23">
-        <v>15118797.4702999</v>
+        <v>49889.459674159101</v>
       </c>
       <c r="J23">
-        <v>49889.459674159101</v>
+        <v>10.867456794714601</v>
       </c>
       <c r="K23">
-        <v>10.867456794714601</v>
+        <v>2.101696337534209E-3</v>
       </c>
       <c r="L23">
-        <v>2.101696337534209E-3</v>
+        <v>2.7133620934590735E-2</v>
       </c>
       <c r="M23">
-        <v>2.7133620934590735E-2</v>
+        <v>-3.0040484291509184E-3</v>
       </c>
       <c r="N23">
-        <v>-3.0040484291509184E-3</v>
+        <v>3.8461538461538547E-2</v>
       </c>
       <c r="O23">
-        <v>3.8461538461538547E-2</v>
-      </c>
-      <c r="P23">
         <v>1541045.80754484</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="P23" s="3">
         <v>85.747787475585938</v>
       </c>
-      <c r="R23">
+      <c r="Q23">
         <v>4.2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2196,37 +2126,34 @@
         <v>2104.91</v>
       </c>
       <c r="I24">
-        <v>15115699.39139</v>
+        <v>50020.533619667804</v>
       </c>
       <c r="J24">
-        <v>50020.533619667804</v>
+        <v>9.5841735351866095</v>
       </c>
       <c r="K24">
-        <v>9.5841735351866095</v>
+        <v>2.1391286674048438E-3</v>
       </c>
       <c r="L24">
-        <v>2.1391286674048438E-3</v>
+        <v>2.603486488055801E-2</v>
       </c>
       <c r="M24">
-        <v>2.603486488055801E-2</v>
+        <v>5.279231889943059E-4</v>
       </c>
       <c r="N24">
-        <v>5.279231889943059E-4</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
         <v>1557846.95864685</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="P24" s="3">
         <v>82.918754577636719</v>
       </c>
-      <c r="R24">
+      <c r="Q24">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2252,37 +2179,34 @@
         <v>2232.7199999999998</v>
       </c>
       <c r="I25">
-        <v>15113786.0127408</v>
+        <v>50377.139040139497</v>
       </c>
       <c r="J25">
-        <v>50377.139040139497</v>
+        <v>8.0581364960382995</v>
       </c>
       <c r="K25">
-        <v>8.0581364960382995</v>
+        <v>-8.6933167490272911E-3</v>
       </c>
       <c r="L25">
-        <v>-8.6933167490272911E-3</v>
+        <v>-6.8516024771085565E-2</v>
       </c>
       <c r="M25">
-        <v>-6.8516024771085565E-2</v>
+        <v>1.9968787288650036E-2</v>
       </c>
       <c r="N25">
-        <v>1.9968787288650036E-2</v>
+        <v>-1.8518518518518601E-2</v>
       </c>
       <c r="O25">
-        <v>-1.8518518518518601E-2</v>
-      </c>
-      <c r="P25">
         <v>1574961.06924843</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="P25" s="3">
         <v>102.18046569824219</v>
       </c>
-      <c r="R25">
+      <c r="Q25">
         <v>5.9</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2308,37 +2232,34 @@
         <v>2217.39</v>
       </c>
       <c r="I26">
-        <v>15114903.4785793</v>
+        <v>49486.577909463398</v>
       </c>
       <c r="J26">
-        <v>49486.577909463398</v>
+        <v>7.1670689009900803</v>
       </c>
       <c r="K26">
-        <v>7.1670689009900803</v>
+        <v>-1.0480634350350959E-2</v>
       </c>
       <c r="L26">
-        <v>-1.0480634350350959E-2</v>
+        <v>0.41587549341211671</v>
       </c>
       <c r="M26">
-        <v>0.41587549341211671</v>
+        <v>0.11622497595954884</v>
       </c>
       <c r="N26">
-        <v>0.11622497595954884</v>
+        <v>5.6603773584905648E-2</v>
       </c>
       <c r="O26">
-        <v>5.6603773584905648E-2</v>
-      </c>
-      <c r="P26">
         <v>1593857.7080415201</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="P26" s="3">
         <v>105.20123291015625</v>
       </c>
-      <c r="R26">
+      <c r="Q26">
         <v>3.7</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2364,37 +2285,34 @@
         <v>2035.77</v>
       </c>
       <c r="I27">
-        <v>15115588.3494628</v>
+        <v>50552.368184551597</v>
       </c>
       <c r="J27">
-        <v>50552.368184551597</v>
+        <v>6.9293169420617398</v>
       </c>
       <c r="K27">
-        <v>6.9293169420617398</v>
+        <v>6.1079135178190302E-3</v>
       </c>
       <c r="L27">
-        <v>6.1079135178190302E-3</v>
+        <v>0.23326480337236843</v>
       </c>
       <c r="M27">
-        <v>0.23326480337236843</v>
+        <v>-9.0069098523441249E-2</v>
       </c>
       <c r="N27">
-        <v>-9.0069098523441249E-2</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
         <v>1611909.43848653</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="P27" s="3">
         <v>114.20635986328125</v>
       </c>
-      <c r="R27">
+      <c r="Q27">
         <v>1.7</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2420,37 +2338,34 @@
         <v>1995.9</v>
       </c>
       <c r="I28">
-        <v>15117332.816096701</v>
+        <v>50359.415499143499</v>
       </c>
       <c r="J28">
-        <v>50359.415499143499</v>
+        <v>6.2949575015546797</v>
       </c>
       <c r="K28">
-        <v>6.2949575015546797</v>
+        <v>-1.1115247578419307E-4</v>
       </c>
       <c r="L28">
-        <v>-1.1115247578419307E-4</v>
+        <v>3.2384764134633488E-2</v>
       </c>
       <c r="M28">
-        <v>3.2384764134633488E-2</v>
+        <v>7.9753395700790097E-3</v>
       </c>
       <c r="N28">
-        <v>7.9753395700790097E-3</v>
+        <v>-1.1386532778249969E-2</v>
       </c>
       <c r="O28">
-        <v>-1.1386532778249969E-2</v>
-      </c>
-      <c r="P28">
         <v>1630251.7689250701</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="P28" s="3">
         <v>96.635879516601562</v>
       </c>
-      <c r="R28">
+      <c r="Q28">
         <v>2.1588830097820502</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2476,37 +2391,34 @@
         <v>2016.71</v>
       </c>
       <c r="I29">
-        <v>15124242.9317526</v>
+        <v>50330.123767186597</v>
       </c>
       <c r="J29">
-        <v>50330.123767186597</v>
+        <v>6.8757024367525696</v>
       </c>
       <c r="K29">
-        <v>6.8757024367525696</v>
+        <v>-2.0806780395390412E-3</v>
       </c>
       <c r="L29">
-        <v>-2.0806780395390412E-3</v>
+        <v>0.20007172588040451</v>
       </c>
       <c r="M29">
-        <v>0.20007172588040451</v>
+        <v>-1.9242355685120227E-2</v>
       </c>
       <c r="N29">
-        <v>-1.9242355685120227E-2</v>
+        <v>-1.8297166076224114E-2</v>
       </c>
       <c r="O29">
-        <v>-1.8297166076224114E-2</v>
-      </c>
-      <c r="P29">
         <v>1651338.7940819401</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="P29" s="3">
         <v>119.45992279052734</v>
       </c>
-      <c r="R29">
+      <c r="Q29">
         <v>0.54111699021795201</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2532,37 +2444,34 @@
         <v>1900.38</v>
       </c>
       <c r="I30">
-        <v>15128542.0739609</v>
+        <v>50813.198858563301</v>
       </c>
       <c r="J30">
-        <v>50813.198858563301</v>
+        <v>7.98677115713335</v>
       </c>
       <c r="K30">
-        <v>7.98677115713335</v>
+        <v>-3.1628171272823913E-3</v>
       </c>
       <c r="L30">
-        <v>-3.1628171272823913E-3</v>
+        <v>0.11404950590793297</v>
       </c>
       <c r="M30">
-        <v>0.11404950590793297</v>
+        <v>8.0592168275195331E-3</v>
       </c>
       <c r="N30">
-        <v>8.0592168275195331E-3</v>
+        <v>-2.3690573665863801E-2</v>
       </c>
       <c r="O30">
-        <v>-2.3690573665863801E-2</v>
-      </c>
-      <c r="P30">
         <v>1670503.50413239</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="P30" s="3">
         <v>102.57996368408203</v>
       </c>
-      <c r="R30">
+      <c r="Q30">
         <v>-2.9</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2588,37 +2497,34 @@
         <v>1879.5</v>
       </c>
       <c r="I31">
-        <v>15133982.9974185</v>
+        <v>51654.265926758497</v>
       </c>
       <c r="J31">
-        <v>51654.265926758497</v>
+        <v>7.7045758882135003</v>
       </c>
       <c r="K31">
-        <v>7.7045758882135003</v>
+        <v>1.8939898047412029E-3</v>
       </c>
       <c r="L31">
-        <v>1.8939898047412029E-3</v>
+        <v>9.5116576518397541E-2</v>
       </c>
       <c r="M31">
-        <v>9.5116576518397541E-2</v>
+        <v>-3.6868376600206476E-3</v>
       </c>
       <c r="N31">
-        <v>-3.6868376600206476E-3</v>
+        <v>-2.1894856206203128E-2</v>
       </c>
       <c r="O31">
-        <v>-2.1894856206203128E-2</v>
-      </c>
-      <c r="P31">
         <v>1689949.9105543499</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="P31" s="3">
         <v>126.78901672363281</v>
       </c>
-      <c r="R31">
+      <c r="Q31">
         <v>-2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2644,37 +2550,34 @@
         <v>1919.53</v>
       </c>
       <c r="I32">
-        <v>15145278.186241301</v>
+        <v>52680.981691650297</v>
       </c>
       <c r="J32">
-        <v>52680.981691650297</v>
+        <v>8.4775173824292995</v>
       </c>
       <c r="K32">
-        <v>8.4775173824292995</v>
+        <v>3.5459840341676152E-3</v>
       </c>
       <c r="L32">
-        <v>3.5459840341676152E-3</v>
+        <v>9.9204344198920852E-2</v>
       </c>
       <c r="M32">
-        <v>9.9204344198920852E-2</v>
+        <v>-2.9112343301234134E-3</v>
       </c>
       <c r="N32">
-        <v>-2.9112343301234134E-3</v>
+        <v>-1.4228141226510393E-2</v>
       </c>
       <c r="O32">
-        <v>-1.4228141226510393E-2</v>
-      </c>
-      <c r="P32">
         <v>1713139.9187085</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="P32" s="3">
         <v>102.81346130371094</v>
       </c>
-      <c r="R32">
+      <c r="Q32">
         <v>-4.0999999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2700,37 +2603,34 @@
         <v>2022.22</v>
       </c>
       <c r="I33">
-        <v>15153096.381486701</v>
+        <v>52516.131737978598</v>
       </c>
       <c r="J33">
-        <v>52516.131737978598</v>
+        <v>8.2844305021582301</v>
       </c>
       <c r="K33">
-        <v>8.2844305021582301</v>
+        <v>-6.8613060769056045E-3</v>
       </c>
       <c r="L33">
-        <v>-6.8613060769056045E-3</v>
+        <v>-3.8762937666261502E-2</v>
       </c>
       <c r="M33">
-        <v>-3.8762937666261502E-2</v>
+        <v>3.0969199769226297E-3</v>
       </c>
       <c r="N33">
-        <v>3.0969199769226297E-3</v>
+        <v>-1.6672266733439134E-2</v>
       </c>
       <c r="O33">
-        <v>-1.6672266733439134E-2</v>
-      </c>
-      <c r="P33">
         <v>1733351.69868406</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="P33" s="3">
         <v>138.5316162109375</v>
       </c>
-      <c r="R33">
+      <c r="Q33">
         <v>-1.6</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2756,37 +2656,34 @@
         <v>2077.19</v>
       </c>
       <c r="I34">
-        <v>15162011.4652765</v>
+        <v>52071.848004794403</v>
       </c>
       <c r="J34">
-        <v>52071.848004794403</v>
+        <v>7.7380683407923199</v>
       </c>
       <c r="K34">
-        <v>7.7380683407923199</v>
+        <v>-4.8510699948087765E-3</v>
       </c>
       <c r="L34">
-        <v>-4.8510699948087765E-3</v>
+        <v>0.15007487021166233</v>
       </c>
       <c r="M34">
-        <v>0.15007487021166233</v>
+        <v>4.3050494121392724E-3</v>
       </c>
       <c r="N34">
-        <v>4.3050494121392724E-3</v>
+        <v>-6.128617279044124E-3</v>
       </c>
       <c r="O34">
-        <v>-6.128617279044124E-3</v>
-      </c>
-      <c r="P34">
         <v>1753835.2526688301</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="P34" s="3">
         <v>115.53444671630859</v>
       </c>
-      <c r="R34">
+      <c r="Q34">
         <v>2.6</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2812,37 +2709,34 @@
         <v>2064.31</v>
       </c>
       <c r="I35">
-        <v>15177034.707041999</v>
+        <v>52216.952495737198</v>
       </c>
       <c r="J35">
-        <v>52216.952495737198</v>
+        <v>7.1045308620203302</v>
       </c>
       <c r="K35">
-        <v>7.1045308620203302</v>
+        <v>2.5869859774627635E-3</v>
       </c>
       <c r="L35">
-        <v>2.5869859774627635E-3</v>
+        <v>0.14974400098166096</v>
       </c>
       <c r="M35">
-        <v>0.14974400098166096</v>
+        <v>1.5081405267105552E-3</v>
       </c>
       <c r="N35">
-        <v>1.5081405267105552E-3</v>
+        <v>-5.3209418995123769E-3</v>
       </c>
       <c r="O35">
-        <v>-5.3209418995123769E-3</v>
-      </c>
-      <c r="P35">
         <v>1778773.84023542</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="P35" s="3">
         <v>91.461570739746094</v>
       </c>
-      <c r="R35">
+      <c r="Q35">
         <v>1.4</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2868,37 +2762,34 @@
         <v>2100.62</v>
       </c>
       <c r="I36">
-        <v>15188126.3341421</v>
+        <v>52737.122253728099</v>
       </c>
       <c r="J36">
-        <v>52737.122253728099</v>
+        <v>6.8598080173296401</v>
       </c>
       <c r="K36">
-        <v>6.8598080173296401</v>
+        <v>5.6197711547649742E-3</v>
       </c>
       <c r="L36">
-        <v>5.6197711547649742E-3</v>
+        <v>-3.4653784853200774E-4</v>
       </c>
       <c r="M36">
-        <v>-3.4653784853200774E-4</v>
+        <v>5.5966235373414719E-3</v>
       </c>
       <c r="N36">
-        <v>5.5966235373414719E-3</v>
+        <v>9.7644109719028371E-3</v>
       </c>
       <c r="O36">
-        <v>9.7644109719028371E-3</v>
-      </c>
-      <c r="P36">
         <v>1799916.3555924301</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="P36" s="3">
         <v>92.596015930175781</v>
       </c>
-      <c r="R36">
+      <c r="Q36">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2924,37 +2815,34 @@
         <v>2109.7399999999998</v>
       </c>
       <c r="I37">
-        <v>15200259.0296581</v>
+        <v>53138.3436707328</v>
       </c>
       <c r="J37">
-        <v>53138.3436707328</v>
+        <v>5.1408884872704004</v>
       </c>
       <c r="K37">
-        <v>5.1408884872704004</v>
+        <v>-7.8900211305286128E-3</v>
       </c>
       <c r="L37">
-        <v>-7.8900211305286128E-3</v>
+        <v>0.94948363598443153</v>
       </c>
       <c r="M37">
-        <v>0.94948363598443153</v>
+        <v>-1.1382989123822518E-2</v>
       </c>
       <c r="N37">
-        <v>-1.1382989123822518E-2</v>
+        <v>6.0266154958554807E-3</v>
       </c>
       <c r="O37">
-        <v>6.0266154958554807E-3</v>
-      </c>
-      <c r="P37">
         <v>1821325.7044152501</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="P37" s="3">
         <v>82.718254089355469</v>
       </c>
-      <c r="R37">
+      <c r="Q37">
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2980,37 +2868,34 @@
         <v>2289.9899999999998</v>
       </c>
       <c r="I38">
-        <v>15218358.245427901</v>
+        <v>53154.508125331697</v>
       </c>
       <c r="J38">
-        <v>53154.508125331697</v>
+        <v>4.5420825755121603</v>
       </c>
       <c r="K38">
-        <v>4.5420825755121603</v>
+        <v>1.9000502006327746E-3</v>
       </c>
       <c r="L38">
-        <v>1.9000502006327746E-3</v>
+        <v>-19.207792284800998</v>
       </c>
       <c r="M38">
-        <v>-19.207792284800998</v>
+        <v>-1.84493408479115E-2</v>
       </c>
       <c r="N38">
-        <v>-1.84493408479115E-2</v>
+        <v>8.3832855101757531E-3</v>
       </c>
       <c r="O38">
-        <v>8.3832855101757531E-3</v>
-      </c>
-      <c r="P38">
         <v>1847384.53923573</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="P38" s="3">
         <v>92.426788330078125</v>
       </c>
-      <c r="R38">
+      <c r="Q38">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3036,37 +2921,34 @@
         <v>2296.8000000000002</v>
       </c>
       <c r="I39">
-        <v>15232452.8019513</v>
+        <v>53471.140293337303</v>
       </c>
       <c r="J39">
-        <v>53471.140293337303</v>
+        <v>4.9896185072413202</v>
       </c>
       <c r="K39">
-        <v>4.9896185072413202</v>
+        <v>-1.6811193246513145E-3</v>
       </c>
       <c r="L39">
-        <v>-1.6811193246513145E-3</v>
+        <v>1.1615211231745275</v>
       </c>
       <c r="M39">
-        <v>1.1615211231745275</v>
+        <v>-1.0191924971594157E-2</v>
       </c>
       <c r="N39">
-        <v>-1.0191924971594157E-2</v>
+        <v>-4.5063260339270883E-3</v>
       </c>
       <c r="O39">
-        <v>-4.5063260339270883E-3</v>
-      </c>
-      <c r="P39">
         <v>1869325.3101476601</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="P39" s="3">
         <v>64.491371154785156</v>
       </c>
-      <c r="R39">
+      <c r="Q39">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3092,37 +2974,34 @@
         <v>2270.98</v>
       </c>
       <c r="I40">
-        <v>15247517.3673466</v>
+        <v>53240.790890734999</v>
       </c>
       <c r="J40">
-        <v>53240.790890734999</v>
+        <v>6.2481907159914698</v>
       </c>
       <c r="K40">
-        <v>6.2481907159914698</v>
+        <v>1.5273994496083354E-3</v>
       </c>
       <c r="L40">
-        <v>1.5273994496083354E-3</v>
+        <v>4.4029726689434687</v>
       </c>
       <c r="M40">
-        <v>4.4029726689434687</v>
+        <v>1.7182690964903102E-2</v>
       </c>
       <c r="N40">
-        <v>1.7182690964903102E-2</v>
+        <v>-3.2065403158778594E-3</v>
       </c>
       <c r="O40">
-        <v>-3.2065403158778594E-3</v>
-      </c>
-      <c r="P40">
         <v>1891530.44552809</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="P40" s="3">
         <v>111.96229553222656</v>
       </c>
-      <c r="R40">
+      <c r="Q40">
         <v>-2.1788176625478499</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3148,37 +3027,34 @@
         <v>2307.02</v>
       </c>
       <c r="I41">
-        <v>15268157.257783299</v>
+        <v>54360.762744326697</v>
       </c>
       <c r="J41">
-        <v>54360.762744326697</v>
+        <v>8.2575579718615906</v>
       </c>
       <c r="K41">
-        <v>8.2575579718615906</v>
+        <v>7.643557690440228E-3</v>
       </c>
       <c r="L41">
-        <v>7.643557690440228E-3</v>
+        <v>0.73317836663138147</v>
       </c>
       <c r="M41">
-        <v>0.73317836663138147</v>
+        <v>1.422448008657895E-2</v>
       </c>
       <c r="N41">
-        <v>1.422448008657895E-2</v>
+        <v>-1.8237604929457474E-2</v>
       </c>
       <c r="O41">
-        <v>-1.8237604929457474E-2</v>
-      </c>
-      <c r="P41">
         <v>1917855.62801468</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="P41" s="3">
         <v>123.26347351074219</v>
       </c>
-      <c r="R41">
+      <c r="Q41">
         <v>-3.22118233745215</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3204,37 +3080,34 @@
         <v>2302.88</v>
       </c>
       <c r="I42">
-        <v>15284991.676846201</v>
+        <v>56170.876208923997</v>
       </c>
       <c r="J42">
-        <v>56170.876208923997</v>
+        <v>9.7182177631126301</v>
       </c>
       <c r="K42">
-        <v>9.7182177631126301</v>
+        <v>4.4844048395042968E-4</v>
       </c>
       <c r="L42">
-        <v>4.4844048395042968E-4</v>
+        <v>0.70443613621387802</v>
       </c>
       <c r="M42">
-        <v>0.70443613621387802</v>
+        <v>7.713047613577384E-3</v>
       </c>
       <c r="N42">
-        <v>7.713047613577384E-3</v>
+        <v>-1.886238320227962E-2</v>
       </c>
       <c r="O42">
-        <v>-1.886238320227962E-2</v>
-      </c>
-      <c r="P42">
         <v>1940411.9662881501</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="P42" s="3">
         <v>125.66661834716797</v>
       </c>
-      <c r="R42">
+      <c r="Q42">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -3260,37 +3133,34 @@
         <v>2295.9499999999998</v>
       </c>
       <c r="I43">
-        <v>15302752.942927601</v>
+        <v>56909.517177632602</v>
       </c>
       <c r="J43">
-        <v>56909.517177632602</v>
+        <v>9.6238709264387694</v>
       </c>
       <c r="K43">
-        <v>9.6238709264387694</v>
+        <v>8.639504531648412E-3</v>
       </c>
       <c r="L43">
-        <v>8.639504531648412E-3</v>
+        <v>0.49244183000047947</v>
       </c>
       <c r="M43">
-        <v>0.49244183000047947</v>
+        <v>6.3663351383771438E-3</v>
       </c>
       <c r="N43">
-        <v>6.3663351383771438E-3</v>
+        <v>-2.426249410885517E-2</v>
       </c>
       <c r="O43">
-        <v>-2.426249410885517E-2</v>
-      </c>
-      <c r="P43">
         <v>1963228.8891854601</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="P43" s="3">
         <v>103.96858978271484</v>
       </c>
-      <c r="R43">
+      <c r="Q43">
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3316,37 +3186,34 @@
         <v>2321.11</v>
       </c>
       <c r="I44">
-        <v>15325263.740562299</v>
+        <v>57815.591668983703</v>
       </c>
       <c r="J44">
-        <v>57815.591668983703</v>
+        <v>10.6040047744505</v>
       </c>
       <c r="K44">
-        <v>10.6040047744505</v>
+        <v>9.7490687010681754E-4</v>
       </c>
       <c r="L44">
-        <v>9.7490687010681754E-4</v>
+        <v>0.37953827716016064</v>
       </c>
       <c r="M44">
-        <v>0.37953827716016064</v>
+        <v>5.3240907549916283E-3</v>
       </c>
       <c r="N44">
-        <v>5.3240907549916283E-3</v>
+        <v>-1.0974832704272908E-2</v>
       </c>
       <c r="O44">
-        <v>-1.0974832704272908E-2</v>
-      </c>
-      <c r="P44">
         <v>1988994.4656384401</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="P44" s="3">
         <v>110.02842712402344</v>
       </c>
-      <c r="R44">
+      <c r="Q44">
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3372,37 +3239,34 @@
         <v>2345.85</v>
       </c>
       <c r="I45">
-        <v>15344616.7468335</v>
+        <v>57456.455415780903</v>
       </c>
       <c r="J45">
-        <v>57456.455415780903</v>
+        <v>10.4450756081997</v>
       </c>
       <c r="K45">
-        <v>10.4450756081997</v>
+        <v>1.3531972757137467E-2</v>
       </c>
       <c r="L45">
-        <v>1.3531972757137467E-2</v>
+        <v>0.28444738105968592</v>
       </c>
       <c r="M45">
-        <v>0.28444738105968592</v>
+        <v>7.0027305632680559E-4</v>
       </c>
       <c r="N45">
-        <v>7.0027305632680559E-4</v>
+        <v>-1.2106146021608311E-2</v>
       </c>
       <c r="O45">
-        <v>-1.2106146021608311E-2</v>
-      </c>
-      <c r="P45">
         <v>2012003.94870254</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="P45" s="3">
         <v>112.74168395996094</v>
       </c>
-      <c r="R45">
+      <c r="Q45">
         <v>-2.9</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -3428,37 +3292,34 @@
         <v>2475.36</v>
       </c>
       <c r="I46">
-        <v>15364846.2376156</v>
+        <v>58213.6885177851</v>
       </c>
       <c r="J46">
-        <v>58213.6885177851</v>
+        <v>10.6649921290325</v>
       </c>
       <c r="K46">
-        <v>10.6649921290325</v>
+        <v>2.2113401323211601E-3</v>
       </c>
       <c r="L46">
-        <v>2.2113401323211601E-3</v>
+        <v>0.23410852402452031</v>
       </c>
       <c r="M46">
-        <v>0.23410852402452031</v>
+        <v>2.4853438076211098E-4</v>
       </c>
       <c r="N46">
-        <v>2.4853438076211098E-4</v>
+        <v>-1.2491124159215494E-2</v>
       </c>
       <c r="O46">
-        <v>-1.2491124159215494E-2</v>
-      </c>
-      <c r="P46">
         <v>2035247.14286173</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="P46" s="3">
         <v>75.053909301757812</v>
       </c>
-      <c r="R46">
+      <c r="Q46">
         <v>-2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -3484,37 +3345,34 @@
         <v>2352.71</v>
       </c>
       <c r="I47">
-        <v>15388763.1985198</v>
+        <v>58014.560314539602</v>
       </c>
       <c r="J47">
-        <v>58014.560314539602</v>
+        <v>11.020548113183001</v>
       </c>
       <c r="K47">
-        <v>11.020548113183001</v>
+        <v>-2.0301413407826097E-3</v>
       </c>
       <c r="L47">
-        <v>-2.0301413407826097E-3</v>
+        <v>0.19944119516744552</v>
       </c>
       <c r="M47">
-        <v>0.19944119516744552</v>
+        <v>3.2817599111933937E-3</v>
       </c>
       <c r="N47">
-        <v>3.2817599111933937E-3</v>
+        <v>9.9201399533854762E-4</v>
       </c>
       <c r="O47">
-        <v>9.9201399533854762E-4</v>
-      </c>
-      <c r="P47">
         <v>2059926.1621111899</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="P47" s="3">
         <v>92.0164794921875</v>
       </c>
-      <c r="R47">
+      <c r="Q47">
         <v>3.4</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3540,37 +3398,34 @@
         <v>2392.5</v>
       </c>
       <c r="I48">
-        <v>15410441.863797899</v>
+        <v>58521.536645310298</v>
       </c>
       <c r="J48">
-        <v>58521.536645310298</v>
+        <v>11.7863195674253</v>
       </c>
       <c r="K48">
-        <v>11.7863195674253</v>
+        <v>1.5914856004952682E-3</v>
       </c>
       <c r="L48">
-        <v>1.5914856004952682E-3</v>
+        <v>0.19135433588153117</v>
       </c>
       <c r="M48">
-        <v>0.19135433588153117</v>
+        <v>2.1861165643564107E-3</v>
       </c>
       <c r="N48">
-        <v>2.1861165643564107E-3</v>
+        <v>1.6131302831109195E-2</v>
       </c>
       <c r="O48">
-        <v>1.6131302831109195E-2</v>
-      </c>
-      <c r="P48">
         <v>2083239.91069549</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="P48" s="3">
         <v>80.407585144042969</v>
       </c>
-      <c r="R48">
+      <c r="Q48">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3596,37 +3451,34 @@
         <v>2369.33</v>
       </c>
       <c r="I49">
-        <v>15432961.807889801</v>
+        <v>59045.7841059559</v>
       </c>
       <c r="J49">
-        <v>59045.7841059559</v>
+        <v>14.112154825662699</v>
       </c>
       <c r="K49">
-        <v>14.112154825662699</v>
+        <v>-5.5858109601767403E-3</v>
       </c>
       <c r="L49">
-        <v>-5.5858109601767403E-3</v>
+        <v>0.13187718445533483</v>
       </c>
       <c r="M49">
-        <v>0.13187718445533483</v>
+        <v>1.3890003227010617E-3</v>
       </c>
       <c r="N49">
-        <v>1.3890003227010617E-3</v>
+        <v>2.5800731746812522E-2</v>
       </c>
       <c r="O49">
-        <v>2.5800731746812522E-2</v>
-      </c>
-      <c r="P49">
         <v>2106728.93744019</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="P49" s="3">
         <v>90.607666015625</v>
       </c>
-      <c r="R49">
+      <c r="Q49">
         <v>-1.8</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3652,37 +3504,34 @@
         <v>2521.1</v>
       </c>
       <c r="I50">
-        <v>15457918.542675201</v>
+        <v>59702.740376878697</v>
       </c>
       <c r="J50">
-        <v>59702.740376878697</v>
+        <v>17.7079976777142</v>
       </c>
       <c r="K50">
-        <v>17.7079976777142</v>
+        <v>-9.7069308058026493E-3</v>
       </c>
       <c r="L50">
-        <v>-9.7069308058026493E-3</v>
+        <v>-1.0154144634397686</v>
       </c>
       <c r="M50">
-        <v>-1.0154144634397686</v>
+        <v>-4.9253287529164025E-3</v>
       </c>
       <c r="N50">
-        <v>-4.9253287529164025E-3</v>
+        <v>1.1163930450525106E-2</v>
       </c>
       <c r="O50">
-        <v>1.1163930450525106E-2</v>
-      </c>
-      <c r="P50">
         <v>2130267.9384734398</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="P50" s="3">
         <v>87.424102783203125</v>
       </c>
-      <c r="R50">
+      <c r="Q50">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -3708,37 +3557,34 @@
         <v>2485.27</v>
       </c>
       <c r="I51">
-        <v>15481789.4836572</v>
+        <v>59008.986630653802</v>
       </c>
       <c r="J51">
-        <v>59008.986630653802</v>
+        <v>11.4068534300881</v>
       </c>
       <c r="K51">
-        <v>11.4068534300881</v>
+        <v>-2.0089527044899746E-3</v>
       </c>
       <c r="L51">
-        <v>-2.0089527044899746E-3</v>
+        <v>6.4886101682999957</v>
       </c>
       <c r="M51">
-        <v>6.4886101682999957</v>
+        <v>1.3928419033559569E-2</v>
       </c>
       <c r="N51">
-        <v>1.3928419033559569E-2</v>
+        <v>5.6957029670015036E-3</v>
       </c>
       <c r="O51">
-        <v>5.6957029670015036E-3</v>
-      </c>
-      <c r="P51">
         <v>2153758.8062712499</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="P51" s="3">
         <v>96.800163269042969</v>
       </c>
-      <c r="R51">
+      <c r="Q51">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -3764,37 +3610,34 @@
         <v>2497.1</v>
       </c>
       <c r="I52">
-        <v>15506483.867597301</v>
+        <v>59568.503359844399</v>
       </c>
       <c r="J52">
-        <v>59568.503359844399</v>
+        <v>9.4551915053079707</v>
       </c>
       <c r="K52">
-        <v>9.4551915053079707</v>
+        <v>1.6307308474796667E-3</v>
       </c>
       <c r="L52">
-        <v>1.6307308474796667E-3</v>
+        <v>0.58456921839111631</v>
       </c>
       <c r="M52">
-        <v>0.58456921839111631</v>
+        <v>7.4713008525020275E-3</v>
       </c>
       <c r="N52">
-        <v>7.4713008525020275E-3</v>
+        <v>-1.0423440479628621E-2</v>
       </c>
       <c r="O52">
-        <v>-1.0423440479628621E-2</v>
-      </c>
-      <c r="P52">
         <v>2177332.2539718002</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="P52" s="3">
         <v>82.328292846679688</v>
       </c>
-      <c r="R52">
+      <c r="Q52">
         <v>3.0588830097820501</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -3820,37 +3663,34 @@
         <v>2559.3200000000002</v>
       </c>
       <c r="I53">
-        <v>15532240.491754999</v>
+        <v>59745.110422473197</v>
       </c>
       <c r="J53">
-        <v>59745.110422473197</v>
+        <v>8.6491560911486705</v>
       </c>
       <c r="K53">
-        <v>8.6491560911486705</v>
+        <v>3.2126964485803544E-3</v>
       </c>
       <c r="L53">
-        <v>3.2126964485803544E-3</v>
+        <v>0.60162926761204072</v>
       </c>
       <c r="M53">
-        <v>0.60162926761204072</v>
+        <v>2.5961266991991749E-4</v>
       </c>
       <c r="N53">
-        <v>2.5961266991991749E-4</v>
+        <v>-1.0896342767091061E-2</v>
       </c>
       <c r="O53">
-        <v>-1.0896342767091061E-2</v>
-      </c>
-      <c r="P53">
         <v>2200183.9075437398</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="P53" s="3">
         <v>79.253448486328125</v>
       </c>
-      <c r="R53">
+      <c r="Q53">
         <v>-0.35888300978204801</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -3876,37 +3716,34 @@
         <v>2665.33</v>
       </c>
       <c r="I54">
-        <v>15558241.826361099</v>
+        <v>60429.081235834303</v>
       </c>
       <c r="J54">
-        <v>60429.081235834303</v>
+        <v>9.1377985003141795</v>
       </c>
       <c r="K54">
-        <v>9.1377985003141795</v>
+        <v>-4.7346454629249024E-3</v>
       </c>
       <c r="L54">
-        <v>-4.7346454629249024E-3</v>
+        <v>0.63520741233846389</v>
       </c>
       <c r="M54">
-        <v>0.63520741233846389</v>
+        <v>-1.212681301779428E-3</v>
       </c>
       <c r="N54">
-        <v>-1.212681301779428E-3</v>
+        <v>-2.2235754465202651E-2</v>
       </c>
       <c r="O54">
-        <v>-2.2235754465202651E-2</v>
-      </c>
-      <c r="P54">
         <v>2223731.9337123302</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="P54" s="3">
         <v>106.47190093994141</v>
       </c>
-      <c r="R54">
+      <c r="Q54">
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -3932,37 +3769,34 @@
         <v>2765.85</v>
       </c>
       <c r="I55">
-        <v>15585079.5757068</v>
+        <v>61244.218021991903</v>
       </c>
       <c r="J55">
-        <v>61244.218021991903</v>
+        <v>9.3257997125952006</v>
       </c>
       <c r="K55">
-        <v>9.3257997125952006</v>
+        <v>-9.0117752068146206E-3</v>
       </c>
       <c r="L55">
-        <v>-9.0117752068146206E-3</v>
+        <v>0.3258624349869691</v>
       </c>
       <c r="M55">
-        <v>0.3258624349869691</v>
+        <v>4.4643661893042363E-3</v>
       </c>
       <c r="N55">
-        <v>4.4643661893042363E-3</v>
+        <v>-1.8011802359152673E-2</v>
       </c>
       <c r="O55">
-        <v>-1.8011802359152673E-2</v>
-      </c>
-      <c r="P55">
         <v>2247264.2760470398</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="P55" s="3">
         <v>106.58845520019531</v>
       </c>
-      <c r="R55">
+      <c r="Q55">
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -3988,37 +3822,34 @@
         <v>2739.5</v>
       </c>
       <c r="I56">
-        <v>15611458.875900101</v>
+        <v>61574.674808494303</v>
       </c>
       <c r="J56">
-        <v>61574.674808494303</v>
+        <v>9.0966069827393401</v>
       </c>
       <c r="K56">
-        <v>9.0966069827393401</v>
+        <v>-3.198462749384845E-3</v>
       </c>
       <c r="L56">
-        <v>-3.198462749384845E-3</v>
+        <v>0.23632771722904938</v>
       </c>
       <c r="M56">
-        <v>0.23632771722904938</v>
+        <v>1.1169553830957302E-2</v>
       </c>
       <c r="N56">
-        <v>1.1169553830957302E-2</v>
+        <v>-1.9741332962132985E-2</v>
       </c>
       <c r="O56">
-        <v>-1.9741332962132985E-2</v>
-      </c>
-      <c r="P56">
         <v>2270096.21893482</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="P56" s="3">
         <v>93.521255493164062</v>
       </c>
-      <c r="R56">
+      <c r="Q56">
         <v>1.5</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -4044,37 +3875,34 @@
         <v>2740.04</v>
       </c>
       <c r="I57">
-        <v>15639618.138749</v>
+        <v>61604.134814444304</v>
       </c>
       <c r="J57">
-        <v>61604.134814444304</v>
+        <v>9.2804539819197291</v>
       </c>
       <c r="K57">
-        <v>9.2804539819197291</v>
+        <v>2.0771164412809462E-3</v>
       </c>
       <c r="L57">
-        <v>2.0771164412809462E-3</v>
+        <v>0.1628263112190492</v>
       </c>
       <c r="M57">
-        <v>0.1628263112190492</v>
+        <v>1.2516237073767478E-2</v>
       </c>
       <c r="N57">
-        <v>1.2516237073767478E-2</v>
+        <v>-1.8855207986195777E-2</v>
       </c>
       <c r="O57">
-        <v>-1.8855207986195777E-2</v>
-      </c>
-      <c r="P57">
         <v>2293598.19764225</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="P57" s="3">
         <v>103.4044189453125</v>
       </c>
-      <c r="R57">
+      <c r="Q57">
         <v>-2.4</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -4100,37 +3928,34 @@
         <v>2747.18</v>
       </c>
       <c r="I58">
-        <v>15668590.0354135</v>
+        <v>62120.436249231097</v>
       </c>
       <c r="J58">
-        <v>62120.436249231097</v>
+        <v>8.7599395177916808</v>
       </c>
       <c r="K58">
-        <v>8.7599395177916808</v>
+        <v>-1.7635658476771177E-3</v>
       </c>
       <c r="L58">
-        <v>-1.7635658476771177E-3</v>
+        <v>9.6211395527343119E-2</v>
       </c>
       <c r="M58">
-        <v>9.6211395527343119E-2</v>
+        <v>1.4714672301832321E-2</v>
       </c>
       <c r="N58">
-        <v>1.4714672301832321E-2</v>
+        <v>1.7721750853629814E-3</v>
       </c>
       <c r="O58">
-        <v>1.7721750853629814E-3</v>
-      </c>
-      <c r="P58">
         <v>2316983.4001776702</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="P58" s="3">
         <v>90.367988586425781</v>
       </c>
-      <c r="R58">
+      <c r="Q58">
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -4156,37 +3981,34 @@
         <v>2893.98</v>
       </c>
       <c r="I59">
-        <v>15695992.1275346</v>
+        <v>62387.386510615303</v>
       </c>
       <c r="J59">
-        <v>62387.386510615303</v>
+        <v>8.2086019580422906</v>
       </c>
       <c r="K59">
-        <v>8.2086019580422906</v>
+        <v>-8.5601877431151774E-3</v>
       </c>
       <c r="L59">
-        <v>-8.5601877431151774E-3</v>
+        <v>1.9482548123426851E-2</v>
       </c>
       <c r="M59">
-        <v>1.9482548123426851E-2</v>
+        <v>1.5003192353524319E-2</v>
       </c>
       <c r="N59">
-        <v>1.5003192353524319E-2</v>
+        <v>9.4272731131357368E-3</v>
       </c>
       <c r="O59">
-        <v>9.4272731131357368E-3</v>
-      </c>
-      <c r="P59">
         <v>2340499.09600269</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="P59" s="3">
         <v>97.83673095703125</v>
       </c>
-      <c r="R59">
+      <c r="Q59">
         <v>0.7</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -4212,37 +4034,34 @@
         <v>2935.37</v>
       </c>
       <c r="I60">
-        <v>15726355.1033311</v>
+        <v>62751.821434841899</v>
       </c>
       <c r="J60">
-        <v>62751.821434841899</v>
+        <v>7.3741296720069904</v>
       </c>
       <c r="K60">
-        <v>7.3741296720069904</v>
+        <v>-5.5032437841437964E-3</v>
       </c>
       <c r="L60">
-        <v>-5.5032437841437964E-3</v>
+        <v>6.5468156245650472E-2</v>
       </c>
       <c r="M60">
-        <v>6.5468156245650472E-2</v>
+        <v>9.8806905234012365E-3</v>
       </c>
       <c r="N60">
-        <v>9.8806905234012365E-3</v>
+        <v>2.4872179938777661E-2</v>
       </c>
       <c r="O60">
-        <v>2.4872179938777661E-2</v>
-      </c>
-      <c r="P60">
         <v>2363836.7573754</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="P60" s="3">
         <v>73.078384399414062</v>
       </c>
-      <c r="R60">
+      <c r="Q60">
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -4268,37 +4087,34 @@
         <v>3045.87</v>
       </c>
       <c r="I61">
-        <v>15757499.8056024</v>
+        <v>63392.040179858799</v>
       </c>
       <c r="J61">
-        <v>63392.040179858799</v>
+        <v>6.4950829181544796</v>
       </c>
       <c r="K61">
-        <v>6.4950829181544796</v>
+        <v>4.4762025472184774E-3</v>
       </c>
       <c r="L61">
-        <v>4.4762025472184774E-3</v>
+        <v>5.4057569333411402E-2</v>
       </c>
       <c r="M61">
-        <v>5.4057569333411402E-2</v>
+        <v>1.8875014564310399E-2</v>
       </c>
       <c r="N61">
-        <v>1.8875014564310399E-2</v>
+        <v>9.2736399451058826E-3</v>
       </c>
       <c r="O61">
-        <v>9.2736399451058826E-3</v>
-      </c>
-      <c r="P61">
         <v>2386951.2226029998</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="P61" s="3">
         <v>74.279891967773438</v>
       </c>
-      <c r="R61">
+      <c r="Q61">
         <v>1.3</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -4324,37 +4140,34 @@
         <v>3076.65</v>
       </c>
       <c r="I62">
-        <v>15786613.0466264</v>
+        <v>62750.016944791001</v>
       </c>
       <c r="J62">
-        <v>62750.016944791001</v>
+        <v>6.00771253665736</v>
       </c>
       <c r="K62">
-        <v>6.00771253665736</v>
+        <v>-1.6668557821306607E-3</v>
       </c>
       <c r="L62">
-        <v>-1.6668557821306607E-3</v>
+        <v>-1.0859322371451388</v>
       </c>
       <c r="M62">
-        <v>-1.0859322371451388</v>
+        <v>0.27866064015877168</v>
       </c>
       <c r="N62">
-        <v>0.27866064015877168</v>
+        <v>3.4380154718771649E-3</v>
       </c>
       <c r="O62">
-        <v>3.4380154718771649E-3</v>
-      </c>
-      <c r="P62">
         <v>2411729.0913061299</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="P62" s="3">
         <v>138.42094421386719</v>
       </c>
-      <c r="R62">
+      <c r="Q62">
         <v>1.6</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -4380,37 +4193,34 @@
         <v>2785.08</v>
       </c>
       <c r="I63">
-        <v>15819252.4755613</v>
+        <v>63090.320039996703</v>
       </c>
       <c r="J63">
-        <v>63090.320039996703</v>
+        <v>12.0675589795876</v>
       </c>
       <c r="K63">
-        <v>12.0675589795876</v>
+        <v>6.3391084598851677E-5</v>
       </c>
       <c r="L63">
-        <v>6.3391084598851677E-5</v>
+        <v>-0.11888255304680094</v>
       </c>
       <c r="M63">
-        <v>-0.11888255304680094</v>
+        <v>-0.15778243686778215</v>
       </c>
       <c r="N63">
-        <v>-0.15778243686778215</v>
+        <v>-1.5035483305778641E-3</v>
       </c>
       <c r="O63">
-        <v>-1.5035483305778641E-3</v>
-      </c>
-      <c r="P63">
         <v>2434731.1392773702</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="P63" s="3">
         <v>75.955558776855469</v>
       </c>
-      <c r="R63">
+      <c r="Q63">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -4436,37 +4246,34 @@
         <v>2508.81</v>
       </c>
       <c r="I64">
-        <v>15852629.0456225</v>
+        <v>64503.915711355599</v>
       </c>
       <c r="J64">
-        <v>64503.915711355599</v>
+        <v>15.082715466154299</v>
       </c>
       <c r="K64">
-        <v>15.082715466154299</v>
+        <v>2.0380321680217417E-2</v>
       </c>
       <c r="L64">
-        <v>2.0380321680217417E-2</v>
+        <v>0.35679739099580887</v>
       </c>
       <c r="M64">
-        <v>0.35679739099580887</v>
+        <v>1.054435524824604E-2</v>
       </c>
       <c r="N64">
-        <v>1.054435524824604E-2</v>
+        <v>4.5473587465425513E-3</v>
       </c>
       <c r="O64">
-        <v>4.5473587465425513E-3</v>
-      </c>
-      <c r="P64">
         <v>2457393.2756586201</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="P64" s="3">
         <v>81.540031433105469</v>
       </c>
-      <c r="R64">
+      <c r="Q64">
         <v>-10.837837169505899</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -4492,37 +4299,34 @@
         <v>2650.56</v>
       </c>
       <c r="I65">
-        <v>15884345.2399597</v>
+        <v>67866.095133024894</v>
       </c>
       <c r="J65">
-        <v>67866.095133024894</v>
+        <v>12.314010008395901</v>
       </c>
       <c r="K65">
-        <v>12.314010008395901</v>
+        <v>-1.9959545402327139E-2</v>
       </c>
       <c r="L65">
-        <v>-1.9959545402327139E-2</v>
+        <v>0.46808577504937776</v>
       </c>
       <c r="M65">
-        <v>0.46808577504937776</v>
+        <v>2.8118286014129801E-2</v>
       </c>
       <c r="N65">
-        <v>2.8118286014129801E-2</v>
+        <v>7.9464653565529897E-2</v>
       </c>
       <c r="O65">
-        <v>7.9464653565529897E-2</v>
-      </c>
-      <c r="P65">
         <v>2483746.4667691598</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="P65" s="3">
         <v>69.339401245117188</v>
       </c>
-      <c r="R65">
+      <c r="Q65">
         <v>-1.6621628304940701</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -4548,37 +4352,34 @@
         <v>2734.83</v>
       </c>
       <c r="I66">
-        <v>15919324.101518299</v>
+        <v>68094.702758364001</v>
       </c>
       <c r="J66">
-        <v>68094.702758364001</v>
+        <v>12.0947599740553</v>
       </c>
       <c r="K66">
-        <v>12.0947599740553</v>
+        <v>-1.8359692285903062E-2</v>
       </c>
       <c r="L66">
-        <v>-1.8359692285903062E-2</v>
+        <v>-3.8198306773125017</v>
       </c>
       <c r="M66">
-        <v>-3.8198306773125017</v>
+        <v>8.9277212558949159E-3</v>
       </c>
       <c r="N66">
-        <v>8.9277212558949159E-3</v>
+        <v>9.7065889375963055E-2</v>
       </c>
       <c r="O66">
-        <v>9.7065889375963055E-2</v>
-      </c>
-      <c r="P66">
         <v>2506149.9653046899</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="P66" s="3">
         <v>68.507217407226562</v>
       </c>
-      <c r="R66">
+      <c r="Q66">
         <v>3.5</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -4604,37 +4405,34 @@
         <v>2743.2</v>
       </c>
       <c r="I67">
-        <v>15954964.2079059</v>
+        <v>68168.440678293293</v>
       </c>
       <c r="J67">
-        <v>68168.440678293293</v>
+        <v>12.7351991797027</v>
       </c>
       <c r="K67">
-        <v>12.7351991797027</v>
+        <v>1.0371592361173576E-3</v>
       </c>
       <c r="L67">
-        <v>1.0371592361173576E-3</v>
+        <v>-0.87265838737048418</v>
       </c>
       <c r="M67">
-        <v>-0.87265838737048418</v>
+        <v>2.3480355462951019E-2</v>
       </c>
       <c r="N67">
-        <v>2.3480355462951019E-2</v>
+        <v>9.3089112759918713E-2</v>
       </c>
       <c r="O67">
-        <v>9.3089112759918713E-2</v>
-      </c>
-      <c r="P67">
         <v>2528075.8610349</v>
       </c>
-      <c r="Q67" s="3">
+      <c r="P67" s="3">
         <v>71.227859497070312</v>
       </c>
-      <c r="R67">
+      <c r="Q67">
         <v>2.7</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -4660,37 +4458,34 @@
         <v>2911.57</v>
       </c>
       <c r="I68">
-        <v>15990331.1666111</v>
+        <v>69439.909371561007</v>
       </c>
       <c r="J68">
-        <v>69439.909371561007</v>
+        <v>13.002570885827501</v>
       </c>
       <c r="K68">
-        <v>13.002570885827501</v>
+        <v>9.2921169496137379E-3</v>
       </c>
       <c r="L68">
-        <v>9.2921169496137379E-3</v>
+        <v>-0.46026572410564015</v>
       </c>
       <c r="M68">
-        <v>-0.46026572410564015</v>
+        <v>1.0258998440673128E-2</v>
       </c>
       <c r="N68">
-        <v>1.0258998440673128E-2</v>
+        <v>3.1549466929419623E-2</v>
       </c>
       <c r="O68">
-        <v>3.1549466929419623E-2</v>
-      </c>
-      <c r="P68">
         <v>2555983.8700208301</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="P68" s="3">
         <v>66.473281860351562</v>
       </c>
-      <c r="R68">
+      <c r="Q68">
         <v>-3.5</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -4716,37 +4511,34 @@
         <v>2966.2</v>
       </c>
       <c r="I69">
-        <v>16027647.3681345</v>
+        <v>70568.697638993894</v>
       </c>
       <c r="J69">
-        <v>70568.697638993894</v>
+        <v>13.544487802832201</v>
       </c>
       <c r="K69">
-        <v>13.544487802832201</v>
+        <v>8.7164424768894078E-3</v>
       </c>
       <c r="L69">
-        <v>8.7164424768894078E-3</v>
+        <v>-0.15786674299852396</v>
       </c>
       <c r="M69">
-        <v>-0.15786674299852396</v>
+        <v>4.3365345775574493E-3</v>
       </c>
       <c r="N69">
-        <v>4.3365345775574493E-3</v>
+        <v>1.7414728992707351E-2</v>
       </c>
       <c r="O69">
-        <v>1.7414728992707351E-2</v>
-      </c>
-      <c r="P69">
         <v>2577398.5007913699</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="P69" s="3">
         <v>65.466049194335938</v>
       </c>
-      <c r="R69">
+      <c r="Q69">
         <v>-5</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -4772,37 +4564,34 @@
         <v>2905.81</v>
       </c>
       <c r="I70">
-        <v>16065644.8800894</v>
+        <v>71107.025076296602</v>
       </c>
       <c r="J70">
-        <v>71107.025076296602</v>
+        <v>14.6995769908971</v>
       </c>
       <c r="K70">
-        <v>14.6995769908971</v>
+        <v>8.0317207108180355E-3</v>
       </c>
       <c r="L70">
-        <v>8.0317207108180355E-3</v>
+        <v>-0.18618706661391801</v>
       </c>
       <c r="M70">
-        <v>-0.18618706661391801</v>
+        <v>1.1838577522098825E-2</v>
       </c>
       <c r="N70">
-        <v>1.1838577522098825E-2</v>
+        <v>9.5451862692956801E-3</v>
       </c>
       <c r="O70">
-        <v>9.5451862692956801E-3</v>
-      </c>
-      <c r="P70">
         <v>2598186.3136458299</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="P70" s="3">
         <v>80.37738037109375</v>
       </c>
-      <c r="R70">
+      <c r="Q70">
         <v>-2.1</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -4828,37 +4617,34 @@
         <v>2690.59</v>
       </c>
       <c r="I71">
-        <v>16104751.0223136</v>
+        <v>72964.079321193407</v>
       </c>
       <c r="J71">
-        <v>72964.079321193407</v>
+        <v>16.050459951916299</v>
       </c>
       <c r="K71">
-        <v>16.050459951916299</v>
+        <v>-3.2200346650257394E-3</v>
       </c>
       <c r="L71">
-        <v>-3.2200346650257394E-3</v>
+        <v>-0.10655825705262571</v>
       </c>
       <c r="M71">
-        <v>-0.10655825705262571</v>
+        <v>1.465125598917405E-2</v>
       </c>
       <c r="N71">
-        <v>1.465125598917405E-2</v>
+        <v>-2.6471880469880471E-3</v>
       </c>
       <c r="O71">
-        <v>-2.6471880469880471E-3</v>
-      </c>
-      <c r="P71">
         <v>2627120.89680736</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="P71" s="3">
         <v>76.083168029785156</v>
       </c>
-      <c r="R71">
+      <c r="Q71">
         <v>-2.4</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -4884,37 +4670,34 @@
         <v>3107.58</v>
       </c>
       <c r="I72">
-        <v>16144442.12118</v>
+        <v>73445.345801193398</v>
       </c>
       <c r="J72">
-        <v>73445.345801193398</v>
+        <v>16.1146183664003</v>
       </c>
       <c r="K72">
-        <v>16.1146183664003</v>
+        <v>-7.1667460894708768E-5</v>
       </c>
       <c r="L72">
-        <v>-7.1667460894708768E-5</v>
+        <v>-0.21661249465077348</v>
       </c>
       <c r="M72">
-        <v>-0.21661249465077348</v>
+        <v>1.9713295855866564E-2</v>
       </c>
       <c r="N72">
-        <v>1.9713295855866564E-2</v>
+        <v>-1.373683966507766E-2</v>
       </c>
       <c r="O72">
-        <v>-1.373683966507766E-2</v>
-      </c>
-      <c r="P72">
         <v>2647024.4343798002</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="P72" s="3">
         <v>70.067466735839844</v>
       </c>
-      <c r="R72">
+      <c r="Q72">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -4940,37 +4723,34 @@
         <v>3289.02</v>
       </c>
       <c r="I73">
-        <v>16184847.599830501</v>
+        <v>73288.648274467996</v>
       </c>
       <c r="J73">
-        <v>73288.648274467996</v>
+        <v>14.503339367381299</v>
       </c>
       <c r="K73">
-        <v>14.503339367381299</v>
+        <v>3.7151591818569418E-3</v>
       </c>
       <c r="L73">
-        <v>3.7151591818569418E-3</v>
+        <v>-3.2388163546188592E-2</v>
       </c>
       <c r="M73">
-        <v>-3.2388163546188592E-2</v>
+        <v>5.4239724207527651E-4</v>
       </c>
       <c r="N73">
-        <v>5.4239724207527651E-4</v>
+        <v>-2.531876177825354E-2</v>
       </c>
       <c r="O73">
-        <v>-2.531876177825354E-2</v>
-      </c>
-      <c r="P73">
         <v>2666140.3882921701</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="P73" s="3">
         <v>64.067291259765625</v>
       </c>
-      <c r="R73">
+      <c r="Q73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -4996,37 +4776,34 @@
         <v>3277.08</v>
       </c>
       <c r="I74">
-        <v>16227404.5578252</v>
+        <v>73201.886841604995</v>
       </c>
       <c r="J74">
-        <v>73201.886841604995</v>
+        <v>15.939632477225199</v>
       </c>
       <c r="K74">
-        <v>15.939632477225199</v>
+        <v>9.5418900561135001E-3</v>
       </c>
       <c r="L74">
-        <v>9.5418900561135001E-3</v>
+        <v>1.0215992909704825</v>
       </c>
       <c r="M74">
-        <v>1.0215992909704825</v>
+        <v>-1.7608439383169583E-2</v>
       </c>
       <c r="N74">
-        <v>-1.7608439383169583E-2</v>
+        <v>-2.6961631529172858E-2</v>
       </c>
       <c r="O74">
-        <v>-2.6961631529172858E-2</v>
-      </c>
-      <c r="P74">
         <v>2695046.3480480299</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="P74" s="3">
         <v>77.418701171875</v>
       </c>
-      <c r="R74">
+      <c r="Q74">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -5052,37 +4829,34 @@
         <v>3346.64</v>
       </c>
       <c r="I75">
-        <v>16269471.0648867</v>
+        <v>73966.503295032599</v>
       </c>
       <c r="J75">
-        <v>73966.503295032599</v>
+        <v>16.2784518767854</v>
       </c>
       <c r="K75">
-        <v>16.2784518767854</v>
+        <v>9.0174218256739991E-3</v>
       </c>
       <c r="L75">
-        <v>9.0174218256739991E-3</v>
+        <v>2.5081949455411969</v>
       </c>
       <c r="M75">
-        <v>2.5081949455411969</v>
+        <v>-1.4692726612947071E-2</v>
       </c>
       <c r="N75">
-        <v>-1.4692726612947071E-2</v>
+        <v>-2.4148855641727751E-2</v>
       </c>
       <c r="O75">
-        <v>-2.4148855641727751E-2</v>
-      </c>
-      <c r="P75">
         <v>2712790.6712915702</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="P75" s="3">
         <v>73.956802368164062</v>
       </c>
-      <c r="R75">
+      <c r="Q75">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -5108,37 +4882,34 @@
         <v>3541.72</v>
       </c>
       <c r="I76">
-        <v>16312292.718327999</v>
+        <v>74278.096467552095</v>
       </c>
       <c r="J76">
-        <v>74278.096467552095</v>
+        <v>18.284103656775599</v>
       </c>
       <c r="K76">
-        <v>18.284103656775599</v>
+        <v>1.0176712696291723E-2</v>
       </c>
       <c r="L76">
-        <v>1.0176712696291723E-2</v>
+        <v>-3.2717603503114361E-2</v>
       </c>
       <c r="M76">
-        <v>-3.2717603503114361E-2</v>
+        <v>1.8872318648325948E-2</v>
       </c>
       <c r="N76">
-        <v>1.8872318648325948E-2</v>
+        <v>-2.7198449453125106E-2</v>
       </c>
       <c r="O76">
-        <v>-2.7198449453125106E-2</v>
-      </c>
-      <c r="P76">
         <v>2729592.9596271999</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="P76" s="3">
         <v>78.618766784667969</v>
       </c>
-      <c r="R76">
+      <c r="Q76">
         <v>0.26872247191812698</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -5164,37 +4935,34 @@
         <v>3544</v>
       </c>
       <c r="I77">
-        <v>16357738.410320699</v>
+        <v>74902.717593896698</v>
       </c>
       <c r="J77">
-        <v>74902.717593896698</v>
+        <v>19.924862591641599</v>
       </c>
       <c r="K77">
-        <v>19.924862591641599</v>
+        <v>1.0803682006150783E-3</v>
       </c>
       <c r="L77">
-        <v>1.0803682006150783E-3</v>
+        <v>0.19234109530238755</v>
       </c>
       <c r="M77">
-        <v>0.19234109530238755</v>
+        <v>3.3579473304303775E-3</v>
       </c>
       <c r="N77">
-        <v>3.3579473304303775E-3</v>
+        <v>-3.3870887182606224E-2</v>
       </c>
       <c r="O77">
-        <v>-3.3870887182606224E-2</v>
-      </c>
-      <c r="P77">
         <v>2756846.8060003598</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="P77" s="3">
         <v>88.166221618652344</v>
       </c>
-      <c r="R77">
+      <c r="Q77">
         <v>-0.66872247191812795</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -5220,37 +4988,34 @@
         <v>3721.63</v>
       </c>
       <c r="I78">
-        <v>16402153.488611501</v>
+        <v>76193.956092127293</v>
       </c>
       <c r="J78">
-        <v>76193.956092127293</v>
+        <v>21.301653549878601</v>
       </c>
       <c r="K78">
-        <v>21.301653549878601</v>
+        <v>-3.7793774744163677E-3</v>
       </c>
       <c r="L78">
-        <v>-3.7793774744163677E-3</v>
+        <v>0.16536596724859007</v>
       </c>
       <c r="M78">
-        <v>0.16536596724859007</v>
+        <v>2.1753063870599165E-2</v>
       </c>
       <c r="N78">
-        <v>2.1753063870599165E-2</v>
+        <v>-4.8317772217002286E-2</v>
       </c>
       <c r="O78">
-        <v>-4.8317772217002286E-2</v>
-      </c>
-      <c r="P78">
         <v>2771705.46739347</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="P78" s="3">
         <v>93.007133483886719</v>
       </c>
-      <c r="R78">
+      <c r="Q78">
         <v>1.4</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -5276,37 +5041,34 @@
         <v>3841.85</v>
       </c>
       <c r="I79">
-        <v>16447376.760129901</v>
+        <v>76685.0946750437</v>
       </c>
       <c r="J79">
-        <v>76685.0946750437</v>
+        <v>22.4839926922023</v>
       </c>
       <c r="K79">
-        <v>22.4839926922023</v>
+        <v>-1.7866509203512404E-4</v>
       </c>
       <c r="L79">
-        <v>-1.7866509203512404E-4</v>
+        <v>0.96486710332885239</v>
       </c>
       <c r="M79">
-        <v>0.96486710332885239</v>
+        <v>3.1699556291338027E-3</v>
       </c>
       <c r="N79">
-        <v>3.1699556291338027E-3</v>
+        <v>-4.1259527486768754E-2</v>
       </c>
       <c r="O79">
-        <v>-4.1259527486768754E-2</v>
-      </c>
-      <c r="P79">
         <v>2785506.5079600601</v>
       </c>
-      <c r="Q79" s="3">
+      <c r="P79" s="3">
         <v>74.127120971679688</v>
       </c>
-      <c r="R79">
+      <c r="Q79">
         <v>2.4</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -5332,37 +5094,34 @@
         <v>3771.58</v>
       </c>
       <c r="I80">
-        <v>16494957.809665799</v>
+        <v>76861.676441168296</v>
       </c>
       <c r="J80">
-        <v>76861.676441168296</v>
+        <v>22.365558294842302</v>
       </c>
       <c r="K80">
-        <v>22.365558294842302</v>
+        <v>-5.8337724872219443E-3</v>
       </c>
       <c r="L80">
-        <v>-5.8337724872219443E-3</v>
+        <v>0.88441857884959485</v>
       </c>
       <c r="M80">
-        <v>0.88441857884959485</v>
+        <v>1.4434838062104216E-2</v>
       </c>
       <c r="N80">
-        <v>1.4434838062104216E-2</v>
+        <v>-4.2500062847200981E-2</v>
       </c>
       <c r="O80">
-        <v>-4.2500062847200981E-2</v>
-      </c>
-      <c r="P80">
         <v>2808911.9422964202</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="P80" s="3">
         <v>58.420768737792969</v>
       </c>
-      <c r="R80">
+      <c r="Q80">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -5388,37 +5147,34 @@
         <v>3918.96</v>
       </c>
       <c r="I81">
-        <v>16541707.415328</v>
+        <v>76923.589215100495</v>
       </c>
       <c r="J81">
-        <v>76923.589215100495</v>
+        <v>21.2939409787964</v>
       </c>
       <c r="K81">
-        <v>21.2939409787964</v>
+        <v>-2.7651651436837454E-3</v>
       </c>
       <c r="L81">
-        <v>-2.7651651436837454E-3</v>
+        <v>4.7106264453736078E-2</v>
       </c>
       <c r="M81">
-        <v>4.7106264453736078E-2</v>
+        <v>2.3425084272964636E-2</v>
       </c>
       <c r="N81">
-        <v>2.3425084272964636E-2</v>
+        <v>-3.2519840918519227E-2</v>
       </c>
       <c r="O81">
-        <v>-3.2519840918519227E-2</v>
-      </c>
-      <c r="P81">
         <v>2820177.0217040302</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="P81" s="3">
         <v>89.486549377441406</v>
       </c>
-      <c r="R81">
+      <c r="Q81">
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -5444,37 +5200,34 @@
         <v>4103.5200000000004</v>
       </c>
       <c r="I82">
-        <v>16589250.298943</v>
+        <v>77649.891950574995</v>
       </c>
       <c r="J82">
-        <v>77649.891950574995</v>
+        <v>20.003562822103799</v>
       </c>
       <c r="K82">
-        <v>20.003562822103799</v>
+        <v>4.627006625573582E-3</v>
       </c>
       <c r="L82">
-        <v>4.627006625573582E-3</v>
+        <v>0.25469813729627022</v>
       </c>
       <c r="M82">
-        <v>0.25469813729627022</v>
+        <v>8.4696432991828718E-3</v>
       </c>
       <c r="N82">
-        <v>8.4696432991828718E-3</v>
+        <v>-3.0946739636817933E-2</v>
       </c>
       <c r="O82">
-        <v>-3.0946739636817933E-2</v>
-      </c>
-      <c r="P82">
         <v>2830299.65952957</v>
       </c>
-      <c r="Q82" s="3">
+      <c r="P82" s="3">
         <v>80.696968078613281</v>
       </c>
-      <c r="R82">
+      <c r="Q82">
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -5500,37 +5253,34 @@
         <v>4150</v>
       </c>
       <c r="I83">
-        <v>16638743.445015101</v>
+        <v>78831.0563496018</v>
       </c>
       <c r="J83">
-        <v>78831.0563496018</v>
+        <v>20.727584229409398</v>
       </c>
       <c r="K83">
-        <v>20.727584229409398</v>
+        <v>1.4475998162100545E-2</v>
       </c>
       <c r="L83">
-        <v>1.4475998162100545E-2</v>
+        <v>0.21572616233769448</v>
       </c>
       <c r="M83">
-        <v>0.21572616233769448</v>
+        <v>8.0129128604875532E-3</v>
       </c>
       <c r="N83">
-        <v>8.0129128604875532E-3</v>
+        <v>-1.6400306175781143E-2</v>
       </c>
       <c r="O83">
-        <v>-1.6400306175781143E-2</v>
-      </c>
-      <c r="P83">
         <v>2847533.8604892399</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="P83" s="3">
         <v>79.02923583984375</v>
       </c>
-      <c r="R83">
+      <c r="Q83">
         <v>3.1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -5556,37 +5306,34 @@
         <v>3890.59</v>
       </c>
       <c r="I84">
-        <v>16687755.294983299</v>
+        <v>79268.752526361204</v>
       </c>
       <c r="J84">
-        <v>79268.752526361204</v>
+        <v>20.491515819279101</v>
       </c>
       <c r="K84">
-        <v>20.491515819279101</v>
+        <v>1.489769424318621E-2</v>
       </c>
       <c r="L84">
-        <v>1.489769424318621E-2</v>
+        <v>7.9885770969721048E-2</v>
       </c>
       <c r="M84">
-        <v>7.9885770969721048E-2</v>
+        <v>8.2042515772025038E-3</v>
       </c>
       <c r="N84">
-        <v>8.2042515772025038E-3</v>
+        <v>-1.0620847250019216E-2</v>
       </c>
       <c r="O84">
-        <v>-1.0620847250019216E-2</v>
-      </c>
-      <c r="P84">
         <v>2854593.8799658702</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="P84" s="3">
         <v>86.569145202636719</v>
       </c>
-      <c r="R84">
+      <c r="Q84">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -5612,37 +5359,34 @@
         <v>3787.26</v>
       </c>
       <c r="I85">
-        <v>16737515.455475001</v>
+        <v>81153.003763717803</v>
       </c>
       <c r="J85">
-        <v>81153.003763717803</v>
+        <v>21.181904414187098</v>
       </c>
       <c r="K85">
-        <v>21.181904414187098</v>
+        <v>-1.71402122339126E-4</v>
       </c>
       <c r="L85">
-        <v>-1.71402122339126E-4</v>
+        <v>-9.4531143401347557E-3</v>
       </c>
       <c r="M85">
-        <v>-9.4531143401347557E-3</v>
+        <v>1.3129176745646731E-2</v>
       </c>
       <c r="N85">
-        <v>1.3129176745646731E-2</v>
+        <v>-4.6345054511187644E-3</v>
       </c>
       <c r="O85">
-        <v>-4.6345054511187644E-3</v>
-      </c>
-      <c r="P85">
         <v>2860453.4040336302</v>
       </c>
-      <c r="Q85" s="3">
+      <c r="P85" s="3">
         <v>105.34542083740234</v>
       </c>
-      <c r="R85">
+      <c r="Q85">
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -5668,37 +5412,34 @@
         <v>3530.38</v>
       </c>
       <c r="I86">
-        <v>16788989.192752302</v>
+        <v>81443.972166538602</v>
       </c>
       <c r="J86">
-        <v>81443.972166538602</v>
+        <v>23.483714483431999</v>
       </c>
       <c r="K86">
-        <v>23.483714483431999</v>
+        <v>2.5675570208590792E-2</v>
       </c>
       <c r="L86">
-        <v>2.5675570208590792E-2</v>
+        <v>-0.83645105204426706</v>
       </c>
       <c r="M86">
-        <v>-0.83645105204426706</v>
+        <v>1.7935930887438056E-2</v>
       </c>
       <c r="N86">
-        <v>1.7935930887438056E-2</v>
+        <v>-2.1941430286703811E-3</v>
       </c>
       <c r="O86">
-        <v>-2.1941430286703811E-3</v>
-      </c>
-      <c r="P86">
         <v>2869577.3425590098</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="P86" s="3">
         <v>138.67498779296875</v>
       </c>
-      <c r="R86">
+      <c r="Q86">
         <v>-3</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -5724,37 +5465,34 @@
         <v>2470.48</v>
       </c>
       <c r="I87">
-        <v>16840173.1383086</v>
+        <v>82906.441323879902</v>
       </c>
       <c r="J87">
-        <v>82906.441323879902</v>
+        <v>22.3140990045206</v>
       </c>
       <c r="K87">
-        <v>22.3140990045206</v>
+        <v>2.1275713672415764E-2</v>
       </c>
       <c r="L87">
-        <v>2.1275713672415764E-2</v>
+        <v>4.6803984811832251</v>
       </c>
       <c r="M87">
-        <v>4.6803984811832251</v>
+        <v>-8.050222859804268E-2</v>
       </c>
       <c r="N87">
-        <v>-8.050222859804268E-2</v>
+        <v>0</v>
       </c>
       <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87">
         <v>2872005.5145916999</v>
       </c>
-      <c r="Q87" s="3">
+      <c r="P87" s="3">
         <v>216.15901184082031</v>
       </c>
-      <c r="R87">
+      <c r="Q87">
         <v>-1.8</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -5780,37 +5518,34 @@
         <v>2703.51</v>
       </c>
       <c r="I88">
-        <v>16892039.998977002</v>
+        <v>84353.2183830336</v>
       </c>
       <c r="J88">
-        <v>84353.2183830336</v>
+        <v>42.366671807739003</v>
       </c>
       <c r="K88">
-        <v>42.366671807739003</v>
+        <v>3.6307074932138139E-2</v>
       </c>
       <c r="L88">
-        <v>3.6307074932138139E-2</v>
+        <v>-0.22915269085356257</v>
       </c>
       <c r="M88">
-        <v>-0.22915269085356257</v>
+        <v>0.10953770138511243</v>
       </c>
       <c r="N88">
-        <v>0.10953770138511243</v>
+        <v>-2.3255813953488302E-2</v>
       </c>
       <c r="O88">
-        <v>-2.3255813953488302E-2</v>
-      </c>
-      <c r="P88">
         <v>2873222.5892851502</v>
       </c>
-      <c r="Q88" s="3">
+      <c r="P88" s="3">
         <v>318.95492553710938</v>
       </c>
-      <c r="R88">
+      <c r="Q88">
         <v>-20.741116990218</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -5836,37 +5571,34 @@
         <v>2445.17</v>
       </c>
       <c r="I89">
-        <v>16945756.560028601</v>
+        <v>84923.528674102796</v>
       </c>
       <c r="J89">
-        <v>84923.528674102796</v>
+        <v>33.025797160935902</v>
       </c>
       <c r="K89">
-        <v>33.025797160935902</v>
+        <v>-7.1183989544401749E-2</v>
       </c>
       <c r="L89">
-        <v>-7.1183989544401749E-2</v>
+        <v>7.8668161719293861E-2</v>
       </c>
       <c r="M89">
-        <v>7.8668161719293861E-2</v>
+        <v>7.425589041103331E-2</v>
       </c>
       <c r="N89">
-        <v>7.425589041103331E-2</v>
+        <v>-2.3809523809523947E-2</v>
       </c>
       <c r="O89">
-        <v>-2.3809523809523947E-2</v>
-      </c>
-      <c r="P89">
         <v>2872968.7299751998</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="P89" s="3">
         <v>191.14309692382812</v>
       </c>
-      <c r="R89">
+      <c r="Q89">
         <v>31.4411169902179</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -5892,37 +5624,34 @@
         <v>2355.75</v>
       </c>
       <c r="I90">
-        <v>16998974.4371153</v>
+        <v>83616.627610802898</v>
       </c>
       <c r="J90">
-        <v>83616.627610802898</v>
+        <v>23.522565015419001</v>
       </c>
       <c r="K90">
-        <v>23.522565015419001</v>
+        <v>-2.9622549471268744E-3</v>
       </c>
       <c r="L90">
-        <v>-2.9622549471268744E-3</v>
+        <v>0.10809959221722902</v>
       </c>
       <c r="M90">
-        <v>0.10809959221722902</v>
+        <v>-2.2894092184659653E-2</v>
       </c>
       <c r="N90">
-        <v>-2.2894092184659653E-2</v>
+        <v>-2.4390243902438935E-2</v>
       </c>
       <c r="O90">
-        <v>-2.4390243902438935E-2</v>
-      </c>
-      <c r="P90">
         <v>2870607.4451226001</v>
       </c>
-      <c r="Q90" s="3">
+      <c r="P90" s="3">
         <v>142.25848388671875</v>
       </c>
-      <c r="R90">
+      <c r="Q90">
         <v>23.1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -5948,37 +5677,34 @@
         <v>2204.85</v>
       </c>
       <c r="I91">
-        <v>17052782.194040701</v>
+        <v>83308.969174413403</v>
       </c>
       <c r="J91">
-        <v>83308.969174413403</v>
+        <v>18.483266181605099</v>
       </c>
       <c r="K91">
-        <v>18.483266181605099</v>
+        <v>-8.8043176827377057E-3</v>
       </c>
       <c r="L91">
-        <v>-8.8043176827377057E-3</v>
+        <v>-0.22479039516552363</v>
       </c>
       <c r="M91">
-        <v>-0.22479039516552363</v>
+        <v>2.6027822030624703E-2</v>
       </c>
       <c r="N91">
-        <v>2.6027822030624703E-2</v>
+        <v>0</v>
       </c>
       <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91">
         <v>2866971.3455992402</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="P91" s="3">
         <v>130.70732116699219</v>
       </c>
-      <c r="R91">
+      <c r="Q91">
         <v>13.3</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -6004,37 +5730,34 @@
         <v>2213.81</v>
       </c>
       <c r="I92">
-        <v>17109170.982905202</v>
+        <v>81660.931337019603</v>
       </c>
       <c r="J92">
-        <v>81660.931337019603</v>
+        <v>16.668685544367499</v>
       </c>
       <c r="K92">
-        <v>16.668685544367499</v>
+        <v>5.5430815847068438E-3</v>
       </c>
       <c r="L92">
-        <v>5.5430815847068438E-3</v>
+        <v>-0.47336092877115638</v>
       </c>
       <c r="M92">
-        <v>-0.47336092877115638</v>
+        <v>2.8004072854244333E-2</v>
       </c>
       <c r="N92">
-        <v>2.8004072854244333E-2</v>
+        <v>-2.5000000000000022E-2</v>
       </c>
       <c r="O92">
-        <v>-2.5000000000000022E-2</v>
-      </c>
-      <c r="P92">
         <v>2857789.5413631401</v>
       </c>
-      <c r="Q92" s="3">
+      <c r="P92" s="3">
         <v>117.17676544189453</v>
       </c>
-      <c r="R92">
+      <c r="Q92">
         <v>0.9</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -6060,37 +5783,34 @@
         <v>2400.08</v>
       </c>
       <c r="I93">
-        <v>17164299.7232829</v>
+        <v>84759.289100204405</v>
       </c>
       <c r="J93">
-        <v>84759.289100204405</v>
+        <v>14.684380910765</v>
       </c>
       <c r="K93">
-        <v>14.684380910765</v>
+        <v>4.5612236060352807E-3</v>
       </c>
       <c r="L93">
-        <v>4.5612236060352807E-3</v>
+        <v>-0.5828536827606815</v>
       </c>
       <c r="M93">
-        <v>-0.5828536827606815</v>
+        <v>1.6335574122980923E-2</v>
       </c>
       <c r="N93">
-        <v>1.6335574122980923E-2</v>
+        <v>0</v>
       </c>
       <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93">
         <v>2850694.0188307399</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="P93" s="3">
         <v>132.86322021484375</v>
       </c>
-      <c r="R93">
+      <c r="Q93">
         <v>-2.7</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -6116,37 +5836,34 @@
         <v>1957.31</v>
       </c>
       <c r="I94">
-        <v>17219947.610567302</v>
+        <v>86037.280361625701</v>
       </c>
       <c r="J94">
-        <v>86037.280361625701</v>
+        <v>15.0569538635241</v>
       </c>
       <c r="K94">
-        <v>15.0569538635241</v>
+        <v>1.1818060024590404E-2</v>
       </c>
       <c r="L94">
-        <v>1.1818060024590404E-2</v>
+        <v>-1.4412128669692525</v>
       </c>
       <c r="M94">
-        <v>-1.4412128669692525</v>
+        <v>2.2364846497242796E-2</v>
       </c>
       <c r="N94">
-        <v>2.2364846497242796E-2</v>
+        <v>0</v>
       </c>
       <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94">
         <v>2842266.2534141499</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="P94" s="3">
         <v>131.98587036132812</v>
       </c>
-      <c r="R94">
+      <c r="Q94">
         <v>3.2</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -6172,37 +5889,34 @@
         <v>2166.61</v>
       </c>
       <c r="I95">
-        <v>17279132.627264101</v>
+        <v>86738.658705250898</v>
       </c>
       <c r="J95">
-        <v>86738.658705250898</v>
+        <v>15.664529972343299</v>
       </c>
       <c r="K95">
-        <v>15.664529972343299</v>
+        <v>2.1824256147650378E-2</v>
       </c>
       <c r="L95">
-        <v>2.1824256147650378E-2</v>
+        <v>-2.5982357121529156</v>
       </c>
       <c r="M95">
-        <v>-2.5982357121529156</v>
+        <v>9.6874024514630452E-3</v>
       </c>
       <c r="N95">
-        <v>9.6874024514630452E-3</v>
+        <v>0</v>
       </c>
       <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95">
         <v>2825717.2318561999</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="P95" s="3">
         <v>143.16241455078125</v>
       </c>
-      <c r="R95">
+      <c r="Q95">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -6228,37 +5942,34 @@
         <v>2174.5300000000002</v>
       </c>
       <c r="I96">
-        <v>17336007.041037399</v>
+        <v>88159.367286770794</v>
       </c>
       <c r="J96">
-        <v>88159.367286770794</v>
+        <v>17.3014463011774</v>
       </c>
       <c r="K96">
-        <v>17.3014463011774</v>
+        <v>4.1127231526054686E-3</v>
       </c>
       <c r="L96">
-        <v>4.1127231526054686E-3</v>
+        <v>0.14125937069190667</v>
       </c>
       <c r="M96">
-        <v>0.14125937069190667</v>
+        <v>1.393716723647942E-2</v>
       </c>
       <c r="N96">
-        <v>1.393716723647942E-2</v>
+        <v>-2.5641025641025661E-2</v>
       </c>
       <c r="O96">
-        <v>-2.5641025641025661E-2</v>
-      </c>
-      <c r="P96">
         <v>2814145.3874181001</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="P96" s="3">
         <v>116.71628570556641</v>
       </c>
-      <c r="R96">
+      <c r="Q96">
         <v>-2</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -6284,37 +5995,34 @@
         <v>2154.12</v>
       </c>
       <c r="I97">
-        <v>17393353.558903102</v>
+        <v>88716.884589711495</v>
       </c>
       <c r="J97">
-        <v>88716.884589711495</v>
+        <v>18.207498102984399</v>
       </c>
       <c r="K97">
-        <v>18.207498102984399</v>
+        <v>-2.2622293363900869E-3</v>
       </c>
       <c r="L97">
-        <v>-2.2622293363900869E-3</v>
+        <v>-5.2402815112027135</v>
       </c>
       <c r="M97">
-        <v>-5.2402815112027135</v>
+        <v>3.9532272666577661E-2</v>
       </c>
       <c r="N97">
-        <v>3.9532272666577661E-2</v>
+        <v>0</v>
       </c>
       <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
         <v>2801235.25410434</v>
       </c>
-      <c r="Q97" s="3">
+      <c r="P97" s="3">
         <v>111.19593811035156</v>
       </c>
-      <c r="R97">
+      <c r="Q97">
         <v>-9.1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -6340,37 +6048,34 @@
         <v>2225.6</v>
       </c>
       <c r="I98">
-        <v>17455087.809937101</v>
+        <v>92094.769197837406</v>
       </c>
       <c r="J98">
-        <v>92094.769197837406</v>
+        <v>16.563040568665901</v>
       </c>
       <c r="K98">
-        <v>16.563040568665901</v>
+        <v>3.3218907846086498E-3</v>
       </c>
       <c r="L98">
-        <v>3.3218907846086498E-3</v>
+        <v>-0.15835794262103209</v>
       </c>
       <c r="M98">
-        <v>-0.15835794262103209</v>
+        <v>0.2715438495408935</v>
       </c>
       <c r="N98">
-        <v>0.2715438495408935</v>
+        <v>-2.631578947368407E-2</v>
       </c>
       <c r="O98">
-        <v>-2.631578947368407E-2</v>
-      </c>
-      <c r="P98">
         <v>2779328.9466927699</v>
       </c>
-      <c r="Q98" s="3">
+      <c r="P98" s="3">
         <v>104.26704406738281</v>
       </c>
-      <c r="R98">
+      <c r="Q98">
         <v>-6.8</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -6396,37 +6101,34 @@
         <v>2253.16</v>
       </c>
       <c r="I99">
-        <v>17513526.8984253</v>
+        <v>93271.181503352505</v>
       </c>
       <c r="J99">
-        <v>93271.181503352505</v>
+        <v>16.4531461411549</v>
       </c>
       <c r="K99">
-        <v>16.4531461411549</v>
+        <v>5.6911267067391025E-3</v>
       </c>
       <c r="L99">
-        <v>5.6911267067391025E-3</v>
+        <v>-9.8869459120868863E-2</v>
       </c>
       <c r="M99">
-        <v>-9.8869459120868863E-2</v>
+        <v>-0.18489067623391686</v>
       </c>
       <c r="N99">
-        <v>-0.18489067623391686</v>
+        <v>-2.7027027027027084E-2</v>
       </c>
       <c r="O99">
-        <v>-2.7027027027027084E-2</v>
-      </c>
-      <c r="P99">
         <v>2763707.9440337699</v>
       </c>
-      <c r="Q99" s="3">
+      <c r="P99" s="3">
         <v>120.99437713623047</v>
       </c>
-      <c r="R99">
+      <c r="Q99">
         <v>-4.8</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -6452,37 +6154,34 @@
         <v>2450.67</v>
       </c>
       <c r="I100">
-        <v>17572434.786424</v>
+        <v>95601.6814891221</v>
       </c>
       <c r="J100">
-        <v>95601.6814891221</v>
+        <v>17.031260954051898</v>
       </c>
       <c r="K100">
-        <v>17.031260954051898</v>
+        <v>1.089157598168411E-3</v>
       </c>
       <c r="L100">
-        <v>1.089157598168411E-3</v>
+        <v>0.16953962664547692</v>
       </c>
       <c r="M100">
-        <v>0.16953962664547692</v>
+        <v>-5.9377403423154229E-3</v>
       </c>
       <c r="N100">
-        <v>-5.9377403423154229E-3</v>
+        <v>-2.777777777777779E-2</v>
       </c>
       <c r="O100">
-        <v>-2.777777777777779E-2</v>
-      </c>
-      <c r="P100">
         <v>2746876.7624093699</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="P100" s="3">
         <v>105.37997436523438</v>
       </c>
-      <c r="R100">
+      <c r="Q100">
         <v>-3.1853773039719102</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -6508,37 +6207,34 @@
         <v>2634.94</v>
       </c>
       <c r="I101">
-        <v>17636018.841774601</v>
+        <v>97120.949567075499</v>
       </c>
       <c r="J101">
-        <v>97120.949567075499</v>
+        <v>17.6121579787191</v>
       </c>
       <c r="K101">
-        <v>17.6121579787191</v>
+        <v>2.4914140546401509E-3</v>
       </c>
       <c r="L101">
-        <v>2.4914140546401509E-3</v>
+        <v>-0.17630609706812608</v>
       </c>
       <c r="M101">
-        <v>-0.17630609706812608</v>
+        <v>2.4734954882073001E-3</v>
       </c>
       <c r="N101">
-        <v>2.4734954882073001E-3</v>
+        <v>-2.8571428571428581E-2</v>
       </c>
       <c r="O101">
-        <v>-2.8571428571428581E-2</v>
-      </c>
-      <c r="P101">
         <v>2721049.5458772099</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="P101" s="3">
         <v>106.80965423583984</v>
       </c>
-      <c r="R101">
+      <c r="Q101">
         <v>-6.8146226960280902</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -6564,37 +6260,34 @@
         <v>2717.64</v>
       </c>
       <c r="I102">
-        <v>17695571.571384899</v>
+        <v>97758.925129868207</v>
       </c>
       <c r="J102">
-        <v>97758.925129868207</v>
+        <v>16.963079407613801</v>
       </c>
       <c r="K102">
-        <v>16.963079407613801</v>
+        <v>-2.246648108156668E-3</v>
       </c>
       <c r="L102">
-        <v>-2.246648108156668E-3</v>
+        <v>-7.8233496285739723E-2</v>
       </c>
       <c r="M102">
-        <v>-7.8233496285739723E-2</v>
+        <v>5.7387969243349879E-3</v>
       </c>
       <c r="N102">
-        <v>5.7387969243349879E-3</v>
+        <v>-2.9411764705882359E-2</v>
       </c>
       <c r="O102">
-        <v>-2.9411764705882359E-2</v>
-      </c>
-      <c r="P102">
         <v>2701896.4703330798</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="P102" s="3">
         <v>108.46768188476562</v>
       </c>
-      <c r="R102">
+      <c r="Q102">
         <v>3.1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -6620,37 +6313,34 @@
         <v>2797.37</v>
       </c>
       <c r="I103">
-        <v>17755549.011937201</v>
+        <v>99696.1846315609</v>
       </c>
       <c r="J103">
-        <v>99696.1846315609</v>
+        <v>16.570376266118402</v>
       </c>
       <c r="K103">
-        <v>16.570376266118402</v>
+        <v>7.2123248221354075E-3</v>
       </c>
       <c r="L103">
-        <v>7.2123248221354075E-3</v>
+        <v>0.14424930927962071</v>
       </c>
       <c r="M103">
-        <v>0.14424930927962071</v>
+        <v>-2.8731673086109799E-3</v>
       </c>
       <c r="N103">
-        <v>-2.8731673086109799E-3</v>
+        <v>-3.0303030303030165E-2</v>
       </c>
       <c r="O103">
-        <v>-3.0303030303030165E-2</v>
-      </c>
-      <c r="P103">
         <v>2681631.0871992102</v>
       </c>
-      <c r="Q103" s="3">
+      <c r="P103" s="3">
         <v>110.52894592285156</v>
       </c>
-      <c r="R103">
+      <c r="Q103">
         <v>-3</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -6676,37 +6366,34 @@
         <v>3073.5</v>
       </c>
       <c r="I104">
-        <v>17820538.714804001</v>
+        <v>101991.814538406</v>
       </c>
       <c r="J104">
-        <v>101991.814538406</v>
+        <v>18.510725772716299</v>
       </c>
       <c r="K104">
-        <v>18.510725772716299</v>
+        <v>7.6828484310472733E-3</v>
       </c>
       <c r="L104">
-        <v>7.6828484310472733E-3</v>
+        <v>9.5436995308972889E-3</v>
       </c>
       <c r="M104">
-        <v>9.5436995308972889E-3</v>
+        <v>-5.8398008070170704E-5</v>
       </c>
       <c r="N104">
-        <v>-5.8398008070170704E-5</v>
+        <v>-3.125E-2</v>
       </c>
       <c r="O104">
-        <v>-3.125E-2</v>
-      </c>
-      <c r="P104">
         <v>2653940.21164707</v>
       </c>
-      <c r="Q104" s="3">
+      <c r="P104" s="3">
         <v>107.44878387451172</v>
       </c>
-      <c r="R104">
+      <c r="Q104">
         <v>-7.5</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>101</v>
       </c>
@@ -6732,37 +6419,34 @@
         <v>3227.99</v>
       </c>
       <c r="I105">
-        <v>17881313.811873998</v>
+        <v>103826.47956355401</v>
       </c>
       <c r="J105">
-        <v>103826.47956355401</v>
+        <v>23.250438678887502</v>
       </c>
       <c r="K105">
-        <v>23.250438678887502</v>
+        <v>7.6763957677783434E-3</v>
       </c>
       <c r="L105">
-        <v>7.6763957677783434E-3</v>
+        <v>-1.9973627525139218E-2</v>
       </c>
       <c r="M105">
-        <v>-1.9973627525139218E-2</v>
+        <v>1.0353642774158844E-2</v>
       </c>
       <c r="N105">
-        <v>1.0353642774158844E-2</v>
+        <v>-3.2258064516129115E-2</v>
       </c>
       <c r="O105">
-        <v>-3.2258064516129115E-2</v>
-      </c>
-      <c r="P105">
         <v>2631869.5884690699</v>
       </c>
-      <c r="Q105" s="3">
+      <c r="P105" s="3">
         <v>101.14118194580078</v>
       </c>
-      <c r="R105">
+      <c r="Q105">
         <v>-3.7</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -6788,37 +6472,34 @@
         <v>3133.26</v>
       </c>
       <c r="I106">
-        <v>17942491.8559037</v>
+        <v>105869.804619513</v>
       </c>
       <c r="J106">
-        <v>105869.804619513</v>
+        <v>24.4526084702715</v>
       </c>
       <c r="K106">
-        <v>24.4526084702715</v>
+        <v>6.6362183774097971E-3</v>
       </c>
       <c r="L106">
-        <v>6.6362183774097971E-3</v>
+        <v>0.2035042779356333</v>
       </c>
       <c r="M106">
-        <v>0.2035042779356333</v>
+        <v>7.3553092739810921E-3</v>
       </c>
       <c r="N106">
-        <v>7.3553092739810921E-3</v>
+        <v>0</v>
       </c>
       <c r="O106">
+        <v>2608895.53108028</v>
+      </c>
+      <c r="P106" s="3">
+        <v>98.634811401367188</v>
+      </c>
+      <c r="Q106">
         <v>0</v>
       </c>
-      <c r="P106">
-        <v>2608895.53108028</v>
-      </c>
-      <c r="Q106" s="3">
-        <v>98.634811401367188</v>
-      </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -6844,37 +6525,34 @@
         <v>3200.97</v>
       </c>
       <c r="I107">
-        <v>18008303.943511002</v>
+        <v>106889.68754359199</v>
       </c>
       <c r="J107">
-        <v>106889.68754359199</v>
+        <v>23.956060196198202</v>
       </c>
       <c r="K107">
-        <v>23.956060196198202</v>
+        <v>4.4126068200672774E-3</v>
       </c>
       <c r="L107">
-        <v>4.4126068200672774E-3</v>
+        <v>-7.7182809884963288E-2</v>
       </c>
       <c r="M107">
-        <v>-7.7182809884963288E-2</v>
+        <v>1.6150400120321429E-2</v>
       </c>
       <c r="N107">
-        <v>1.6150400120321429E-2</v>
+        <v>0</v>
       </c>
       <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="P107">
         <v>2579957.4542954899</v>
       </c>
-      <c r="Q107" s="3">
+      <c r="P107" s="3">
         <v>197.88700866699219</v>
       </c>
-      <c r="R107">
+      <c r="Q107">
         <v>0.8</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -6900,37 +6578,34 @@
         <v>3165.79</v>
       </c>
       <c r="I108">
-        <v>18070149.225647099</v>
+        <v>107844.602829321</v>
       </c>
       <c r="J108">
-        <v>107844.602829321</v>
+        <v>22.2436917405829</v>
       </c>
       <c r="K108">
-        <v>22.2436917405829</v>
+        <v>-2.097578855167459E-2</v>
       </c>
       <c r="L108">
-        <v>-2.097578855167459E-2</v>
+        <v>2.9733547263284726E-2</v>
       </c>
       <c r="M108">
-        <v>2.9733547263284726E-2</v>
+        <v>1.4542916712215304E-2</v>
       </c>
       <c r="N108">
-        <v>1.4542916712215304E-2</v>
+        <v>0</v>
       </c>
       <c r="O108">
-        <v>0</v>
-      </c>
-      <c r="P108">
         <v>2555592.6513347998</v>
       </c>
-      <c r="Q108" s="3">
+      <c r="P108" s="3">
         <v>156.69613647460938</v>
       </c>
-      <c r="R108">
+      <c r="Q108">
         <v>5.6</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -6956,37 +6631,34 @@
         <v>3099.11</v>
       </c>
       <c r="I109">
-        <v>18132365.9961689</v>
+        <v>107947.577100596</v>
       </c>
       <c r="J109">
-        <v>107947.577100596</v>
+        <v>21.563016951219002</v>
       </c>
       <c r="K109">
-        <v>21.563016951219002</v>
+        <v>-7.1163952396413599E-4</v>
       </c>
       <c r="L109">
-        <v>-7.1163952396413599E-4</v>
+        <v>6.7215108239427473E-2</v>
       </c>
       <c r="M109">
-        <v>6.7215108239427473E-2</v>
+        <v>-2.3773509937163873E-3</v>
       </c>
       <c r="N109">
-        <v>-2.3773509937163873E-3</v>
+        <v>-3.3333333333333326E-2</v>
       </c>
       <c r="O109">
-        <v>-3.3333333333333326E-2</v>
-      </c>
-      <c r="P109">
         <v>2530516.9645949798</v>
       </c>
-      <c r="Q109" s="3">
+      <c r="P109" s="3">
         <v>142.27946472167969</v>
       </c>
-      <c r="R109">
+      <c r="Q109">
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>106</v>
       </c>
@@ -7012,37 +6684,34 @@
         <v>3214.19</v>
       </c>
       <c r="I110">
-        <v>18198598.4949634</v>
+        <v>109370.843539865</v>
       </c>
       <c r="J110">
-        <v>109370.843539865</v>
+        <v>21.137447037096901</v>
       </c>
       <c r="K110">
-        <v>21.137447037096901</v>
+        <v>4.1254286688561237E-3</v>
       </c>
       <c r="L110">
-        <v>4.1254286688561237E-3</v>
+        <v>0.83525632994550814</v>
       </c>
       <c r="M110">
-        <v>0.83525632994550814</v>
+        <v>1.2451307182059335E-2</v>
       </c>
       <c r="N110">
-        <v>1.2451307182059335E-2</v>
+        <v>0</v>
       </c>
       <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110">
         <v>2500742.7608704502</v>
       </c>
-      <c r="Q110" s="3">
+      <c r="P110" s="3">
         <v>160.16484069824219</v>
       </c>
-      <c r="R110">
+      <c r="Q110">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -7068,37 +6737,34 @@
         <v>3256.8</v>
       </c>
       <c r="I111">
-        <v>18261370.160431501</v>
+        <v>110328.78953469401</v>
       </c>
       <c r="J111">
-        <v>110328.78953469401</v>
+        <v>19.187110932963702</v>
       </c>
       <c r="K111">
-        <v>19.187110932963702</v>
+        <v>4.4379314675989656E-3</v>
       </c>
       <c r="L111">
-        <v>4.4379314675989656E-3</v>
+        <v>0.77584726641085877</v>
       </c>
       <c r="M111">
-        <v>0.77584726641085877</v>
+        <v>3.3178130831693631E-2</v>
       </c>
       <c r="N111">
-        <v>3.3178130831693631E-2</v>
+        <v>0</v>
       </c>
       <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="P111">
         <v>2474634.3392343302</v>
       </c>
-      <c r="Q111" s="3">
+      <c r="P111" s="3">
         <v>146.59817504882812</v>
       </c>
-      <c r="R111">
+      <c r="Q111">
         <v>-1.9</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -7124,37 +6790,34 @@
         <v>3332.53</v>
       </c>
       <c r="I112">
-        <v>18324795.4566768</v>
+        <v>112140.363203031</v>
       </c>
       <c r="J112">
-        <v>112140.363203031</v>
+        <v>19.3539897495621</v>
       </c>
       <c r="K112">
-        <v>19.3539897495621</v>
+        <v>2.6577635566270685E-2</v>
       </c>
       <c r="L112">
-        <v>2.6577635566270685E-2</v>
+        <v>-5.781450952011701</v>
       </c>
       <c r="M112">
-        <v>-5.781450952011701</v>
+        <v>2.8776491357509704E-2</v>
       </c>
       <c r="N112">
-        <v>2.8776491357509704E-2</v>
+        <v>-3.4482758620689724E-2</v>
       </c>
       <c r="O112">
-        <v>-3.4482758620689724E-2</v>
-      </c>
-      <c r="P112">
         <v>2448837.3445948702</v>
       </c>
-      <c r="Q112" s="3">
+      <c r="P112" s="3">
         <v>133.21316528320312</v>
       </c>
-      <c r="R112">
+      <c r="Q112">
         <v>-1.27881766254785</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -7180,37 +6843,34 @@
         <v>3469.83</v>
       </c>
       <c r="I113">
-        <v>18389417.094033498</v>
+        <v>113342.685205174</v>
       </c>
       <c r="J113">
-        <v>113342.685205174</v>
+        <v>20.067120222899501</v>
       </c>
       <c r="K113">
-        <v>20.067120222899501</v>
+        <v>1.3525766322294852E-2</v>
       </c>
       <c r="L113">
-        <v>1.3525766322294852E-2</v>
+        <v>-6.3296104058217209</v>
       </c>
       <c r="M113">
-        <v>-6.3296104058217209</v>
+        <v>2.2397711227752692E-2</v>
       </c>
       <c r="N113">
-        <v>2.2397711227752692E-2</v>
+        <v>-3.5714285714285587E-2</v>
       </c>
       <c r="O113">
-        <v>-3.5714285714285587E-2</v>
-      </c>
-      <c r="P113">
         <v>2412623.6478812699</v>
       </c>
-      <c r="Q113" s="3">
+      <c r="P113" s="3">
         <v>163.73634338378906</v>
       </c>
-      <c r="R113">
+      <c r="Q113">
         <v>1.47881766254785</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -7236,37 +6896,34 @@
         <v>3217.19</v>
       </c>
       <c r="I114">
-        <v>18450480.722797401</v>
+        <v>117486.89770011199</v>
       </c>
       <c r="J114">
-        <v>117486.89770011199</v>
+        <v>20.7270138152554</v>
       </c>
       <c r="K114">
-        <v>20.7270138152554</v>
+        <v>1.8752945910709307E-2</v>
       </c>
       <c r="L114">
-        <v>1.8752945910709307E-2</v>
+        <v>0.87128901584879781</v>
       </c>
       <c r="M114">
-        <v>0.87128901584879781</v>
+        <v>9.2875736386184293E-3</v>
       </c>
       <c r="N114">
-        <v>9.2875736386184293E-3</v>
+        <v>-3.703703703703709E-2</v>
       </c>
       <c r="O114">
-        <v>-3.703703703703709E-2</v>
-      </c>
-      <c r="P114">
         <v>2385473.8509595701</v>
       </c>
-      <c r="Q114" s="3">
+      <c r="P114" s="3">
         <v>130.52186584472656</v>
       </c>
-      <c r="R114">
+      <c r="Q114">
         <v>2.6</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>111</v>
       </c>
@@ -7292,37 +6949,34 @@
         <v>3154.36</v>
       </c>
       <c r="I115">
-        <v>18512005.5911792</v>
+        <v>117498.518492359</v>
       </c>
       <c r="J115">
-        <v>117498.518492359</v>
+        <v>22.289013369376001</v>
       </c>
       <c r="K115">
-        <v>22.289013369376001</v>
+        <v>1.5077042908683169E-2</v>
       </c>
       <c r="L115">
-        <v>1.5077042908683169E-2</v>
+        <v>-0.96881007630449811</v>
       </c>
       <c r="M115">
-        <v>-0.96881007630449811</v>
+        <v>2.1348873943472624E-2</v>
       </c>
       <c r="N115">
-        <v>2.1348873943472624E-2</v>
+        <v>0</v>
       </c>
       <c r="O115">
-        <v>0</v>
-      </c>
-      <c r="P115">
         <v>2358422.5616938602</v>
       </c>
-      <c r="Q115" s="3">
+      <c r="P115" s="3">
         <v>112.88140869140625</v>
       </c>
-      <c r="R115">
+      <c r="Q115">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -7348,37 +7002,34 @@
         <v>2942.68</v>
       </c>
       <c r="I116">
-        <v>18577353.351200301</v>
+        <v>118051.485171751</v>
       </c>
       <c r="J116">
-        <v>118051.485171751</v>
+        <v>22.375955330005802</v>
       </c>
       <c r="K116">
-        <v>22.375955330005802</v>
+        <v>1.3344973470370114E-2</v>
       </c>
       <c r="L116">
-        <v>1.3344973470370114E-2</v>
+        <v>1.1543015585505169E-2</v>
       </c>
       <c r="M116">
-        <v>1.1543015585505169E-2</v>
+        <v>1.6903044649329457E-2</v>
       </c>
       <c r="N116">
-        <v>1.6903044649329457E-2</v>
+        <v>-3.8461538461538547E-2</v>
       </c>
       <c r="O116">
-        <v>-3.8461538461538547E-2</v>
-      </c>
-      <c r="P116">
         <v>2322870.8841285598</v>
       </c>
-      <c r="Q116" s="3">
+      <c r="P116" s="3">
         <v>92.394874572753906</v>
       </c>
-      <c r="R116">
+      <c r="Q116">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>113</v>
       </c>
@@ -7404,37 +7055,34 @@
         <v>2650.32</v>
       </c>
       <c r="I117">
-        <v>18639771.356286399</v>
+        <v>119240.365697676</v>
       </c>
       <c r="J117">
-        <v>119240.365697676</v>
+        <v>22.0387081224243</v>
       </c>
       <c r="K117">
-        <v>22.0387081224243</v>
+        <v>-4.0157844781669727E-3</v>
       </c>
       <c r="L117">
-        <v>-4.0157844781669727E-3</v>
+        <v>0.2203351403586046</v>
       </c>
       <c r="M117">
-        <v>0.2203351403586046</v>
+        <v>1.219492407792111E-2</v>
       </c>
       <c r="N117">
-        <v>1.219492407792111E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="O117">
-        <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="P117">
         <v>2295508.2208484998</v>
       </c>
-      <c r="Q117" s="3">
+      <c r="P117" s="3">
         <v>140.76402282714844</v>
       </c>
-      <c r="R117">
+      <c r="Q117">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -7460,37 +7108,34 @@
         <v>2857.56</v>
       </c>
       <c r="I118">
-        <v>18702834.672882099</v>
+        <v>120459.562606027</v>
       </c>
       <c r="J118">
-        <v>120459.562606027</v>
+        <v>22.2215690590298</v>
       </c>
       <c r="K118">
-        <v>22.2215690590298</v>
+        <v>5.9992117859006822E-3</v>
       </c>
       <c r="L118">
-        <v>5.9992117859006822E-3</v>
+        <v>-0.89767817418627782</v>
       </c>
       <c r="M118">
-        <v>-0.89767817418627782</v>
+        <v>1.6457346914710458E-2</v>
       </c>
       <c r="N118">
-        <v>1.6457346914710458E-2</v>
+        <v>0</v>
       </c>
       <c r="O118">
-        <v>0</v>
-      </c>
-      <c r="P118">
         <v>2268413.3242429402</v>
       </c>
-      <c r="Q118" s="3">
+      <c r="P118" s="3">
         <v>130.14187622070312</v>
       </c>
-      <c r="R118">
+      <c r="Q118">
         <v>-4.2</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -7516,37 +7161,34 @@
         <v>2560.1999999999998</v>
       </c>
       <c r="I119">
-        <v>18769098.902487401</v>
+        <v>122611.19445954</v>
       </c>
       <c r="J119">
-        <v>122611.19445954</v>
+        <v>23.305333532224498</v>
       </c>
       <c r="K119">
-        <v>23.305333532224498</v>
+        <v>2.1314769395940014E-2</v>
       </c>
       <c r="L119">
-        <v>2.1314769395940014E-2</v>
+        <v>9.555600848434706E-2</v>
       </c>
       <c r="M119">
-        <v>9.555600848434706E-2</v>
+        <v>1.9159954755429753E-2</v>
       </c>
       <c r="N119">
-        <v>1.9159954755429753E-2</v>
+        <v>0</v>
       </c>
       <c r="O119">
-        <v>0</v>
-      </c>
-      <c r="P119">
         <v>2234099.3743662401</v>
       </c>
-      <c r="Q119" s="3">
+      <c r="P119" s="3">
         <v>130.689208984375</v>
       </c>
-      <c r="R119">
+      <c r="Q119">
         <v>-4.4000000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -7572,37 +7214,34 @@
         <v>2578</v>
       </c>
       <c r="I120">
-        <v>18833462.794330001</v>
+        <v>125548.639590452</v>
       </c>
       <c r="J120">
-        <v>125548.639590452</v>
+        <v>25.680687858392901</v>
       </c>
       <c r="K120">
-        <v>25.680687858392901</v>
+        <v>-1.9811010766457748E-2</v>
       </c>
       <c r="L120">
-        <v>-1.9811010766457748E-2</v>
+        <v>-0.23714029258923608</v>
       </c>
       <c r="M120">
-        <v>-0.23714029258923608</v>
+        <v>1.5437091144909765E-2</v>
       </c>
       <c r="N120">
-        <v>1.5437091144909765E-2</v>
+        <v>-4.1666666666666741E-2</v>
       </c>
       <c r="O120">
-        <v>-4.1666666666666741E-2</v>
-      </c>
-      <c r="P120">
         <v>2207256.0648322101</v>
       </c>
-      <c r="Q120" s="3">
+      <c r="P120" s="3">
         <v>128.48176574707031</v>
       </c>
-      <c r="R120">
+      <c r="Q120">
         <v>-2.5</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -7628,37 +7267,34 @@
         <v>2883.04</v>
       </c>
       <c r="I121">
-        <v>18898667.175492</v>
+        <v>127837.897084557</v>
       </c>
       <c r="J121">
-        <v>127837.897084557</v>
+        <v>27.7934164499645</v>
       </c>
       <c r="K121">
-        <v>27.7934164499645</v>
+        <v>-2.8285553689308296E-2</v>
       </c>
       <c r="L121">
-        <v>-2.8285553689308296E-2</v>
+        <v>-0.30699665788276403</v>
       </c>
       <c r="M121">
-        <v>-0.30699665788276403</v>
+        <v>1.7109032785867839E-2</v>
       </c>
       <c r="N121">
-        <v>1.7109032785867839E-2</v>
+        <v>0</v>
       </c>
       <c r="O121">
-        <v>0</v>
-      </c>
-      <c r="P121">
         <v>2180783.8288626499</v>
       </c>
-      <c r="Q121" s="3">
+      <c r="P121" s="3">
         <v>142.13456726074219</v>
       </c>
-      <c r="R121">
+      <c r="Q121">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -7684,37 +7320,34 @@
         <v>2948.1</v>
       </c>
       <c r="I122">
-        <v>18966605.2021183</v>
+        <v>127509.785477144</v>
       </c>
       <c r="J122">
-        <v>127509.785477144</v>
+        <v>27.351486773481199</v>
       </c>
       <c r="K122">
-        <v>27.351486773481199</v>
+        <v>1.1393630043777359E-2</v>
       </c>
       <c r="L122">
-        <v>1.1393630043777359E-2</v>
+        <v>9.3713124145205551E-2</v>
       </c>
       <c r="M122">
-        <v>9.3713124145205551E-2</v>
+        <v>0.32248773063349545</v>
       </c>
       <c r="N122">
-        <v>0.32248773063349545</v>
+        <v>4.3478260869565188E-2</v>
       </c>
       <c r="O122">
-        <v>4.3478260869565188E-2</v>
-      </c>
-      <c r="P122">
         <v>2148189.7758336999</v>
       </c>
-      <c r="Q122" s="3">
+      <c r="P122" s="3">
         <v>112.32621765136719</v>
       </c>
-      <c r="R122">
+      <c r="Q122">
         <v>2.5</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -7740,37 +7373,34 @@
         <v>3200.48</v>
       </c>
       <c r="I123">
-        <v>19033548.727010701</v>
+        <v>128748.119556041</v>
       </c>
       <c r="J123">
-        <v>128748.119556041</v>
+        <v>22.969196458619599</v>
       </c>
       <c r="K123">
-        <v>22.969196458619599</v>
+        <v>8.8880370658939167E-3</v>
       </c>
       <c r="L123">
-        <v>8.8880370658939167E-3</v>
+        <v>-0.28373646669547897</v>
       </c>
       <c r="M123">
-        <v>-0.28373646669547897</v>
+        <v>-0.21351818787084043</v>
       </c>
       <c r="N123">
-        <v>-0.21351818787084043</v>
+        <v>0</v>
       </c>
       <c r="O123">
-        <v>0</v>
-      </c>
-      <c r="P123">
         <v>2122470.7964154002</v>
       </c>
-      <c r="Q123" s="3">
+      <c r="P123" s="3">
         <v>136.20162963867188</v>
       </c>
-      <c r="R123">
+      <c r="Q123">
         <v>7.8</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -7796,33 +7426,30 @@
         <v>3013.36</v>
       </c>
       <c r="I124">
-        <v>19101324.680873301</v>
+        <v>128272.069627633</v>
       </c>
       <c r="J124">
-        <v>128272.069627633</v>
+        <v>20.110041347936999</v>
       </c>
       <c r="K124">
-        <v>20.110041347936999</v>
+        <v>-2.819129789783914E-2</v>
       </c>
       <c r="L124">
-        <v>-2.819129789783914E-2</v>
+        <v>6.8701491701530268E-2</v>
       </c>
       <c r="M124">
-        <v>6.8701491701530268E-2</v>
+        <v>8.9174216929817085E-3</v>
       </c>
       <c r="N124">
-        <v>8.9174216929817085E-3</v>
+        <v>-4.1666666666666741E-2</v>
       </c>
       <c r="O124">
-        <v>-4.1666666666666741E-2</v>
-      </c>
-      <c r="P124">
         <v>2096455.5642526799</v>
       </c>
-      <c r="Q124" s="3">
+      <c r="P124" s="3">
         <v>174.2359619140625</v>
       </c>
-      <c r="R124">
+      <c r="Q124">
         <v>8.6588830097820502</v>
       </c>
     </row>
@@ -7834,1007 +7461,1380 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CF2C2E-E391-AE46-AF57-4DE2CE143AB9}">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7294E-2</v>
       </c>
       <c r="B2">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>15490309.0965725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-4.4057377385781103E-2</v>
       </c>
       <c r="B3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>15466725.8881729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4.8793246518479272E-3</v>
       </c>
       <c r="B4">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>15444813.3240657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-3.1131450485713863E-2</v>
       </c>
       <c r="B5">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>15410704.9298735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-6.3397836717524747E-3</v>
       </c>
       <c r="B6">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>15389773.6441461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.5460821169367089E-2</v>
       </c>
       <c r="B7">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>15369565.779535901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-1.7113034029605512E-3</v>
       </c>
       <c r="B8">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>15336253.034589199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.4432910328699866E-2</v>
       </c>
       <c r="B9">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>15317435.029217999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-1.2957078765194474E-3</v>
       </c>
       <c r="B10">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>15299508.593490001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-3.142365953608639E-2</v>
       </c>
       <c r="B11">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>15267975.7472998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-1.7647265968817605E-2</v>
       </c>
       <c r="B12">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>15251885.5698712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6.1399427986716937E-3</v>
       </c>
       <c r="B13">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>15236865.0490088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.6960694779857288E-2</v>
       </c>
       <c r="B14">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>15208298.6252867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-5.3234307502885159E-3</v>
       </c>
       <c r="B15">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>15194837.352887699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-2.4021272041197195E-2</v>
       </c>
       <c r="B16">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>15181353.60788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.0226806709954257E-3</v>
       </c>
       <c r="B17">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>15166079.749909399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-4.6799475640491028E-3</v>
       </c>
       <c r="B18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>15155234.704492901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-2.4850145129957646E-3</v>
       </c>
       <c r="B19">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>15145525.012711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-2.4201286057272675E-3</v>
       </c>
       <c r="B20">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>15135800.581114201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-4.4196891511500969E-3</v>
       </c>
       <c r="B21">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>15128808.3723279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-5.4585898731929205E-3</v>
       </c>
       <c r="B22">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>15122983.7377022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2.101696337534209E-3</v>
       </c>
       <c r="B23">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>15118797.4702999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2.1391286674048438E-3</v>
       </c>
       <c r="B24">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>15115699.39139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-8.6933167490272911E-3</v>
       </c>
       <c r="B25">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>15113786.0127408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1.0480634350350959E-2</v>
       </c>
       <c r="B26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>15114903.4785793</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6.1079135178190302E-3</v>
       </c>
       <c r="B27">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>15115588.3494628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-1.1115247578419307E-4</v>
       </c>
       <c r="B28">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>15117332.816096701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-2.0806780395390412E-3</v>
       </c>
       <c r="B29">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>15124242.9317526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-3.1628171272823913E-3</v>
       </c>
       <c r="B30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>15128542.0739609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.8939898047412029E-3</v>
       </c>
       <c r="B31">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>15133982.9974185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3.5459840341676152E-3</v>
       </c>
       <c r="B32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>15145278.186241301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-6.8613060769056045E-3</v>
       </c>
       <c r="B33">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>15153096.381486701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-4.8510699948087765E-3</v>
       </c>
       <c r="B34">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>15162011.4652765</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2.5869859774627635E-3</v>
       </c>
       <c r="B35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>15177034.707041999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5.6197711547649742E-3</v>
       </c>
       <c r="B36">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>15188126.3341421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-7.8900211305286128E-3</v>
       </c>
       <c r="B37">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>15200259.0296581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.9000502006327746E-3</v>
       </c>
       <c r="B38">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>15218358.245427901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-1.6811193246513145E-3</v>
       </c>
       <c r="B39">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>15232452.8019513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.5273994496083354E-3</v>
       </c>
       <c r="B40">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>15247517.3673466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7.643557690440228E-3</v>
       </c>
       <c r="B41">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>15268157.257783299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4.4844048395042968E-4</v>
       </c>
       <c r="B42">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>15284991.676846201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>8.639504531648412E-3</v>
       </c>
       <c r="B43">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>15302752.942927601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9.7490687010681754E-4</v>
       </c>
       <c r="B44">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>15325263.740562299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.3531972757137467E-2</v>
       </c>
       <c r="B45">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>15344616.7468335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2.2113401323211601E-3</v>
       </c>
       <c r="B46">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>15364846.2376156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-2.0301413407826097E-3</v>
       </c>
       <c r="B47">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>15388763.1985198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.5914856004952682E-3</v>
       </c>
       <c r="B48">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>15410441.863797899</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-5.5858109601767403E-3</v>
       </c>
       <c r="B49">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>15432961.807889801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-9.7069308058026493E-3</v>
       </c>
       <c r="B50">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>15457918.542675201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-2.0089527044899746E-3</v>
       </c>
       <c r="B51">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>15481789.4836572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1.6307308474796667E-3</v>
       </c>
       <c r="B52">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>15506483.867597301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3.2126964485803544E-3</v>
       </c>
       <c r="B53">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>15532240.491754999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-4.7346454629249024E-3</v>
       </c>
       <c r="B54">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>15558241.826361099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-9.0117752068146206E-3</v>
       </c>
       <c r="B55">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>15585079.5757068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-3.198462749384845E-3</v>
       </c>
       <c r="B56">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>15611458.875900101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2.0771164412809462E-3</v>
       </c>
       <c r="B57">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>15639618.138749</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-1.7635658476771177E-3</v>
       </c>
       <c r="B58">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>15668590.0354135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-8.5601877431151774E-3</v>
       </c>
       <c r="B59">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>15695992.1275346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-5.5032437841437964E-3</v>
       </c>
       <c r="B60">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>15726355.1033311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4.4762025472184774E-3</v>
       </c>
       <c r="B61">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>15757499.8056024</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-1.6668557821306607E-3</v>
       </c>
       <c r="B62">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>15786613.0466264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6.3391084598851677E-5</v>
       </c>
       <c r="B63">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>15819252.4755613</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2.0380321680217417E-2</v>
       </c>
       <c r="B64">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>15852629.0456225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-1.9959545402327139E-2</v>
       </c>
       <c r="B65">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>15884345.2399597</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-1.8359692285903062E-2</v>
       </c>
       <c r="B66">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>15919324.101518299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1.0371592361173576E-3</v>
       </c>
       <c r="B67">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>15954964.2079059</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>9.2921169496137379E-3</v>
       </c>
       <c r="B68">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>15990331.1666111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>8.7164424768894078E-3</v>
       </c>
       <c r="B69">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>16027647.3681345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>8.0317207108180355E-3</v>
       </c>
       <c r="B70">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>16065644.8800894</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-3.2200346650257394E-3</v>
       </c>
       <c r="B71">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>16104751.0223136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-7.1667460894708768E-5</v>
       </c>
       <c r="B72">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>16144442.12118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3.7151591818569418E-3</v>
       </c>
       <c r="B73">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>16184847.599830501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>9.5418900561135001E-3</v>
       </c>
       <c r="B74">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>16227404.5578252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>9.0174218256739991E-3</v>
       </c>
       <c r="B75">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>16269471.0648867</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1.0176712696291723E-2</v>
       </c>
       <c r="B76">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>16312292.718327999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1.0803682006150783E-3</v>
       </c>
       <c r="B77">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>16357738.410320699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>-3.7793774744163677E-3</v>
       </c>
       <c r="B78">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>16402153.488611501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-1.7866509203512404E-4</v>
       </c>
       <c r="B79">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>16447376.760129901</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-5.8337724872219443E-3</v>
       </c>
       <c r="B80">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>16494957.809665799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-2.7651651436837454E-3</v>
       </c>
       <c r="B81">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>16541707.415328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4.627006625573582E-3</v>
       </c>
       <c r="B82">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>16589250.298943</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1.4475998162100545E-2</v>
       </c>
       <c r="B83">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>16638743.445015101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1.489769424318621E-2</v>
       </c>
       <c r="B84">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>16687755.294983299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-1.71402122339126E-4</v>
       </c>
       <c r="B85">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>16737515.455475001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2.5675570208590792E-2</v>
       </c>
       <c r="B86">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>16788989.192752302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2.1275713672415764E-2</v>
       </c>
       <c r="B87">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>16840173.1383086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3.6307074932138139E-2</v>
       </c>
       <c r="B88">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>16892039.998977002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>-7.1183989544401749E-2</v>
       </c>
       <c r="B89">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>16945756.560028601</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-2.9622549471268744E-3</v>
       </c>
       <c r="B90">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>16998974.4371153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-8.8043176827377057E-3</v>
       </c>
       <c r="B91">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>17052782.194040701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>5.5430815847068438E-3</v>
       </c>
       <c r="B92">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>17109170.982905202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4.5612236060352807E-3</v>
       </c>
       <c r="B93">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>17164299.7232829</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1.1818060024590404E-2</v>
       </c>
       <c r="B94">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>17219947.610567302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2.1824256147650378E-2</v>
       </c>
       <c r="B95">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>17279132.627264101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4.1127231526054686E-3</v>
       </c>
       <c r="B96">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>17336007.041037399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>-2.2622293363900869E-3</v>
       </c>
       <c r="B97">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>17393353.558903102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3.3218907846086498E-3</v>
       </c>
       <c r="B98">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>17455087.809937101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>5.6911267067391025E-3</v>
       </c>
       <c r="B99">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>17513526.8984253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1.089157598168411E-3</v>
       </c>
       <c r="B100">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>17572434.786424</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2.4914140546401509E-3</v>
       </c>
       <c r="B101">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>17636018.841774601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-2.246648108156668E-3</v>
       </c>
       <c r="B102">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>17695571.571384899</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>7.2123248221354075E-3</v>
       </c>
       <c r="B103">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>17755549.011937201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>7.6828484310472733E-3</v>
       </c>
       <c r="B104">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>17820538.714804001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>7.6763957677783434E-3</v>
       </c>
       <c r="B105">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>17881313.811873998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>6.6362183774097971E-3</v>
       </c>
       <c r="B106">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>17942491.8559037</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4.4126068200672774E-3</v>
       </c>
       <c r="B107">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>18008303.943511002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>-2.097578855167459E-2</v>
       </c>
       <c r="B108">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>18070149.225647099</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>-7.1163952396413599E-4</v>
       </c>
       <c r="B109">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>18132365.9961689</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4.1254286688561237E-3</v>
       </c>
       <c r="B110">
         <v>19</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>18198598.4949634</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4.4379314675989656E-3</v>
       </c>
       <c r="B111">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>18261370.160431501</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2.6577635566270685E-2</v>
       </c>
       <c r="B112">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>18324795.4566768</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1.3525766322294852E-2</v>
       </c>
       <c r="B113">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>18389417.094033498</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1.8752945910709307E-2</v>
       </c>
       <c r="B114">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>18450480.722797401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1.5077042908683169E-2</v>
       </c>
       <c r="B115">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <v>18512005.5911792</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1.3344973470370114E-2</v>
       </c>
       <c r="B116">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <v>18577353.351200301</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>-4.0157844781669727E-3</v>
       </c>
       <c r="B117">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <v>18639771.356286399</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>5.9992117859006822E-3</v>
       </c>
       <c r="B118">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>18702834.672882099</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2.1314769395940014E-2</v>
       </c>
       <c r="B119">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>18769098.902487401</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>-1.9811010766457748E-2</v>
       </c>
       <c r="B120">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>18833462.794330001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>-2.8285553689308296E-2</v>
       </c>
       <c r="B121">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>18898667.175492</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1.1393630043777359E-2</v>
       </c>
       <c r="B122">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>18966605.2021183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>8.8880370658939167E-3</v>
       </c>
       <c r="B123">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <v>19033548.727010701</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>-2.819129789783914E-2</v>
       </c>
       <c r="B124">
         <v>17</v>
+      </c>
+      <c r="C124">
+        <v>19101324.680873301</v>
       </c>
     </row>
   </sheetData>
